--- a/dds/moorings.xlsx
+++ b/dds/moorings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="419"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="419" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="485">
   <si>
     <t>Identifier</t>
   </si>
@@ -1481,19 +1481,29 @@
   </si>
   <si>
     <t>Group</t>
+  </si>
+  <si>
+    <t>Characteristics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1516,7 +1526,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1531,32 +1541,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99FF66"/>
-        <bgColor rgb="FF92D050"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FF9BBB59"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6D9F1"/>
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFFF9900"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -1589,36 +1587,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1631,9 +1623,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
+    <cellStyle name="40% - Accent6" xfId="3" builtinId="51"/>
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1986,9 +1981,9 @@
   </sheetPr>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1:O1048576"/>
+      <selection pane="topRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1998,13 +1993,13 @@
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="100.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="9" max="1019" width="17.36328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2030,1072 +2025,1009 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="4" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="5" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="6" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+    </row>
+    <row r="7" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+    </row>
+    <row r="8" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    </row>
+    <row r="9" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    </row>
+    <row r="10" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+    </row>
+    <row r="12" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+    </row>
+    <row r="14" spans="1:8" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="16" t="s">
         <v>481</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:7" s="16" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3" t="s">
+      <c r="F27" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="6" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:7" s="16" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="9" t="s">
+    <row r="41" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="9" t="s">
+    <row r="42" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="6" t="s">
+    <row r="47" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-    </row>
-    <row r="48" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="6" t="s">
+    </row>
+    <row r="48" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-    </row>
-    <row r="49" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="6" t="s">
+    </row>
+    <row r="49" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-    </row>
-    <row r="50" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="6" t="s">
+    </row>
+    <row r="50" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-    </row>
-    <row r="51" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="6" t="s">
+    </row>
+    <row r="51" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-    </row>
-    <row r="52" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="6" t="s">
+    </row>
+    <row r="52" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-    </row>
-    <row r="53" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="6" t="s">
+    </row>
+    <row r="53" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-    </row>
-    <row r="54" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="23" t="s">
+    </row>
+    <row r="54" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="16" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="6" t="s">
+    <row r="55" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="7" t="s">
+    </row>
+    <row r="56" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-    </row>
-    <row r="57" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="11" t="s">
+    </row>
+    <row r="57" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="H57" s="11" t="s">
+      <c r="H57" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="11" t="s">
+    <row r="58" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="H58" s="11" t="s">
+      <c r="H58" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="11" t="s">
+    <row r="59" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="H59" s="11" t="s">
+      <c r="H59" s="3" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-    </row>
-    <row r="61" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="6" t="s">
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="3" t="s">
+      <c r="G61" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H61" s="6" t="s">
+      <c r="H61" s="16" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="6" t="s">
+    <row r="62" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-    </row>
-    <row r="63" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="11" t="s">
+    </row>
+    <row r="63" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="3" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3129,32 +3061,32 @@
     <col min="21" max="1025" width="8.08984375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="4" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3173,34 +3105,34 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:17" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -3317,7 +3249,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B10" t="s">
@@ -3352,7 +3284,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="8" t="s">
         <v>145</v>
       </c>
       <c r="B11" t="s">
@@ -3388,15 +3320,15 @@
       <c r="L11" t="s">
         <v>255</v>
       </c>
-      <c r="M11" s="16" t="s">
+      <c r="M11" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="N11" s="16" t="s">
+      <c r="N11" s="8" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="8" t="s">
         <v>148</v>
       </c>
       <c r="B12" t="s">
@@ -3438,15 +3370,15 @@
       <c r="N12" t="s">
         <v>263</v>
       </c>
-      <c r="O12" s="16" t="s">
+      <c r="O12" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="P12" s="16" t="s">
+      <c r="P12" s="8" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="8" t="s">
         <v>151</v>
       </c>
       <c r="B13" t="s">
@@ -3482,15 +3414,15 @@
       <c r="L13" t="s">
         <v>255</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="M13" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="N13" s="8" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="8" t="s">
         <v>154</v>
       </c>
       <c r="B14" t="s">
@@ -3526,15 +3458,15 @@
       <c r="L14" t="s">
         <v>255</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="M14" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="N14" s="16" t="s">
+      <c r="N14" s="8" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="8" t="s">
         <v>157</v>
       </c>
       <c r="B15" t="s">
@@ -3564,15 +3496,15 @@
       <c r="J15" t="s">
         <v>255</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L15" s="8" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="8" t="s">
         <v>160</v>
       </c>
       <c r="B16" t="s">
@@ -3608,15 +3540,15 @@
       <c r="L16" t="s">
         <v>263</v>
       </c>
-      <c r="M16" s="16" t="s">
+      <c r="M16" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="N16" s="16" t="s">
+      <c r="N16" s="8" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B17" t="s">
@@ -3652,38 +3584,38 @@
       <c r="L17" t="s">
         <v>263</v>
       </c>
-      <c r="M17" s="16" t="s">
+      <c r="M17" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="N17" s="16" t="s">
+      <c r="N17" s="8" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="8" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="8" t="s">
         <v>169</v>
       </c>
       <c r="B19" t="s">
         <v>245</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="8" t="s">
         <v>271</v>
       </c>
       <c r="E19" t="s">
@@ -3700,10 +3632,10 @@
       <c r="B20" t="s">
         <v>245</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="8" t="s">
         <v>271</v>
       </c>
       <c r="E20" t="s">
@@ -3792,7 +3724,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="8" t="s">
         <v>191</v>
       </c>
       <c r="B24" t="s">
@@ -3825,15 +3757,15 @@
       <c r="K24" t="s">
         <v>255</v>
       </c>
-      <c r="L24" s="16" t="s">
+      <c r="L24" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="M24" s="16" t="s">
+      <c r="M24" s="8" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="8" t="s">
         <v>194</v>
       </c>
       <c r="B25" t="s">
@@ -3898,42 +3830,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="9" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="B2" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -4081,7 +4013,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B11" t="s">
@@ -4116,7 +4048,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B12" t="s">
@@ -4124,7 +4056,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B13" t="s">
@@ -4311,7 +4243,7 @@
       <c r="A36" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="11" t="s">
         <v>298</v>
       </c>
     </row>
@@ -4319,7 +4251,7 @@
       <c r="A37" t="s">
         <v>113</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="11" t="s">
         <v>298</v>
       </c>
     </row>
@@ -4388,7 +4320,7 @@
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="8" t="s">
         <v>145</v>
       </c>
       <c r="B46" t="s">
@@ -4424,15 +4356,15 @@
       <c r="L46" t="s">
         <v>298</v>
       </c>
-      <c r="M46" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="N46" s="16" t="s">
+      <c r="M46" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="N46" s="8" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="8" t="s">
         <v>148</v>
       </c>
       <c r="B47" t="s">
@@ -4474,16 +4406,16 @@
       <c r="N47" t="s">
         <v>298</v>
       </c>
-      <c r="O47" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="P47" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q47" s="16"/>
+      <c r="O47" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="P47" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q47" s="8"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="8" t="s">
         <v>151</v>
       </c>
       <c r="B48" t="s">
@@ -4519,15 +4451,15 @@
       <c r="L48" t="s">
         <v>298</v>
       </c>
-      <c r="M48" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="N48" s="16" t="s">
+      <c r="M48" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="N48" s="8" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="8" t="s">
         <v>154</v>
       </c>
       <c r="B49" t="s">
@@ -4563,15 +4495,15 @@
       <c r="L49" t="s">
         <v>298</v>
       </c>
-      <c r="M49" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="N49" s="16" t="s">
+      <c r="M49" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="N49" s="8" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="8" t="s">
         <v>157</v>
       </c>
       <c r="B50" t="s">
@@ -4601,15 +4533,15 @@
       <c r="J50" t="s">
         <v>298</v>
       </c>
-      <c r="K50" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="L50" s="16" t="s">
+      <c r="K50" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="L50" s="8" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="8" t="s">
         <v>160</v>
       </c>
       <c r="B51" t="s">
@@ -4645,15 +4577,15 @@
       <c r="L51" t="s">
         <v>302</v>
       </c>
-      <c r="M51" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="N51" s="16" t="s">
+      <c r="M51" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="N51" s="8" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B52" t="s">
@@ -4689,24 +4621,24 @@
       <c r="L52" t="s">
         <v>302</v>
       </c>
-      <c r="M52" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="N52" s="16" t="s">
+      <c r="M52" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="N52" s="8" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="8" t="s">
         <v>169</v>
       </c>
       <c r="B53" t="s">
         <v>299</v>
       </c>
-      <c r="C53" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="D53" s="16" t="s">
+      <c r="C53" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>298</v>
       </c>
       <c r="E53" t="s">
@@ -4723,10 +4655,10 @@
       <c r="B54" t="s">
         <v>299</v>
       </c>
-      <c r="C54" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="D54" s="16" t="s">
+      <c r="C54" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>298</v>
       </c>
       <c r="E54" t="s">
@@ -4823,7 +4755,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="8" t="s">
         <v>191</v>
       </c>
       <c r="B59" t="s">
@@ -4856,15 +4788,15 @@
       <c r="K59" t="s">
         <v>298</v>
       </c>
-      <c r="L59" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="M59" s="16" t="s">
+      <c r="L59" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="M59" s="8" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="8" t="s">
         <v>194</v>
       </c>
       <c r="B60" t="s">
@@ -4929,19 +4861,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="9" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4977,7 +4909,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B4" t="s">
@@ -5012,7 +4944,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B5" t="s">
@@ -5218,7 +5150,7 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="8" t="s">
         <v>145</v>
       </c>
       <c r="B30" t="s">
@@ -5254,15 +5186,15 @@
       <c r="L30" t="s">
         <v>322</v>
       </c>
-      <c r="M30" s="16" t="s">
+      <c r="M30" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="N30" s="16" t="s">
+      <c r="N30" s="8" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="8" t="s">
         <v>148</v>
       </c>
       <c r="B31" t="s">
@@ -5304,16 +5236,16 @@
       <c r="N31" t="s">
         <v>302</v>
       </c>
-      <c r="O31" s="16" t="s">
+      <c r="O31" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="P31" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q31" s="16"/>
+      <c r="P31" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q31" s="8"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="8" t="s">
         <v>151</v>
       </c>
       <c r="B32" t="s">
@@ -5349,15 +5281,15 @@
       <c r="L32" t="s">
         <v>322</v>
       </c>
-      <c r="M32" s="16" t="s">
+      <c r="M32" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="8" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="8" t="s">
         <v>154</v>
       </c>
       <c r="B33" t="s">
@@ -5393,15 +5325,15 @@
       <c r="L33" t="s">
         <v>322</v>
       </c>
-      <c r="M33" s="16" t="s">
+      <c r="M33" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="N33" s="16" t="s">
+      <c r="N33" s="8" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="8" t="s">
         <v>157</v>
       </c>
       <c r="B34" t="s">
@@ -5431,15 +5363,15 @@
       <c r="J34" t="s">
         <v>322</v>
       </c>
-      <c r="K34" s="16" t="s">
+      <c r="K34" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="L34" s="16" t="s">
+      <c r="L34" s="8" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="8" t="s">
         <v>160</v>
       </c>
       <c r="B35" t="s">
@@ -5475,15 +5407,15 @@
       <c r="L35" t="s">
         <v>302</v>
       </c>
-      <c r="M35" s="16" t="s">
+      <c r="M35" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="N35" s="16" t="s">
+      <c r="N35" s="8" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B36" t="s">
@@ -5519,15 +5451,15 @@
       <c r="L36" t="s">
         <v>302</v>
       </c>
-      <c r="M36" s="16" t="s">
+      <c r="M36" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="N36" s="16" t="s">
+      <c r="N36" s="8" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="8" t="s">
         <v>166</v>
       </c>
       <c r="B37" t="s">
@@ -5616,7 +5548,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="8" t="s">
         <v>191</v>
       </c>
       <c r="B41" t="s">
@@ -5649,15 +5581,15 @@
       <c r="K41" t="s">
         <v>322</v>
       </c>
-      <c r="L41" s="16" t="s">
+      <c r="L41" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="M41" s="16" t="s">
+      <c r="M41" s="8" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="8" t="s">
         <v>194</v>
       </c>
       <c r="B42" t="s">
@@ -5711,7 +5643,7 @@
   </sheetPr>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -5732,34 +5664,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="9" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5767,7 +5699,7 @@
       <c r="A2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="11" t="s">
         <v>332</v>
       </c>
       <c r="C2" t="s">
@@ -5778,7 +5710,7 @@
       <c r="A3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="11" t="s">
         <v>332</v>
       </c>
       <c r="C3" t="s">
@@ -5789,7 +5721,7 @@
       <c r="A4" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="11" t="s">
         <v>332</v>
       </c>
       <c r="C4" t="s">
@@ -5800,7 +5732,7 @@
       <c r="A5" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="11" t="s">
         <v>332</v>
       </c>
       <c r="C5" t="s">
@@ -5811,7 +5743,7 @@
       <c r="A6" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="11" t="s">
         <v>332</v>
       </c>
       <c r="C6" t="s">
@@ -5822,7 +5754,7 @@
       <c r="A7" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="11" t="s">
         <v>332</v>
       </c>
       <c r="C7" t="s">
@@ -5833,7 +5765,7 @@
       <c r="A8" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="11" t="s">
         <v>332</v>
       </c>
       <c r="C8" t="s">
@@ -5844,7 +5776,7 @@
       <c r="A9" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="11" t="s">
         <v>332</v>
       </c>
       <c r="C9" t="s">
@@ -5863,10 +5795,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="11" t="s">
         <v>332</v>
       </c>
       <c r="C11" t="s">
@@ -5877,7 +5809,7 @@
       <c r="A12" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="11" t="s">
         <v>332</v>
       </c>
       <c r="C12" t="s">
@@ -5888,7 +5820,7 @@
       <c r="A13" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="11" t="s">
         <v>332</v>
       </c>
       <c r="C13" t="s">
@@ -5899,7 +5831,7 @@
       <c r="A14" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="11" t="s">
         <v>332</v>
       </c>
       <c r="C14" t="s">
@@ -5910,7 +5842,7 @@
       <c r="A15" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="11" t="s">
         <v>332</v>
       </c>
       <c r="C15" t="s">
@@ -5921,7 +5853,7 @@
       <c r="A16" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="11" t="s">
         <v>332</v>
       </c>
       <c r="C16" t="s">
@@ -5932,7 +5864,7 @@
       <c r="A17" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="11" t="s">
         <v>332</v>
       </c>
       <c r="C17" t="s">
@@ -6028,32 +5960,32 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="12" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="12" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="12" t="s">
         <v>359</v>
       </c>
       <c r="C28" t="s">
@@ -6064,10 +5996,10 @@
       <c r="A29" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="12" t="s">
         <v>364</v>
       </c>
       <c r="D29" t="s">
@@ -6078,25 +6010,25 @@
       <c r="A30" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="H30" s="14" t="s">
+      <c r="H30" s="6" t="s">
         <v>372</v>
       </c>
     </row>
@@ -6104,25 +6036,25 @@
       <c r="A31" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H31" s="6" t="s">
         <v>372</v>
       </c>
     </row>
@@ -6130,16 +6062,16 @@
       <c r="A32" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="12" t="s">
         <v>376</v>
       </c>
     </row>
@@ -6147,13 +6079,13 @@
       <c r="A33" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="12" t="s">
         <v>377</v>
       </c>
       <c r="C33" t="s">
         <v>364</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="12" t="s">
         <v>378</v>
       </c>
       <c r="E33" t="s">
@@ -6170,13 +6102,13 @@
       <c r="A34" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="12" t="s">
         <v>381</v>
       </c>
       <c r="C34" t="s">
         <v>382</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="12" t="s">
         <v>383</v>
       </c>
       <c r="E34" t="s">
@@ -6193,7 +6125,7 @@
       <c r="A35" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="12" t="s">
         <v>387</v>
       </c>
       <c r="C35" t="s">
@@ -6210,7 +6142,7 @@
       <c r="A36" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="12" t="s">
         <v>390</v>
       </c>
       <c r="C36" t="s">
@@ -6233,45 +6165,45 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F37" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="G37" s="21" t="s">
+      <c r="G37" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="H37" s="21" t="s">
+      <c r="H37" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="I37" s="20" t="s">
+      <c r="I37" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="J37" s="20" t="s">
+      <c r="J37" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="K37" s="20" t="s">
+      <c r="K37" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="L37" s="20" t="s">
+      <c r="L37" s="12" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="8" t="s">
         <v>145</v>
       </c>
       <c r="B38" t="s">
@@ -6304,45 +6236,45 @@
       <c r="K38" t="s">
         <v>416</v>
       </c>
-      <c r="L38" s="22" t="s">
+      <c r="L38" s="14" t="s">
         <v>417</v>
       </c>
       <c r="M38" t="s">
         <v>418</v>
       </c>
-      <c r="N38" s="22" t="s">
+      <c r="N38" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="O38" s="16" t="s">
+      <c r="O38" s="8" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="H39" s="16" t="s">
+      <c r="H39" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="I39" s="16" t="s">
+      <c r="I39" s="8" t="s">
         <v>414</v>
       </c>
       <c r="J39" t="s">
@@ -6354,115 +6286,115 @@
       <c r="L39" t="s">
         <v>424</v>
       </c>
-      <c r="M39" s="16" t="s">
+      <c r="M39" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="N39" s="22" t="s">
+      <c r="N39" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="O39" s="22" t="s">
+      <c r="O39" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="P39" s="16" t="s">
+      <c r="P39" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="Q39" s="16" t="s">
+      <c r="Q39" s="8" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="I40" s="16" t="s">
+      <c r="I40" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="J40" s="16" t="s">
+      <c r="J40" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="K40" s="16" t="s">
+      <c r="K40" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="L40" s="22" t="s">
+      <c r="L40" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="M40" s="16" t="s">
+      <c r="M40" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="N40" s="22" t="s">
+      <c r="N40" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="O40" s="16" t="s">
+      <c r="O40" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="F41" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="H41" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="I41" s="16" t="s">
+      <c r="I41" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="J41" s="16" t="s">
+      <c r="J41" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="K41" s="16" t="s">
+      <c r="K41" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="L41" s="22" t="s">
+      <c r="L41" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="M41" s="16" t="s">
+      <c r="M41" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="N41" s="22" t="s">
+      <c r="N41" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="O41" s="16" t="s">
+      <c r="O41" s="8" t="s">
         <v>420</v>
       </c>
     </row>
@@ -6470,178 +6402,178 @@
       <c r="A42" t="s">
         <v>157</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="H42" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="I42" s="16" t="s">
+      <c r="I42" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="J42" s="22" t="s">
+      <c r="J42" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="K42" s="16" t="s">
+      <c r="K42" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="L42" s="22" t="s">
+      <c r="L42" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="M42" s="16" t="s">
+      <c r="M42" s="8" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G43" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="H43" s="16" t="s">
+      <c r="H43" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="I43" s="16" t="s">
+      <c r="I43" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="J43" s="16" t="s">
+      <c r="J43" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="K43" s="16" t="s">
+      <c r="K43" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="L43" s="22" t="s">
+      <c r="L43" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="M43" s="22" t="s">
+      <c r="M43" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="N43" s="16" t="s">
+      <c r="N43" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="O43" s="16" t="s">
+      <c r="O43" s="8" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F44" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="H44" s="16" t="s">
+      <c r="H44" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="I44" s="16" t="s">
+      <c r="I44" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="J44" s="16" t="s">
+      <c r="J44" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="K44" s="16" t="s">
+      <c r="K44" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="L44" s="22" t="s">
+      <c r="L44" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="M44" s="22" t="s">
+      <c r="M44" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="N44" s="16" t="s">
+      <c r="N44" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="O44" s="16" t="s">
+      <c r="O44" s="8" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="45" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="16" t="s">
+    <row r="45" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="H45" s="16" t="s">
+      <c r="H45" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="I45" s="16" t="s">
+      <c r="I45" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="J45" s="16" t="s">
+      <c r="J45" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="K45" s="22" t="s">
+      <c r="K45" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="L45" s="16" t="s">
+      <c r="L45" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="M45" s="22" t="s">
+      <c r="M45" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="N45" s="16" t="s">
+      <c r="N45" s="8" t="s">
         <v>420</v>
       </c>
     </row>
@@ -6660,7 +6592,7 @@
       <c r="A47" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="8" t="s">
         <v>332</v>
       </c>
       <c r="C47" t="s">
@@ -6671,7 +6603,7 @@
       <c r="A48" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="8" t="s">
         <v>332</v>
       </c>
       <c r="C48" t="s">
@@ -6682,10 +6614,10 @@
       <c r="A49" t="s">
         <v>166</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="8" t="s">
         <v>408</v>
       </c>
       <c r="D49" t="s">
@@ -6696,7 +6628,7 @@
       <c r="A50" t="s">
         <v>188</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="8" t="s">
         <v>332</v>
       </c>
       <c r="C50" t="s">
@@ -6718,22 +6650,22 @@
       <c r="A52" t="s">
         <v>169</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="F52" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="G52" s="16" t="s">
+      <c r="G52" s="8" t="s">
         <v>450</v>
       </c>
     </row>
@@ -6741,22 +6673,22 @@
       <c r="A53" t="s">
         <v>172</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="8" t="s">
         <v>446</v>
       </c>
       <c r="D53" t="s">
         <v>451</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="G53" s="16" t="s">
+      <c r="G53" s="8" t="s">
         <v>454</v>
       </c>
     </row>
@@ -6773,8 +6705,8 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6784,25 +6716,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="9" t="s">
         <v>460</v>
       </c>
     </row>

--- a/dds/moorings.xlsx
+++ b/dds/moorings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="419" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="419" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -1027,9 +1027,6 @@
     <t>Table …</t>
   </si>
   <si>
-    <t>project_device</t>
-  </si>
-  <si>
     <t>depth_variation_permitted</t>
   </si>
   <si>
@@ -1054,9 +1051,6 @@
     <t>prescribed_mooring_system</t>
   </si>
   <si>
-    <t>project_bathymetry_geotechnic</t>
-  </si>
-  <si>
     <t>soil_sensitivity</t>
   </si>
   <si>
@@ -1081,9 +1075,6 @@
     <t>device_surface_roughness</t>
   </si>
   <si>
-    <t>project_farm</t>
-  </si>
-  <si>
     <t>wind_gust_direction</t>
   </si>
   <si>
@@ -1108,9 +1099,6 @@
     <t>water_level_min</t>
   </si>
   <si>
-    <t xml:space="preserve">ref_general_parameter </t>
-  </si>
-  <si>
     <t>costcon</t>
   </si>
   <si>
@@ -1120,18 +1108,12 @@
     <t>coststeel</t>
   </si>
   <si>
-    <t>ref_line_bcf</t>
-  </si>
-  <si>
     <t>soil_friction_angle</t>
   </si>
   <si>
     <t>bearing_capacity_factor</t>
   </si>
   <si>
-    <t>ref_pile_moment_coefficient_sam</t>
-  </si>
-  <si>
     <t>depth_coefficient</t>
   </si>
   <si>
@@ -1150,21 +1132,12 @@
     <t>pile_length_relative_soil_pile_stiffness_2</t>
   </si>
   <si>
-    <t>ref_pile_moment_coefficient_sbm</t>
-  </si>
-  <si>
-    <t>ref_pile_deflection_coefficients</t>
-  </si>
-  <si>
     <t>coefficient_ay</t>
   </si>
   <si>
     <t>coefficient_by</t>
   </si>
   <si>
-    <t>ref_pile_limiting_values_noncalcareous</t>
-  </si>
-  <si>
     <t>friction_angle_sand_pile</t>
   </si>
   <si>
@@ -1174,9 +1147,6 @@
     <t>max_end_bearing_capacity</t>
   </si>
   <si>
-    <t>ref_subgrade_reaction_coefficient_cohesionless</t>
-  </si>
-  <si>
     <t>allowable_deflection_diameter</t>
   </si>
   <si>
@@ -1192,18 +1162,12 @@
     <t>relative_density_85</t>
   </si>
   <si>
-    <t>ref_subgrade_reaction_coefficient_k1_cohesive</t>
-  </si>
-  <si>
     <t>softclay</t>
   </si>
   <si>
     <t>stiffclay</t>
   </si>
   <si>
-    <t>ref_holding_capacity_factors_plate_anchors</t>
-  </si>
-  <si>
     <t>relative_embedment_depth</t>
   </si>
   <si>
@@ -1222,9 +1186,6 @@
     <t>drained_friction_angle_40deg</t>
   </si>
   <si>
-    <t>soil_type_geotechnical_properties</t>
-  </si>
-  <si>
     <t>soil_type</t>
   </si>
   <si>
@@ -1252,9 +1213,6 @@
     <t>rock_compressive_strength</t>
   </si>
   <si>
-    <t>view_component_moorings_chain</t>
-  </si>
-  <si>
     <t>component_id</t>
   </si>
   <si>
@@ -1294,9 +1252,6 @@
     <t>environmental_impact</t>
   </si>
   <si>
-    <t>view_component_foundations_anchor</t>
-  </si>
-  <si>
     <t>width</t>
   </si>
   <si>
@@ -1318,12 +1273,6 @@
     <t>cost</t>
   </si>
   <si>
-    <t>view_component_moorings_forerunner</t>
-  </si>
-  <si>
-    <t>view_component_foundations_pile</t>
-  </si>
-  <si>
     <t>yield_stress</t>
   </si>
   <si>
@@ -1333,18 +1282,6 @@
     <t>thickness</t>
   </si>
   <si>
-    <t>view_component_moorings_rope</t>
-  </si>
-  <si>
-    <t>view_component_moorings_shackle</t>
-  </si>
-  <si>
-    <t>view_component_moorings_swivel</t>
-  </si>
-  <si>
-    <t>view_component_moorings_umbilical</t>
-  </si>
-  <si>
     <t>minimum_bend_radius</t>
   </si>
   <si>
@@ -1366,9 +1303,6 @@
     <t>moor_found_current_profile</t>
   </si>
   <si>
-    <t>component_anchor</t>
-  </si>
-  <si>
     <t>fk_component_id</t>
   </si>
   <si>
@@ -1484,6 +1418,72 @@
   </si>
   <si>
     <t>Characteristics</t>
+  </si>
+  <si>
+    <t>filter.device</t>
+  </si>
+  <si>
+    <t>filter.bathymetry_geotechnic</t>
+  </si>
+  <si>
+    <t>filter.farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reference.ref_general_parameter </t>
+  </si>
+  <si>
+    <t>reference.ref_line_bcf</t>
+  </si>
+  <si>
+    <t>reference.ref_pile_moment_coefficient_sam</t>
+  </si>
+  <si>
+    <t>reference.ref_pile_moment_coefficient_sbm</t>
+  </si>
+  <si>
+    <t>reference.ref_pile_deflection_coefficients</t>
+  </si>
+  <si>
+    <t>reference.ref_pile_limiting_values_noncalcareous</t>
+  </si>
+  <si>
+    <t>reference.ref_subgrade_reaction_coefficient_cohesionless</t>
+  </si>
+  <si>
+    <t>reference.ref_subgrade_reaction_coefficient_k1_cohesive</t>
+  </si>
+  <si>
+    <t>reference.ref_holding_capacity_factors_plate_anchors</t>
+  </si>
+  <si>
+    <t>reference.soil_type_geotechnical_properties</t>
+  </si>
+  <si>
+    <t>reference.view_component_moorings_chain</t>
+  </si>
+  <si>
+    <t>reference.view_component_foundations_anchor</t>
+  </si>
+  <si>
+    <t>reference.view_component_moorings_forerunner</t>
+  </si>
+  <si>
+    <t>reference.view_component_foundations_pile</t>
+  </si>
+  <si>
+    <t>reference.view_component_moorings_rope</t>
+  </si>
+  <si>
+    <t>reference.view_component_moorings_shackle</t>
+  </si>
+  <si>
+    <t>reference.view_component_moorings_swivel</t>
+  </si>
+  <si>
+    <t>reference.view_component_moorings_umbilical</t>
+  </si>
+  <si>
+    <t>reference.component_anchor</t>
   </si>
 </sst>
 </file>
@@ -2013,10 +2013,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -2173,7 +2173,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>41</v>
@@ -2187,7 +2187,7 @@
         <v>43</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>44</v>
@@ -2374,7 +2374,7 @@
         <v>79</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>46</v>
@@ -2391,7 +2391,7 @@
         <v>81</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>46</v>
@@ -2428,7 +2428,7 @@
         <v>87</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>46</v>
@@ -2733,7 +2733,7 @@
         <v>144</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="G46" s="16" t="s">
         <v>46</v>
@@ -2842,7 +2842,7 @@
         <v>166</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>167</v>
@@ -2887,7 +2887,7 @@
         <v>176</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>177</v>
@@ -2904,7 +2904,7 @@
         <v>180</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>181</v>
@@ -3020,7 +3020,7 @@
         <v>180</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>201</v>
@@ -5643,24 +5643,26 @@
   </sheetPr>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.90625"/>
-    <col min="2" max="2" width="43.08984375"/>
-    <col min="3" max="3" width="34.90625"/>
-    <col min="4" max="4" width="38.08984375"/>
-    <col min="5" max="6" width="37.36328125"/>
-    <col min="7" max="7" width="47.6328125"/>
-    <col min="8" max="8" width="49.54296875"/>
-    <col min="9" max="9" width="30.54296875"/>
-    <col min="10" max="10" width="32.36328125"/>
-    <col min="11" max="11" width="17.36328125"/>
-    <col min="12" max="12" width="27.453125"/>
-    <col min="13" max="1025" width="17.36328125"/>
+    <col min="1" max="1" width="45.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="1025" width="17.36328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -5700,10 +5702,10 @@
         <v>45</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="C2" t="s">
         <v>332</v>
-      </c>
-      <c r="C2" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -5711,10 +5713,10 @@
         <v>49</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>332</v>
+        <v>463</v>
       </c>
       <c r="C3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -5722,10 +5724,10 @@
         <v>52</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>332</v>
+        <v>463</v>
       </c>
       <c r="C4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -5733,10 +5735,10 @@
         <v>91</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>332</v>
+        <v>463</v>
       </c>
       <c r="C5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -5744,10 +5746,10 @@
         <v>94</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>332</v>
+        <v>463</v>
       </c>
       <c r="C6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -5755,10 +5757,10 @@
         <v>59</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>332</v>
+        <v>463</v>
       </c>
       <c r="C7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -5766,10 +5768,10 @@
         <v>62</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>332</v>
+        <v>463</v>
       </c>
       <c r="C8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -5777,10 +5779,10 @@
         <v>69</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>332</v>
+        <v>463</v>
       </c>
       <c r="C9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -5788,10 +5790,10 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>341</v>
+        <v>464</v>
       </c>
       <c r="C10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -5799,10 +5801,10 @@
         <v>75</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>332</v>
+        <v>463</v>
       </c>
       <c r="C11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -5810,10 +5812,10 @@
         <v>78</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>332</v>
+        <v>463</v>
       </c>
       <c r="C12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -5821,10 +5823,10 @@
         <v>80</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>332</v>
+        <v>463</v>
       </c>
       <c r="C13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -5832,10 +5834,10 @@
         <v>82</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>332</v>
+        <v>463</v>
       </c>
       <c r="C14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -5843,10 +5845,10 @@
         <v>143</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>332</v>
+        <v>463</v>
       </c>
       <c r="C15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -5854,10 +5856,10 @@
         <v>85</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>332</v>
+        <v>463</v>
       </c>
       <c r="C16" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -5865,10 +5867,10 @@
         <v>88</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>332</v>
+        <v>463</v>
       </c>
       <c r="C17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -5876,10 +5878,10 @@
         <v>104</v>
       </c>
       <c r="B18" t="s">
-        <v>350</v>
+        <v>465</v>
       </c>
       <c r="C18" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -5887,10 +5889,10 @@
         <v>107</v>
       </c>
       <c r="B19" t="s">
-        <v>350</v>
+        <v>465</v>
       </c>
       <c r="C19" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -5898,10 +5900,10 @@
         <v>119</v>
       </c>
       <c r="B20" t="s">
+        <v>465</v>
+      </c>
+      <c r="C20" t="s">
         <v>350</v>
-      </c>
-      <c r="C20" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -5909,10 +5911,10 @@
         <v>122</v>
       </c>
       <c r="B21" t="s">
-        <v>350</v>
+        <v>465</v>
       </c>
       <c r="C21" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -5920,10 +5922,10 @@
         <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>350</v>
+        <v>465</v>
       </c>
       <c r="C22" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -5931,10 +5933,10 @@
         <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>350</v>
+        <v>465</v>
       </c>
       <c r="C23" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -5942,10 +5944,10 @@
         <v>116</v>
       </c>
       <c r="B24" t="s">
-        <v>350</v>
+        <v>465</v>
       </c>
       <c r="C24" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -5953,10 +5955,10 @@
         <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>350</v>
+        <v>465</v>
       </c>
       <c r="C25" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -5964,10 +5966,10 @@
         <v>134</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>359</v>
+        <v>466</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -5975,10 +5977,10 @@
         <v>137</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>359</v>
+        <v>466</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -5986,10 +5988,10 @@
         <v>140</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>359</v>
+        <v>466</v>
       </c>
       <c r="C28" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -5997,13 +5999,13 @@
         <v>6</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>363</v>
+        <v>467</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D29" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -6011,25 +6013,25 @@
         <v>10</v>
       </c>
       <c r="B30" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>366</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -6037,25 +6039,25 @@
         <v>14</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>373</v>
+        <v>469</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -6063,16 +6065,16 @@
         <v>17</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>374</v>
+        <v>470</v>
       </c>
       <c r="C32" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>375</v>
-      </c>
       <c r="E32" s="12" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -6080,22 +6082,22 @@
         <v>20</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>377</v>
+        <v>471</v>
       </c>
       <c r="C33" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E33" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F33" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="G33" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -6103,22 +6105,22 @@
         <v>23</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>381</v>
+        <v>472</v>
       </c>
       <c r="C34" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="E34" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F34" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="G34" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -6126,16 +6128,16 @@
         <v>26</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>387</v>
+        <v>473</v>
       </c>
       <c r="C35" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="D35" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="E35" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -6143,25 +6145,25 @@
         <v>29</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>390</v>
+        <v>474</v>
       </c>
       <c r="C36" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D36" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="E36" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="F36" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="G36" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="H36" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -6169,37 +6171,37 @@
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>397</v>
+        <v>475</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -6207,46 +6209,46 @@
         <v>145</v>
       </c>
       <c r="B38" t="s">
-        <v>407</v>
+        <v>476</v>
       </c>
       <c r="C38" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="D38" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="E38" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F38" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="G38" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="H38" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="I38" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="J38" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="K38" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="L38" s="14" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="M38" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="N38" s="14" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
@@ -6254,52 +6256,52 @@
         <v>148</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>421</v>
+        <v>477</v>
       </c>
       <c r="C39" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="J39" t="s">
+        <v>407</v>
+      </c>
+      <c r="K39" t="s">
         <v>408</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="L39" t="s">
         <v>409</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="M39" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="N39" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="O39" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="P39" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="I39" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="J39" t="s">
-        <v>422</v>
-      </c>
-      <c r="K39" t="s">
-        <v>423</v>
-      </c>
-      <c r="L39" t="s">
-        <v>424</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="N39" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="O39" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="P39" s="8" t="s">
-        <v>428</v>
-      </c>
       <c r="Q39" s="8" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
@@ -6307,46 +6309,46 @@
         <v>151</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="L40" s="14" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="N40" s="14" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
@@ -6356,46 +6358,46 @@
         <v>154</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="N41" s="14" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
@@ -6403,40 +6405,40 @@
         <v>157</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -6444,46 +6446,46 @@
         <v>160</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F43" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="L43" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="M43" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="N43" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="I43" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="L43" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="M43" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>428</v>
-      </c>
       <c r="O43" s="8" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -6491,46 +6493,46 @@
         <v>163</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>436</v>
+        <v>482</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F44" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="L44" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="M44" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="N44" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="I44" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="K44" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="L44" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="M44" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="N44" s="8" t="s">
-        <v>428</v>
-      </c>
       <c r="O44" s="8" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="45" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -6538,43 +6540,43 @@
         <v>191</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>437</v>
+        <v>483</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -6582,10 +6584,10 @@
         <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>332</v>
+        <v>463</v>
       </c>
       <c r="C46" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
@@ -6593,10 +6595,10 @@
         <v>55</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>332</v>
+        <v>463</v>
       </c>
       <c r="C47" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -6604,10 +6606,10 @@
         <v>65</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>332</v>
+        <v>463</v>
       </c>
       <c r="C48" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -6615,13 +6617,13 @@
         <v>166</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="D49" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -6629,10 +6631,10 @@
         <v>188</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>332</v>
+        <v>463</v>
       </c>
       <c r="C50" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -6640,10 +6642,10 @@
         <v>97</v>
       </c>
       <c r="B51" t="s">
-        <v>350</v>
+        <v>465</v>
       </c>
       <c r="C51" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -6651,22 +6653,22 @@
         <v>169</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>445</v>
+        <v>484</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -6674,22 +6676,22 @@
         <v>172</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>445</v>
+        <v>484</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="D53" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -6705,7 +6707,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -6720,22 +6722,22 @@
         <v>202</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -6743,10 +6745,10 @@
         <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="C2" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -6754,10 +6756,10 @@
         <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="C3" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -6765,10 +6767,10 @@
         <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="C4" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -6776,22 +6778,22 @@
         <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="C5" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="D5" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="E5" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="F5" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="G5" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/dds/moorings.xlsx
+++ b/dds/moorings.xlsx
@@ -1426,9 +1426,6 @@
     <t>filter.bathymetry_geotechnic</t>
   </si>
   <si>
-    <t>filter.farm</t>
-  </si>
-  <si>
     <t xml:space="preserve">reference.ref_general_parameter </t>
   </si>
   <si>
@@ -1484,6 +1481,9 @@
   </si>
   <si>
     <t>reference.component_anchor</t>
+  </si>
+  <si>
+    <t>filter.lease_area</t>
   </si>
 </sst>
 </file>
@@ -5878,7 +5878,7 @@
         <v>104</v>
       </c>
       <c r="B18" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="C18" t="s">
         <v>348</v>
@@ -5889,7 +5889,7 @@
         <v>107</v>
       </c>
       <c r="B19" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="C19" t="s">
         <v>349</v>
@@ -5900,7 +5900,7 @@
         <v>119</v>
       </c>
       <c r="B20" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="C20" t="s">
         <v>350</v>
@@ -5911,7 +5911,7 @@
         <v>122</v>
       </c>
       <c r="B21" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="C21" t="s">
         <v>351</v>
@@ -5922,7 +5922,7 @@
         <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="C22" t="s">
         <v>352</v>
@@ -5933,7 +5933,7 @@
         <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="C23" t="s">
         <v>353</v>
@@ -5944,7 +5944,7 @@
         <v>116</v>
       </c>
       <c r="B24" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="C24" t="s">
         <v>354</v>
@@ -5955,7 +5955,7 @@
         <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="C25" t="s">
         <v>355</v>
@@ -5966,7 +5966,7 @@
         <v>134</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>356</v>
@@ -5977,7 +5977,7 @@
         <v>137</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>357</v>
@@ -5988,7 +5988,7 @@
         <v>140</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C28" t="s">
         <v>358</v>
@@ -5999,7 +5999,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>359</v>
@@ -6013,7 +6013,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>361</v>
@@ -6039,7 +6039,7 @@
         <v>14</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>361</v>
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>361</v>
@@ -6082,7 +6082,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C33" t="s">
         <v>359</v>
@@ -6105,7 +6105,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C34" t="s">
         <v>372</v>
@@ -6128,7 +6128,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C35" t="s">
         <v>372</v>
@@ -6145,7 +6145,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C36" t="s">
         <v>379</v>
@@ -6171,7 +6171,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>385</v>
@@ -6209,7 +6209,7 @@
         <v>145</v>
       </c>
       <c r="B38" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C38" t="s">
         <v>394</v>
@@ -6256,7 +6256,7 @@
         <v>148</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>394</v>
@@ -6309,7 +6309,7 @@
         <v>151</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>394</v>
@@ -6358,7 +6358,7 @@
         <v>154</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>394</v>
@@ -6405,7 +6405,7 @@
         <v>157</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>394</v>
@@ -6446,7 +6446,7 @@
         <v>160</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>394</v>
@@ -6493,7 +6493,7 @@
         <v>163</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>394</v>
@@ -6540,7 +6540,7 @@
         <v>191</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>394</v>
@@ -6617,7 +6617,7 @@
         <v>166</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>394</v>
@@ -6642,7 +6642,7 @@
         <v>97</v>
       </c>
       <c r="B51" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="C51" t="s">
         <v>423</v>
@@ -6653,7 +6653,7 @@
         <v>169</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>424</v>
@@ -6676,7 +6676,7 @@
         <v>172</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>424</v>

--- a/dds/moorings.xlsx
+++ b/dds/moorings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="419" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="419"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Tables" sheetId="5" r:id="rId5"/>
     <sheet name="Valid Values" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="489">
   <si>
     <t>Identifier</t>
   </si>
@@ -1484,19 +1484,38 @@
   </si>
   <si>
     <t>filter.lease_area</t>
+  </si>
+  <si>
+    <t>farm.max_gamma_100_year</t>
+  </si>
+  <si>
+    <t>Maximum JONSWAP gamma</t>
+  </si>
+  <si>
+    <t>JONSWAP gamma parameter at maximum wave conditions (100 year return period)</t>
+  </si>
+  <si>
+    <t>jonswap_gamma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1589,28 +1608,28 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1623,8 +1642,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
@@ -1979,11 +1999,11 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C31" sqref="C31"/>
+      <selection pane="topRight" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2577,7 +2597,7 @@
       <c r="C36" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="17" t="s">
         <v>115</v>
       </c>
       <c r="G36" s="16" t="s">
@@ -2585,34 +2605,31 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="16" t="s">
-        <v>116</v>
+      <c r="A37" s="17" t="s">
+        <v>485</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>98</v>
+      <c r="C37" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>98</v>
@@ -2620,16 +2637,16 @@
     </row>
     <row r="39" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G39" s="16" t="s">
         <v>98</v>
@@ -2637,277 +2654,277 @@
     </row>
     <row r="40" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G40" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>130</v>
+    <row r="41" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C42" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D43" s="15" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B46" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>147</v>
+        <v>458</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B48" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B49" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B50" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B51" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B52" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B53" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>451</v>
+        <v>37</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>37</v>
+        <v>451</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B56" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C56" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D57" s="16" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>178</v>
@@ -2915,119 +2932,136 @@
     </row>
     <row r="59" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>180</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>183</v>
+        <v>455</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>180</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H61" s="16" t="s">
-        <v>178</v>
-      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B63" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C63" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D63" s="16" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
+    <row r="64" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>180</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
+        <v>196</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>180</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>456</v>
+        <v>198</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3817,10 +3851,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4257,15 +4291,15 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>119</v>
-      </c>
-      <c r="B38" t="s">
+        <v>485</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B39" t="s">
         <v>298</v>
@@ -4273,7 +4307,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B40" t="s">
         <v>298</v>
@@ -4281,7 +4315,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B41" t="s">
         <v>298</v>
@@ -4289,7 +4323,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B42" t="s">
         <v>298</v>
@@ -4297,7 +4331,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B43" t="s">
         <v>298</v>
@@ -4305,7 +4339,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B44" t="s">
         <v>298</v>
@@ -4313,59 +4347,23 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>140</v>
       </c>
-      <c r="B45" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A46" s="8" t="s">
-        <v>145</v>
-      </c>
       <c r="B46" t="s">
-        <v>299</v>
-      </c>
-      <c r="C46" t="s">
-        <v>299</v>
-      </c>
-      <c r="D46" t="s">
-        <v>299</v>
-      </c>
-      <c r="E46" t="s">
-        <v>298</v>
-      </c>
-      <c r="F46" t="s">
-        <v>299</v>
-      </c>
-      <c r="G46" t="s">
-        <v>298</v>
-      </c>
-      <c r="H46" t="s">
-        <v>298</v>
-      </c>
-      <c r="I46" t="s">
-        <v>298</v>
-      </c>
-      <c r="J46" t="s">
-        <v>298</v>
-      </c>
-      <c r="K46" t="s">
-        <v>298</v>
-      </c>
-      <c r="L46" t="s">
-        <v>298</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="N46" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B47" t="s">
         <v>299</v>
@@ -4400,23 +4398,16 @@
       <c r="L47" t="s">
         <v>298</v>
       </c>
-      <c r="M47" t="s">
-        <v>298</v>
-      </c>
-      <c r="N47" t="s">
-        <v>298</v>
-      </c>
-      <c r="O47" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="P47" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q47" s="8"/>
+      <c r="M47" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B48" t="s">
         <v>299</v>
@@ -4451,16 +4442,23 @@
       <c r="L48" t="s">
         <v>298</v>
       </c>
-      <c r="M48" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="N48" s="8" t="s">
-        <v>301</v>
-      </c>
+      <c r="M48" t="s">
+        <v>298</v>
+      </c>
+      <c r="N48" t="s">
+        <v>298</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="P48" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q48" s="8"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B49" t="s">
         <v>299</v>
@@ -4504,7 +4502,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B50" t="s">
         <v>299</v>
@@ -4533,16 +4531,22 @@
       <c r="J50" t="s">
         <v>298</v>
       </c>
-      <c r="K50" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="L50" s="8" t="s">
+      <c r="K50" t="s">
+        <v>298</v>
+      </c>
+      <c r="L50" t="s">
+        <v>298</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="N50" s="8" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B51" t="s">
         <v>299</v>
@@ -4571,22 +4575,16 @@
       <c r="J51" t="s">
         <v>298</v>
       </c>
-      <c r="K51" t="s">
-        <v>302</v>
-      </c>
-      <c r="L51" t="s">
-        <v>302</v>
-      </c>
-      <c r="M51" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="N51" s="8" t="s">
+      <c r="K51" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="L51" s="8" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B52" t="s">
         <v>299</v>
@@ -4630,27 +4628,51 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B53" t="s">
         <v>299</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>298</v>
+      <c r="C53" t="s">
+        <v>299</v>
+      </c>
+      <c r="D53" t="s">
+        <v>299</v>
       </c>
       <c r="E53" t="s">
         <v>298</v>
       </c>
       <c r="F53" t="s">
-        <v>298</v>
+        <v>299</v>
+      </c>
+      <c r="G53" t="s">
+        <v>298</v>
+      </c>
+      <c r="H53" t="s">
+        <v>298</v>
+      </c>
+      <c r="I53" t="s">
+        <v>298</v>
+      </c>
+      <c r="J53" t="s">
+        <v>298</v>
+      </c>
+      <c r="K53" t="s">
+        <v>302</v>
+      </c>
+      <c r="L53" t="s">
+        <v>302</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>172</v>
+      <c r="A54" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="B54" t="s">
         <v>299</v>
@@ -4670,71 +4692,47 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B55" t="s">
         <v>299</v>
       </c>
-      <c r="C55" t="s">
-        <v>298</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C55" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>298</v>
       </c>
       <c r="E55" t="s">
-        <v>303</v>
+        <v>298</v>
+      </c>
+      <c r="F55" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B56" t="s">
         <v>299</v>
       </c>
       <c r="C56" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D56" t="s">
         <v>298</v>
       </c>
       <c r="E56" t="s">
-        <v>298</v>
-      </c>
-      <c r="F56" t="s">
-        <v>298</v>
-      </c>
-      <c r="G56" t="s">
-        <v>298</v>
-      </c>
-      <c r="H56" t="s">
-        <v>298</v>
-      </c>
-      <c r="I56" t="s">
-        <v>298</v>
-      </c>
-      <c r="J56" t="s">
-        <v>298</v>
-      </c>
-      <c r="K56" t="s">
-        <v>298</v>
-      </c>
-      <c r="L56" t="s">
-        <v>299</v>
-      </c>
-      <c r="M56" t="s">
-        <v>298</v>
-      </c>
-      <c r="N56" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B57" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C57" t="s">
         <v>299</v>
@@ -4743,97 +4741,141 @@
         <v>298</v>
       </c>
       <c r="E57" t="s">
+        <v>298</v>
+      </c>
+      <c r="F57" t="s">
+        <v>298</v>
+      </c>
+      <c r="G57" t="s">
+        <v>298</v>
+      </c>
+      <c r="H57" t="s">
+        <v>298</v>
+      </c>
+      <c r="I57" t="s">
+        <v>298</v>
+      </c>
+      <c r="J57" t="s">
+        <v>298</v>
+      </c>
+      <c r="K57" t="s">
+        <v>298</v>
+      </c>
+      <c r="L57" t="s">
         <v>299</v>
+      </c>
+      <c r="M57" t="s">
+        <v>298</v>
+      </c>
+      <c r="N57" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>185</v>
+      </c>
+      <c r="B58" t="s">
+        <v>298</v>
+      </c>
+      <c r="C58" t="s">
+        <v>299</v>
+      </c>
+      <c r="D58" t="s">
+        <v>298</v>
+      </c>
+      <c r="E58" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>188</v>
-      </c>
-      <c r="B58" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A59" s="8" t="s">
-        <v>191</v>
       </c>
       <c r="B59" t="s">
         <v>299</v>
       </c>
-      <c r="C59" t="s">
-        <v>299</v>
-      </c>
-      <c r="D59" t="s">
-        <v>299</v>
-      </c>
-      <c r="E59" t="s">
-        <v>298</v>
-      </c>
-      <c r="F59" t="s">
-        <v>299</v>
-      </c>
-      <c r="G59" t="s">
-        <v>298</v>
-      </c>
-      <c r="H59" t="s">
-        <v>298</v>
-      </c>
-      <c r="I59" t="s">
-        <v>298</v>
-      </c>
-      <c r="J59" t="s">
-        <v>298</v>
-      </c>
-      <c r="K59" t="s">
-        <v>298</v>
-      </c>
-      <c r="L59" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="M59" s="8" t="s">
-        <v>301</v>
-      </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B60" t="s">
         <v>299</v>
       </c>
       <c r="C60" t="s">
-        <v>303</v>
+        <v>299</v>
+      </c>
+      <c r="D60" t="s">
+        <v>299</v>
+      </c>
+      <c r="E60" t="s">
+        <v>298</v>
+      </c>
+      <c r="F60" t="s">
+        <v>299</v>
+      </c>
+      <c r="G60" t="s">
+        <v>298</v>
+      </c>
+      <c r="H60" t="s">
+        <v>298</v>
+      </c>
+      <c r="I60" t="s">
+        <v>298</v>
+      </c>
+      <c r="J60" t="s">
+        <v>298</v>
+      </c>
+      <c r="K60" t="s">
+        <v>298</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="M60" s="8" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>197</v>
+      <c r="A61" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="B61" t="s">
         <v>299</v>
       </c>
       <c r="C61" t="s">
-        <v>299</v>
-      </c>
-      <c r="D61" t="s">
-        <v>298</v>
-      </c>
-      <c r="E61" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B62" t="s">
         <v>299</v>
       </c>
       <c r="C62" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D62" t="s">
+        <v>298</v>
+      </c>
+      <c r="E62" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>200</v>
+      </c>
+      <c r="B63" t="s">
+        <v>299</v>
+      </c>
+      <c r="C63" t="s">
+        <v>298</v>
+      </c>
+      <c r="D63" t="s">
         <v>298</v>
       </c>
     </row>
@@ -4850,8 +4892,8 @@
   </sheetPr>
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5641,10 +5683,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5941,105 +5983,90 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>485</v>
       </c>
       <c r="B24" t="s">
         <v>484</v>
       </c>
       <c r="C24" t="s">
-        <v>354</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
         <v>484</v>
       </c>
       <c r="C25" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>484</v>
+      </c>
+      <c r="C26" t="s">
         <v>355</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>465</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="C29" t="s">
         <v>358</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="D29" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>366</v>
+        <v>466</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="D30" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>361</v>
@@ -6062,254 +6089,227 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="C32" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>368</v>
+      <c r="D32" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="C33" t="s">
-        <v>359</v>
+        <v>469</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>361</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="E33" t="s">
-        <v>360</v>
-      </c>
-      <c r="F33" t="s">
-        <v>370</v>
-      </c>
-      <c r="G33" t="s">
-        <v>371</v>
+        <v>367</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C34" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E34" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="F34" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G34" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C35" t="s">
         <v>372</v>
       </c>
-      <c r="D35" t="s">
-        <v>377</v>
+      <c r="D35" s="12" t="s">
+        <v>373</v>
       </c>
       <c r="E35" t="s">
-        <v>378</v>
+        <v>374</v>
+      </c>
+      <c r="F35" t="s">
+        <v>375</v>
+      </c>
+      <c r="G35" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="C36" t="s">
+        <v>372</v>
+      </c>
+      <c r="D36" t="s">
+        <v>377</v>
+      </c>
+      <c r="E36" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B37" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>379</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>380</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>381</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>382</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G37" t="s">
         <v>383</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H37" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B38" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C38" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D38" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E38" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F38" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G38" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="H38" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="I37" s="12" t="s">
+      <c r="I38" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="J37" s="12" t="s">
+      <c r="J38" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="K37" s="12" t="s">
+      <c r="K38" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="L37" s="12" t="s">
+      <c r="L38" s="12" t="s">
         <v>393</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B38" t="s">
-        <v>475</v>
-      </c>
-      <c r="C38" t="s">
-        <v>394</v>
-      </c>
-      <c r="D38" t="s">
-        <v>395</v>
-      </c>
-      <c r="E38" t="s">
-        <v>396</v>
-      </c>
-      <c r="F38" t="s">
-        <v>397</v>
-      </c>
-      <c r="G38" t="s">
-        <v>398</v>
-      </c>
-      <c r="H38" t="s">
-        <v>399</v>
-      </c>
-      <c r="I38" t="s">
-        <v>400</v>
-      </c>
-      <c r="J38" t="s">
-        <v>401</v>
-      </c>
-      <c r="K38" t="s">
-        <v>402</v>
-      </c>
-      <c r="L38" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="M38" t="s">
-        <v>404</v>
-      </c>
-      <c r="N38" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="C39" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" t="s">
+        <v>475</v>
+      </c>
+      <c r="C39" t="s">
         <v>394</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" t="s">
         <v>395</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" t="s">
         <v>396</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" t="s">
         <v>397</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" t="s">
         <v>398</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" t="s">
         <v>399</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="I39" t="s">
         <v>400</v>
       </c>
       <c r="J39" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="K39" t="s">
-        <v>408</v>
-      </c>
-      <c r="L39" t="s">
-        <v>409</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>410</v>
+        <v>402</v>
+      </c>
+      <c r="L39" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="M39" t="s">
+        <v>404</v>
       </c>
       <c r="N39" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="O39" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="P39" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q39" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="O39" s="8" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>477</v>
+        <v>148</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>476</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>394</v>
@@ -6332,33 +6332,37 @@
       <c r="I40" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="J40" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="L40" s="14" t="s">
-        <v>403</v>
+      <c r="J40" t="s">
+        <v>407</v>
+      </c>
+      <c r="K40" t="s">
+        <v>408</v>
+      </c>
+      <c r="L40" t="s">
+        <v>409</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="N40" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="O40" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="O40" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="P40" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q40" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>478</v>
+        <v>151</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>477</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>394</v>
@@ -6376,16 +6380,16 @@
         <v>398</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>401</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="L41" s="14" t="s">
         <v>403</v>
@@ -6399,13 +6403,15 @@
       <c r="O41" s="8" t="s">
         <v>406</v>
       </c>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>157</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>479</v>
+      <c r="A42" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>478</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>394</v>
@@ -6423,30 +6429,36 @@
         <v>398</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="I42" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="J42" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="J42" s="14" t="s">
+      <c r="K42" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="L42" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="K42" s="8" t="s">
+      <c r="M42" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="L42" s="14" t="s">
+      <c r="N42" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="M42" s="8" t="s">
+      <c r="O42" s="8" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A43" s="8" t="s">
-        <v>160</v>
+      <c r="A43" t="s">
+        <v>157</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>394</v>
@@ -6467,33 +6479,27 @@
         <v>399</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="J43" s="8" t="s">
         <v>401</v>
       </c>
+      <c r="J43" s="14" t="s">
+        <v>403</v>
+      </c>
       <c r="K43" s="8" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L43" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="M43" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="O43" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="M43" s="8" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>394</v>
@@ -6535,12 +6541,12 @@
         <v>406</v>
       </c>
     </row>
-    <row r="45" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>394</v>
@@ -6561,119 +6567,143 @@
         <v>399</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="K45" s="14" t="s">
+      <c r="K45" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="L45" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="M45" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="K46" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="L45" s="8" t="s">
+      <c r="L46" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="M45" s="14" t="s">
+      <c r="M46" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="N45" s="8" t="s">
+      <c r="N46" s="8" t="s">
         <v>406</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" t="s">
-        <v>463</v>
-      </c>
-      <c r="C46" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" t="s">
         <v>463</v>
       </c>
       <c r="C47" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>463</v>
       </c>
       <c r="C48" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="D49" t="s">
-        <v>421</v>
+        <v>463</v>
+      </c>
+      <c r="C49" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="C50" t="s">
-        <v>422</v>
+        <v>479</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D50" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51" t="s">
-        <v>484</v>
+        <v>188</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>463</v>
       </c>
       <c r="C51" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>169</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>428</v>
+        <v>97</v>
+      </c>
+      <c r="B52" t="s">
+        <v>484</v>
+      </c>
+      <c r="C52" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>483</v>
@@ -6681,16 +6711,39 @@
       <c r="C53" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>172</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="D54" t="s">
         <v>429</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E54" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F54" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G54" s="8" t="s">
         <v>432</v>
       </c>
     </row>

--- a/dds/moorings.xlsx
+++ b/dds/moorings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="419"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="419" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>bathymetry.line_bearing_capacity_factor</t>
-  </si>
-  <si>
     <t>NumpyLineColumn</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>Bearing capacity factor for buried mooring line (per soil friction angle)</t>
   </si>
   <si>
-    <t>bathymetry.pile_Am_moment_coefficient</t>
-  </si>
-  <si>
     <t>LineTableColumn</t>
   </si>
   <si>
@@ -73,63 +67,42 @@
     <t>Moment coefficient Am for piles (at fixed pile length/relative soil-pile stiffness values)</t>
   </si>
   <si>
-    <t>bathymetry.pile_Bm_moment_coefficient</t>
-  </si>
-  <si>
     <t>Bm Pile Moment Coefficient</t>
   </si>
   <si>
     <t>Moment coefficient Bm for piles (at fixed pile length/relative soil-pile stiffness values)</t>
   </si>
   <si>
-    <t>bathymetry.pile_deflection_coefficients</t>
-  </si>
-  <si>
     <t>Pile Deflection Coefficients</t>
   </si>
   <si>
     <t>Deflection coefficients (depth, Ay, By) for piles</t>
   </si>
   <si>
-    <t>bathymetry.pile_skin_friction_end_bearing_capacity</t>
-  </si>
-  <si>
     <t>Pile Skin Friction and End Bearing Capacity</t>
   </si>
   <si>
     <t>Skin friction and end bearing capacity of piles per soil friction angle</t>
   </si>
   <si>
-    <t>bathymetry.soil_cohesionless_reaction_coefficient</t>
-  </si>
-  <si>
     <t>Cohesionless Soil Coefficient of Subgrade Reaction</t>
   </si>
   <si>
     <t>Coefficient of subgrade reaction for cohesionless soils (35%, 50%, 65%, 85% levels per allowable deflection / diameter)</t>
   </si>
   <si>
-    <t>bathymetry.soil_cohesive_reaction_coefficient</t>
-  </si>
-  <si>
     <t>Cohesive Soil Coefficient of Subgrade Reaction</t>
   </si>
   <si>
     <t>Coefficient of subgrade reaction for cohesive soils (soft clay, stiff clay)</t>
   </si>
   <si>
-    <t>bathymetry.soil_drained_holding_capacity_factor</t>
-  </si>
-  <si>
     <t>Drained Soil Holding Capacity Factor</t>
   </si>
   <si>
     <t>Holding capacity factor for drained soil conditions (per relative embedment depth and drained friction angle)</t>
   </si>
   <si>
-    <t>bathymetry.soil_sensitivity</t>
-  </si>
-  <si>
     <t>SimpleDataColumn</t>
   </si>
   <si>
@@ -139,9 +112,6 @@
     <t>Ratio of peak to remoulded shear strength</t>
   </si>
   <si>
-    <t>bathymetry.soilprops</t>
-  </si>
-  <si>
     <t>TableDataColumn</t>
   </si>
   <si>
@@ -1496,19 +1466,56 @@
   </si>
   <si>
     <t>jonswap_gamma</t>
+  </si>
+  <si>
+    <t>constants.soil_sensitivity</t>
+  </si>
+  <si>
+    <t>constants.soil_drained_holding_capacity_factor</t>
+  </si>
+  <si>
+    <t>constants.line_bearing_capacity_factor</t>
+  </si>
+  <si>
+    <t>constants.pile_deflection_coefficients</t>
+  </si>
+  <si>
+    <t>constants.pile_skin_friction_end_bearing_capacity</t>
+  </si>
+  <si>
+    <t>constants.pile_Am_moment_coefficient</t>
+  </si>
+  <si>
+    <t>constants.pile_Bm_moment_coefficient</t>
+  </si>
+  <si>
+    <t>constants.soil_cohesionless_reaction_coefficient</t>
+  </si>
+  <si>
+    <t>constants.soil_cohesive_reaction_coefficient</t>
+  </si>
+  <si>
+    <t>constants.soilprops</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1608,28 +1615,28 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1642,8 +1649,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -2001,9 +2009,9 @@
   </sheetPr>
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C37" sqref="C37"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2033,10 +2041,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -2047,935 +2055,935 @@
     </row>
     <row r="2" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="D3" s="16" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
-        <v>14</v>
+        <v>485</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>17</v>
+        <v>482</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>20</v>
+        <v>483</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>23</v>
+        <v>486</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>26</v>
+        <v>487</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
-        <v>29</v>
+        <v>480</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
-        <v>32</v>
+      <c r="A10" s="18" t="s">
+        <v>479</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
-        <v>36</v>
+        <v>488</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="16" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="16" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="15" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="16" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="16" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="16" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="16" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="16" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="16" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="16" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="16" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -2983,64 +2991,64 @@
     </row>
     <row r="62" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="16" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="16" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -3048,16 +3056,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -3078,7 +3086,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3097,65 +3105,65 @@
   <sheetData>
     <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>481</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>484</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -3170,674 +3178,674 @@
     </row>
     <row r="4" spans="1:17" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>485</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D4" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F4" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="G4" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>482</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C5" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D5" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>483</v>
       </c>
       <c r="B6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" t="s">
         <v>209</v>
       </c>
-      <c r="C6" t="s">
-        <v>219</v>
-      </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E6" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="F6" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>486</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>487</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C8" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D8" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>480</v>
       </c>
       <c r="B9" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D9" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E9" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F9" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="G9" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>36</v>
+        <v>488</v>
       </c>
       <c r="B10" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C10" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D10" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E10" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F10" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="G10" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="H10" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="I10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11" t="s">
+        <v>240</v>
+      </c>
+      <c r="H11" t="s">
+        <v>241</v>
+      </c>
+      <c r="I11" t="s">
+        <v>242</v>
+      </c>
+      <c r="J11" t="s">
+        <v>243</v>
+      </c>
+      <c r="K11" t="s">
+        <v>244</v>
+      </c>
+      <c r="L11" t="s">
         <v>245</v>
       </c>
-      <c r="C11" t="s">
+      <c r="M11" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D11" t="s">
+      <c r="N11" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="E11" t="s">
-        <v>248</v>
-      </c>
-      <c r="F11" t="s">
-        <v>249</v>
-      </c>
-      <c r="G11" t="s">
-        <v>250</v>
-      </c>
-      <c r="H11" t="s">
-        <v>251</v>
-      </c>
-      <c r="I11" t="s">
-        <v>252</v>
-      </c>
-      <c r="J11" t="s">
-        <v>253</v>
-      </c>
-      <c r="K11" t="s">
-        <v>254</v>
-      </c>
-      <c r="L11" t="s">
-        <v>255</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B12" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E12" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" t="s">
+        <v>239</v>
+      </c>
+      <c r="G12" t="s">
+        <v>240</v>
+      </c>
+      <c r="H12" t="s">
+        <v>241</v>
+      </c>
+      <c r="I12" t="s">
+        <v>248</v>
+      </c>
+      <c r="J12" t="s">
+        <v>249</v>
+      </c>
+      <c r="K12" t="s">
+        <v>250</v>
+      </c>
+      <c r="L12" t="s">
+        <v>251</v>
+      </c>
+      <c r="M12" t="s">
+        <v>252</v>
+      </c>
+      <c r="N12" t="s">
+        <v>253</v>
+      </c>
+      <c r="O12" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D12" t="s">
+      <c r="P12" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="E12" t="s">
-        <v>248</v>
-      </c>
-      <c r="F12" t="s">
-        <v>249</v>
-      </c>
-      <c r="G12" t="s">
-        <v>250</v>
-      </c>
-      <c r="H12" t="s">
-        <v>251</v>
-      </c>
-      <c r="I12" t="s">
-        <v>258</v>
-      </c>
-      <c r="J12" t="s">
-        <v>259</v>
-      </c>
-      <c r="K12" t="s">
-        <v>260</v>
-      </c>
-      <c r="L12" t="s">
-        <v>261</v>
-      </c>
-      <c r="M12" t="s">
-        <v>262</v>
-      </c>
-      <c r="N12" t="s">
-        <v>263</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" t="s">
+        <v>237</v>
+      </c>
+      <c r="E13" t="s">
+        <v>238</v>
+      </c>
+      <c r="F13" t="s">
+        <v>239</v>
+      </c>
+      <c r="G13" t="s">
+        <v>240</v>
+      </c>
+      <c r="H13" t="s">
+        <v>241</v>
+      </c>
+      <c r="I13" t="s">
+        <v>242</v>
+      </c>
+      <c r="J13" t="s">
+        <v>243</v>
+      </c>
+      <c r="K13" t="s">
+        <v>244</v>
+      </c>
+      <c r="L13" t="s">
         <v>245</v>
       </c>
-      <c r="C13" t="s">
+      <c r="M13" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D13" t="s">
+      <c r="N13" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="E13" t="s">
-        <v>248</v>
-      </c>
-      <c r="F13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G13" t="s">
-        <v>250</v>
-      </c>
-      <c r="H13" t="s">
-        <v>251</v>
-      </c>
-      <c r="I13" t="s">
-        <v>252</v>
-      </c>
-      <c r="J13" t="s">
-        <v>253</v>
-      </c>
-      <c r="K13" t="s">
-        <v>254</v>
-      </c>
-      <c r="L13" t="s">
-        <v>255</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" t="s">
+        <v>237</v>
+      </c>
+      <c r="E14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F14" t="s">
+        <v>239</v>
+      </c>
+      <c r="G14" t="s">
+        <v>254</v>
+      </c>
+      <c r="H14" t="s">
+        <v>255</v>
+      </c>
+      <c r="I14" t="s">
+        <v>242</v>
+      </c>
+      <c r="J14" t="s">
+        <v>256</v>
+      </c>
+      <c r="K14" t="s">
+        <v>244</v>
+      </c>
+      <c r="L14" t="s">
         <v>245</v>
       </c>
-      <c r="C14" t="s">
+      <c r="M14" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D14" t="s">
+      <c r="N14" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="E14" t="s">
-        <v>248</v>
-      </c>
-      <c r="F14" t="s">
-        <v>249</v>
-      </c>
-      <c r="G14" t="s">
-        <v>264</v>
-      </c>
-      <c r="H14" t="s">
-        <v>265</v>
-      </c>
-      <c r="I14" t="s">
-        <v>252</v>
-      </c>
-      <c r="J14" t="s">
-        <v>266</v>
-      </c>
-      <c r="K14" t="s">
-        <v>254</v>
-      </c>
-      <c r="L14" t="s">
-        <v>255</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" t="s">
+        <v>237</v>
+      </c>
+      <c r="E15" t="s">
+        <v>238</v>
+      </c>
+      <c r="F15" t="s">
+        <v>239</v>
+      </c>
+      <c r="G15" t="s">
+        <v>240</v>
+      </c>
+      <c r="H15" t="s">
+        <v>257</v>
+      </c>
+      <c r="I15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J15" t="s">
         <v>245</v>
       </c>
-      <c r="C15" t="s">
+      <c r="K15" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D15" t="s">
+      <c r="L15" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="E15" t="s">
-        <v>248</v>
-      </c>
-      <c r="F15" t="s">
-        <v>249</v>
-      </c>
-      <c r="G15" t="s">
-        <v>250</v>
-      </c>
-      <c r="H15" t="s">
-        <v>267</v>
-      </c>
-      <c r="I15" t="s">
-        <v>254</v>
-      </c>
-      <c r="J15" t="s">
-        <v>255</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" t="s">
+        <v>237</v>
+      </c>
+      <c r="E16" t="s">
+        <v>238</v>
+      </c>
+      <c r="F16" t="s">
+        <v>239</v>
+      </c>
+      <c r="G16" t="s">
+        <v>240</v>
+      </c>
+      <c r="H16" t="s">
+        <v>241</v>
+      </c>
+      <c r="I16" t="s">
+        <v>242</v>
+      </c>
+      <c r="J16" t="s">
+        <v>243</v>
+      </c>
+      <c r="K16" t="s">
+        <v>252</v>
+      </c>
+      <c r="L16" t="s">
+        <v>253</v>
+      </c>
+      <c r="M16" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D16" t="s">
+      <c r="N16" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="E16" t="s">
-        <v>248</v>
-      </c>
-      <c r="F16" t="s">
-        <v>249</v>
-      </c>
-      <c r="G16" t="s">
-        <v>250</v>
-      </c>
-      <c r="H16" t="s">
-        <v>251</v>
-      </c>
-      <c r="I16" t="s">
-        <v>252</v>
-      </c>
-      <c r="J16" t="s">
-        <v>253</v>
-      </c>
-      <c r="K16" t="s">
-        <v>262</v>
-      </c>
-      <c r="L16" t="s">
-        <v>263</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C17" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17" t="s">
+        <v>239</v>
+      </c>
+      <c r="G17" t="s">
+        <v>240</v>
+      </c>
+      <c r="H17" t="s">
+        <v>241</v>
+      </c>
+      <c r="I17" t="s">
+        <v>242</v>
+      </c>
+      <c r="J17" t="s">
+        <v>243</v>
+      </c>
+      <c r="K17" t="s">
+        <v>252</v>
+      </c>
+      <c r="L17" t="s">
+        <v>253</v>
+      </c>
+      <c r="M17" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D17" t="s">
+      <c r="N17" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="E17" t="s">
-        <v>248</v>
-      </c>
-      <c r="F17" t="s">
-        <v>249</v>
-      </c>
-      <c r="G17" t="s">
-        <v>250</v>
-      </c>
-      <c r="H17" t="s">
-        <v>251</v>
-      </c>
-      <c r="I17" t="s">
-        <v>252</v>
-      </c>
-      <c r="J17" t="s">
-        <v>253</v>
-      </c>
-      <c r="K17" t="s">
-        <v>262</v>
-      </c>
-      <c r="L17" t="s">
-        <v>263</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E19" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="F19" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B20" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E20" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="F20" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B21" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C21" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D21" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E21" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C22" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D22" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="E22" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="F22" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="G22" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="H22" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="I22" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="J22" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="K22" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="L22" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="M22" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="N22" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B23" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C23" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D23" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E23" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B24" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" t="s">
+        <v>237</v>
+      </c>
+      <c r="E24" t="s">
+        <v>238</v>
+      </c>
+      <c r="F24" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" t="s">
+        <v>240</v>
+      </c>
+      <c r="H24" t="s">
+        <v>277</v>
+      </c>
+      <c r="I24" t="s">
+        <v>257</v>
+      </c>
+      <c r="J24" t="s">
+        <v>244</v>
+      </c>
+      <c r="K24" t="s">
         <v>245</v>
       </c>
-      <c r="C24" t="s">
+      <c r="L24" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D24" t="s">
+      <c r="M24" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="E24" t="s">
-        <v>248</v>
-      </c>
-      <c r="F24" t="s">
-        <v>249</v>
-      </c>
-      <c r="G24" t="s">
-        <v>250</v>
-      </c>
-      <c r="H24" t="s">
-        <v>287</v>
-      </c>
-      <c r="I24" t="s">
-        <v>267</v>
-      </c>
-      <c r="J24" t="s">
-        <v>254</v>
-      </c>
-      <c r="K24" t="s">
-        <v>255</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B25" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C25" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B26" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C26" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D26" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E26" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B27" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C27" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D27" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3853,8 +3861,8 @@
   </sheetPr>
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3865,36 +3873,36 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>6</v>
+        <v>481</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -3903,980 +3911,980 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>484</v>
       </c>
       <c r="B3" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C3" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D3" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E3" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F3" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G3" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>485</v>
       </c>
       <c r="B4" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C4" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D4" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E4" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F4" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G4" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>486</v>
       </c>
       <c r="B5" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C5" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D5" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E5" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F5" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>487</v>
       </c>
       <c r="B6" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C6" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D6" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>480</v>
       </c>
       <c r="B7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>482</v>
       </c>
       <c r="B8" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C8" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D8" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>483</v>
       </c>
       <c r="B9" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C9" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D9" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E9" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F9" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>479</v>
       </c>
       <c r="B10" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>36</v>
+        <v>488</v>
       </c>
       <c r="B11" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C11" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D11" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E11" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F11" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G11" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="H11" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="I11" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="J11" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="K11" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B28" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B40" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B41" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B43" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B44" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B45" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B46" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C47" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D47" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E47" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F47" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G47" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="H47" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="I47" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="J47" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="K47" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="L47" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B48" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C48" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D48" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E48" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F48" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G48" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="H48" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="I48" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="J48" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="K48" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="L48" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="M48" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="N48" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="P48" s="8" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="Q48" s="8"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B49" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C49" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D49" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E49" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F49" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G49" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="H49" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="I49" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="J49" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="K49" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="L49" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C50" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D50" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E50" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F50" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G50" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="H50" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="I50" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="J50" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="K50" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="L50" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B51" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C51" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D51" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E51" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F51" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G51" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="H51" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="I51" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="J51" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B52" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C52" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D52" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E52" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F52" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G52" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="H52" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="I52" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="J52" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="K52" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="L52" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B53" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C53" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D53" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E53" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F53" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G53" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="H53" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="I53" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="J53" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="K53" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="L53" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B54" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E54" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F54" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B55" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E55" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F55" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B56" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C56" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D56" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E56" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B57" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C57" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D57" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E57" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F57" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G57" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="H57" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="I57" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="J57" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="K57" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="L57" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="M57" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="N57" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B58" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C58" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D58" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E58" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B59" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B60" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C60" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D60" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E60" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F60" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G60" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="H60" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="I60" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="J60" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="K60" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B61" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C61" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B62" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C62" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D62" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E62" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B63" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C63" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D63" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -4904,772 +4912,772 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>481</v>
       </c>
       <c r="B2" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C2" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>483</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C3" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="D3" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="E3" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="F3" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>36</v>
+        <v>488</v>
       </c>
       <c r="B4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" t="s">
         <v>301</v>
       </c>
-      <c r="C4" t="s">
-        <v>308</v>
-      </c>
-      <c r="D4" t="s">
-        <v>310</v>
-      </c>
-      <c r="E4" t="s">
-        <v>311</v>
-      </c>
       <c r="F4" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="G4" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="H4" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="I4" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="J4" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="K4" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C8" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="D8" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B20" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B25" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B27" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B28" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B30" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C30" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D30" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="E30" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F30" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G30" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="H30" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="I30" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="J30" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="K30" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="L30" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B31" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C31" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D31" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="E31" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F31" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G31" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="H31" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="I31" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="J31" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="K31" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="L31" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="M31" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="N31" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="Q31" s="8"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B32" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C32" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D32" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="E32" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F32" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G32" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="H32" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="I32" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="J32" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="K32" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="L32" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B33" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C33" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D33" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="E33" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F33" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G33" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="H33" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="I33" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="J33" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="K33" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="L33" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B34" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C34" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D34" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="E34" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F34" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G34" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="H34" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="I34" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="J34" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B35" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C35" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D35" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="E35" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F35" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G35" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="H35" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="I35" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="J35" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="K35" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="L35" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B36" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C36" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D36" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="E36" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F36" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G36" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="H36" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="I36" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="J36" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="K36" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="L36" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B37" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C37" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B38" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C38" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="D38" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="E38" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B39" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C39" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D39" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="E39" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F39" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G39" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="H39" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="I39" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="J39" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="K39" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="L39" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="M39" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="N39" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B40" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C40" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D40" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="E40" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B41" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C41" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D41" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="E41" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F41" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G41" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="H41" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="I41" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="J41" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="K41" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B42" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C42" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B43" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C43" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D43" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="E43" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B44" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C44" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="D44" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -5685,8 +5693,8 @@
   </sheetPr>
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5709,1042 +5717,1042 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C2" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C3" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C4" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C5" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C6" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C8" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C9" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>479</v>
       </c>
       <c r="B10" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="C10" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C11" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C12" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C13" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C14" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C15" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C16" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C17" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C18" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C19" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C20" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C21" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C22" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C23" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="B24" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C24" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B25" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C25" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C26" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C29" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>481</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D30" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>484</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>485</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>482</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>483</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="C34" t="s">
+        <v>349</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="D34" s="12" t="s">
-        <v>369</v>
-      </c>
       <c r="E34" t="s">
+        <v>350</v>
+      </c>
+      <c r="F34" t="s">
         <v>360</v>
       </c>
-      <c r="F34" t="s">
-        <v>370</v>
-      </c>
       <c r="G34" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>486</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="C35" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="E35" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="F35" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="G35" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>487</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="C36" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="D36" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="E36" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>480</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="C37" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="D37" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E37" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="F37" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="G37" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="H37" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>36</v>
+        <v>488</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B39" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C39" t="s">
+        <v>384</v>
+      </c>
+      <c r="D39" t="s">
+        <v>385</v>
+      </c>
+      <c r="E39" t="s">
+        <v>386</v>
+      </c>
+      <c r="F39" t="s">
+        <v>387</v>
+      </c>
+      <c r="G39" t="s">
+        <v>388</v>
+      </c>
+      <c r="H39" t="s">
+        <v>389</v>
+      </c>
+      <c r="I39" t="s">
+        <v>390</v>
+      </c>
+      <c r="J39" t="s">
+        <v>391</v>
+      </c>
+      <c r="K39" t="s">
+        <v>392</v>
+      </c>
+      <c r="L39" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="M39" t="s">
         <v>394</v>
       </c>
-      <c r="D39" t="s">
+      <c r="N39" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="E39" t="s">
+      <c r="O39" s="8" t="s">
         <v>396</v>
-      </c>
-      <c r="F39" t="s">
-        <v>397</v>
-      </c>
-      <c r="G39" t="s">
-        <v>398</v>
-      </c>
-      <c r="H39" t="s">
-        <v>399</v>
-      </c>
-      <c r="I39" t="s">
-        <v>400</v>
-      </c>
-      <c r="J39" t="s">
-        <v>401</v>
-      </c>
-      <c r="K39" t="s">
-        <v>402</v>
-      </c>
-      <c r="L39" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="M39" t="s">
-        <v>404</v>
-      </c>
-      <c r="N39" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="E40" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="J40" t="s">
+        <v>397</v>
+      </c>
+      <c r="K40" t="s">
+        <v>398</v>
+      </c>
+      <c r="L40" t="s">
+        <v>399</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="N40" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="O40" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="P40" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q40" s="8" t="s">
         <v>396</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="J40" t="s">
-        <v>407</v>
-      </c>
-      <c r="K40" t="s">
-        <v>408</v>
-      </c>
-      <c r="L40" t="s">
-        <v>409</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="N40" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="O40" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="P40" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q40" s="8" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="C41" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="M41" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="N41" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="O41" s="8" t="s">
         <v>396</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="L41" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="N41" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="O41" s="8" t="s">
-        <v>406</v>
       </c>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="C42" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="L42" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="M42" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="N42" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="O42" s="8" t="s">
         <v>396</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="K42" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="L42" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="N42" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="O42" s="8" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="C43" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="K43" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="L43" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="M43" s="8" t="s">
         <v>396</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="J43" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="L43" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="E44" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="L44" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="M44" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="O44" s="8" t="s">
         <v>396</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="K44" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="L44" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="M44" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="N44" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="O44" s="8" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="E45" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="L45" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="M45" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="O45" s="8" t="s">
         <v>396</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="K45" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="L45" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="M45" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="N45" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="O45" s="8" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="46" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C46" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="K46" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="L46" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="M46" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="N46" s="8" t="s">
         <v>396</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="K46" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="L46" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="M46" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="N46" s="8" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C47" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C48" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C49" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D50" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C51" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B52" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C52" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="D54" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -6772,81 +6780,81 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="C2" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="C3" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C4" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="C5" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="D5" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="E5" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="F5" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="G5" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/dds/moorings.xlsx
+++ b/dds/moorings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="419" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="419"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="488">
   <si>
     <t>Identifier</t>
   </si>
@@ -109,9 +109,6 @@
     <t>Soil Sensitivity</t>
   </si>
   <si>
-    <t>Ratio of peak to remoulded shear strength</t>
-  </si>
-  <si>
     <t>TableDataColumn</t>
   </si>
   <si>
@@ -1393,9 +1390,6 @@
     <t>filter.device</t>
   </si>
   <si>
-    <t>filter.bathymetry_geotechnic</t>
-  </si>
-  <si>
     <t xml:space="preserve">reference.ref_general_parameter </t>
   </si>
   <si>
@@ -1468,9 +1462,6 @@
     <t>jonswap_gamma</t>
   </si>
   <si>
-    <t>constants.soil_sensitivity</t>
-  </si>
-  <si>
     <t>constants.soil_drained_holding_capacity_factor</t>
   </si>
   <si>
@@ -1496,19 +1487,32 @@
   </si>
   <si>
     <t>constants.soilprops</t>
+  </si>
+  <si>
+    <t>farm.soil_sensitivity</t>
+  </si>
+  <si>
+    <t>Overrides the ratio of peak to remoulded shear strength for entire farm, ignoring individual soil types.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1615,28 +1619,28 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1649,8 +1653,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
@@ -2009,9 +2014,9 @@
   </sheetPr>
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2041,10 +2046,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -2055,7 +2060,7 @@
     </row>
     <row r="2" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>6</v>
@@ -2069,7 +2074,7 @@
     </row>
     <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>9</v>
@@ -2083,7 +2088,7 @@
     </row>
     <row r="4" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>9</v>
@@ -2097,7 +2102,7 @@
     </row>
     <row r="5" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>9</v>
@@ -2111,7 +2116,7 @@
     </row>
     <row r="6" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>9</v>
@@ -2125,7 +2130,7 @@
     </row>
     <row r="7" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>9</v>
@@ -2139,7 +2144,7 @@
     </row>
     <row r="8" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>9</v>
@@ -2153,7 +2158,7 @@
     </row>
     <row r="9" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>9</v>
@@ -2167,7 +2172,7 @@
     </row>
     <row r="10" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>24</v>
@@ -2175,815 +2180,815 @@
       <c r="C10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>26</v>
+      <c r="D10" s="19" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="D11" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="C13" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>38</v>
-      </c>
       <c r="G14" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="G15" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="G16" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="C17" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="D17" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>48</v>
-      </c>
       <c r="G17" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="G18" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>54</v>
-      </c>
       <c r="G19" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="C20" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="D20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="G20" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>61</v>
-      </c>
       <c r="G21" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="16" t="s">
+      <c r="D22" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>64</v>
-      </c>
       <c r="G22" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>67</v>
-      </c>
       <c r="G23" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="16" t="s">
-        <v>74</v>
-      </c>
       <c r="G26" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="16" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="16" t="s">
-        <v>77</v>
-      </c>
       <c r="F27" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>80</v>
-      </c>
       <c r="G28" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="16" t="s">
-        <v>83</v>
-      </c>
       <c r="G29" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="16" t="s">
-        <v>86</v>
-      </c>
       <c r="G30" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="16" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="16" t="s">
-        <v>90</v>
-      </c>
       <c r="G31" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="15" t="s">
+      <c r="D32" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>96</v>
-      </c>
       <c r="G33" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C34" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>99</v>
-      </c>
       <c r="G34" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="16" t="s">
-        <v>102</v>
-      </c>
       <c r="G35" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>105</v>
-      </c>
       <c r="G36" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C38" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D38" s="16" t="s">
-        <v>108</v>
-      </c>
       <c r="G38" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="16" t="s">
-        <v>111</v>
-      </c>
       <c r="G39" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="16" t="s">
-        <v>114</v>
-      </c>
       <c r="G40" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C41" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D41" s="16" t="s">
-        <v>117</v>
-      </c>
       <c r="G41" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="15" t="s">
+      <c r="D42" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="15" t="s">
+      <c r="D43" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C44" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" s="16" t="s">
         <v>125</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B46" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C46" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="16" t="s">
         <v>131</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B47" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B48" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="16" t="s">
+      <c r="D48" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B49" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="16" t="s">
+      <c r="D49" s="16" t="s">
         <v>139</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B50" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="16" t="s">
+      <c r="D50" s="16" t="s">
         <v>142</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="B51" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="16" t="s">
+      <c r="D51" s="16" t="s">
         <v>145</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="B52" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" s="16" t="s">
+      <c r="D52" s="16" t="s">
         <v>148</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="B53" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="16" t="s">
+      <c r="D53" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" s="16" t="s">
+      <c r="D54" s="16" t="s">
         <v>154</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="C55" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="B55" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="C55" s="16" t="s">
+      <c r="D55" s="16" t="s">
         <v>157</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="B56" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C56" s="16" t="s">
+      <c r="D56" s="16" t="s">
         <v>160</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B57" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="16" t="s">
+      <c r="D57" s="16" t="s">
         <v>163</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="C58" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="C59" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="H59" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C60" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="H60" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -2991,64 +2996,64 @@
     </row>
     <row r="62" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B62" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C62" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D62" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="D62" s="16" t="s">
-        <v>180</v>
-      </c>
       <c r="G62" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="B63" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" s="16" t="s">
+      <c r="D63" s="16" t="s">
         <v>182</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C64" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -3056,16 +3061,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -3084,9 +3089,9 @@
   </sheetPr>
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3105,65 +3110,65 @@
   <sheetData>
     <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="H1" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" t="s">
         <v>199</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -3178,674 +3183,674 @@
     </row>
     <row r="4" spans="1:17" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" t="s">
         <v>201</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>202</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>203</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>204</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>205</v>
-      </c>
-      <c r="G4" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" t="s">
         <v>207</v>
-      </c>
-      <c r="D5" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" t="s">
         <v>209</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>210</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>211</v>
-      </c>
-      <c r="F6" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" t="s">
         <v>213</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>214</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>215</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>216</v>
-      </c>
-      <c r="F7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" t="s">
         <v>218</v>
-      </c>
-      <c r="D8" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" t="s">
         <v>220</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>221</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>222</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>223</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>224</v>
-      </c>
-      <c r="G9" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" t="s">
         <v>226</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>227</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>228</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>229</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>230</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>231</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>232</v>
-      </c>
-      <c r="I10" t="s">
-        <v>233</v>
       </c>
       <c r="J10" t="s">
         <v>25</v>
       </c>
       <c r="K10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" t="s">
         <v>235</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>236</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>237</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>238</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>239</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>240</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>241</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>242</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>243</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>244</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="N11" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" t="s">
         <v>235</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>236</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>237</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>238</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>239</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>240</v>
       </c>
-      <c r="H12" t="s">
-        <v>241</v>
-      </c>
       <c r="I12" t="s">
+        <v>247</v>
+      </c>
+      <c r="J12" t="s">
         <v>248</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>249</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>250</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>251</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>252</v>
       </c>
-      <c r="N12" t="s">
-        <v>253</v>
-      </c>
       <c r="O12" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="P12" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" t="s">
         <v>235</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>236</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>237</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>238</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>239</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>240</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>241</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>242</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>243</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>244</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="N13" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" t="s">
         <v>235</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>236</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>237</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>238</v>
       </c>
-      <c r="F14" t="s">
-        <v>239</v>
-      </c>
       <c r="G14" t="s">
+        <v>253</v>
+      </c>
+      <c r="H14" t="s">
         <v>254</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
+        <v>241</v>
+      </c>
+      <c r="J14" t="s">
         <v>255</v>
       </c>
-      <c r="I14" t="s">
-        <v>242</v>
-      </c>
-      <c r="J14" t="s">
-        <v>256</v>
-      </c>
       <c r="K14" t="s">
+        <v>243</v>
+      </c>
+      <c r="L14" t="s">
         <v>244</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="N14" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" t="s">
         <v>235</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>236</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>237</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>238</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>239</v>
       </c>
-      <c r="G15" t="s">
-        <v>240</v>
-      </c>
       <c r="H15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I15" t="s">
+        <v>243</v>
+      </c>
+      <c r="J15" t="s">
         <v>244</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="L15" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" t="s">
         <v>235</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>236</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>237</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>238</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>239</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>240</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>241</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>242</v>
       </c>
-      <c r="J16" t="s">
-        <v>243</v>
-      </c>
       <c r="K16" t="s">
+        <v>251</v>
+      </c>
+      <c r="L16" t="s">
         <v>252</v>
       </c>
-      <c r="L16" t="s">
-        <v>253</v>
-      </c>
       <c r="M16" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="N16" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" t="s">
         <v>235</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>236</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>237</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>238</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>239</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>240</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>241</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>242</v>
       </c>
-      <c r="J17" t="s">
-        <v>243</v>
-      </c>
       <c r="K17" t="s">
+        <v>251</v>
+      </c>
+      <c r="L17" t="s">
         <v>252</v>
       </c>
-      <c r="L17" t="s">
-        <v>253</v>
-      </c>
       <c r="M17" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="N17" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>258</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="E19" t="s">
         <v>261</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>262</v>
-      </c>
-      <c r="F19" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="E20" t="s">
         <v>261</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>262</v>
-      </c>
-      <c r="F20" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E21" t="s">
         <v>264</v>
-      </c>
-      <c r="E21" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" t="s">
         <v>266</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>267</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>268</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>248</v>
+      </c>
+      <c r="G22" t="s">
         <v>269</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
+        <v>247</v>
+      </c>
+      <c r="I22" t="s">
         <v>249</v>
       </c>
-      <c r="G22" t="s">
+      <c r="J22" t="s">
         <v>270</v>
       </c>
-      <c r="H22" t="s">
-        <v>248</v>
-      </c>
-      <c r="I22" t="s">
-        <v>250</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>271</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>272</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>273</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>274</v>
-      </c>
-      <c r="N22" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" t="s">
         <v>235</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>236</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>237</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>238</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>239</v>
       </c>
-      <c r="G24" t="s">
-        <v>240</v>
-      </c>
       <c r="H24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J24" t="s">
+        <v>243</v>
+      </c>
+      <c r="K24" t="s">
         <v>244</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="L24" s="8" t="s">
+      <c r="M24" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B27" t="s">
+        <v>278</v>
+      </c>
+      <c r="C27" t="s">
         <v>279</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>280</v>
-      </c>
-      <c r="D27" t="s">
-        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3862,7 +3867,7 @@
   <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3873,36 +3878,36 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>286</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -3911,980 +3916,980 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B41" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B45" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E47" t="s">
+        <v>287</v>
+      </c>
+      <c r="F47" t="s">
         <v>288</v>
       </c>
-      <c r="F47" t="s">
-        <v>289</v>
-      </c>
       <c r="G47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E48" t="s">
+        <v>287</v>
+      </c>
+      <c r="F48" t="s">
         <v>288</v>
       </c>
-      <c r="F48" t="s">
-        <v>289</v>
-      </c>
       <c r="G48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P48" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q48" s="8"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B49" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C49" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D49" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E49" t="s">
+        <v>287</v>
+      </c>
+      <c r="F49" t="s">
         <v>288</v>
       </c>
-      <c r="F49" t="s">
-        <v>289</v>
-      </c>
       <c r="G49" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H49" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I49" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J49" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K49" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L49" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E50" t="s">
+        <v>287</v>
+      </c>
+      <c r="F50" t="s">
         <v>288</v>
       </c>
-      <c r="F50" t="s">
-        <v>289</v>
-      </c>
       <c r="G50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E51" t="s">
+        <v>287</v>
+      </c>
+      <c r="F51" t="s">
         <v>288</v>
       </c>
-      <c r="F51" t="s">
-        <v>289</v>
-      </c>
       <c r="G51" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H51" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I51" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J51" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E52" t="s">
+        <v>287</v>
+      </c>
+      <c r="F52" t="s">
         <v>288</v>
       </c>
-      <c r="F52" t="s">
-        <v>289</v>
-      </c>
       <c r="G52" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H52" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I52" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J52" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B53" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C53" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D53" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E53" t="s">
+        <v>287</v>
+      </c>
+      <c r="F53" t="s">
         <v>288</v>
       </c>
-      <c r="F53" t="s">
-        <v>289</v>
-      </c>
       <c r="G53" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H53" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I53" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J53" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B54" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E54" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F54" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B55" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E55" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F55" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B56" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C56" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D56" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E56" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D57" t="s">
+        <v>287</v>
+      </c>
+      <c r="E57" t="s">
+        <v>287</v>
+      </c>
+      <c r="F57" t="s">
+        <v>287</v>
+      </c>
+      <c r="G57" t="s">
+        <v>287</v>
+      </c>
+      <c r="H57" t="s">
+        <v>287</v>
+      </c>
+      <c r="I57" t="s">
+        <v>287</v>
+      </c>
+      <c r="J57" t="s">
+        <v>287</v>
+      </c>
+      <c r="K57" t="s">
+        <v>287</v>
+      </c>
+      <c r="L57" t="s">
         <v>288</v>
       </c>
-      <c r="E57" t="s">
-        <v>288</v>
-      </c>
-      <c r="F57" t="s">
-        <v>288</v>
-      </c>
-      <c r="G57" t="s">
-        <v>288</v>
-      </c>
-      <c r="H57" t="s">
-        <v>288</v>
-      </c>
-      <c r="I57" t="s">
-        <v>288</v>
-      </c>
-      <c r="J57" t="s">
-        <v>288</v>
-      </c>
-      <c r="K57" t="s">
-        <v>288</v>
-      </c>
-      <c r="L57" t="s">
-        <v>289</v>
-      </c>
       <c r="M57" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N57" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B58" t="s">
+        <v>287</v>
+      </c>
+      <c r="C58" t="s">
         <v>288</v>
       </c>
-      <c r="C58" t="s">
-        <v>289</v>
-      </c>
       <c r="D58" t="s">
+        <v>287</v>
+      </c>
+      <c r="E58" t="s">
         <v>288</v>
-      </c>
-      <c r="E58" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B59" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B60" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C60" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D60" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E60" t="s">
+        <v>287</v>
+      </c>
+      <c r="F60" t="s">
         <v>288</v>
       </c>
-      <c r="F60" t="s">
-        <v>289</v>
-      </c>
       <c r="G60" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H60" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I60" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J60" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K60" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B61" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C61" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B62" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C62" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D62" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E62" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C63" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D63" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -4912,772 +4917,772 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>296</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E3" t="s">
         <v>298</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>298</v>
-      </c>
-      <c r="D3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F3" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E4" t="s">
         <v>300</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>301</v>
       </c>
-      <c r="F4" t="s">
-        <v>302</v>
-      </c>
       <c r="G4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G30" t="s">
+        <v>309</v>
+      </c>
+      <c r="H30" t="s">
         <v>310</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
+        <v>304</v>
+      </c>
+      <c r="J30" t="s">
+        <v>304</v>
+      </c>
+      <c r="K30" t="s">
         <v>311</v>
       </c>
-      <c r="I30" t="s">
-        <v>305</v>
-      </c>
-      <c r="J30" t="s">
-        <v>305</v>
-      </c>
-      <c r="K30" t="s">
-        <v>312</v>
-      </c>
       <c r="L30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B31" t="s">
+        <v>290</v>
+      </c>
+      <c r="C31" t="s">
+        <v>290</v>
+      </c>
+      <c r="D31" t="s">
+        <v>290</v>
+      </c>
+      <c r="E31" t="s">
+        <v>290</v>
+      </c>
+      <c r="F31" t="s">
+        <v>290</v>
+      </c>
+      <c r="G31" t="s">
+        <v>309</v>
+      </c>
+      <c r="H31" t="s">
+        <v>310</v>
+      </c>
+      <c r="I31" t="s">
+        <v>304</v>
+      </c>
+      <c r="J31" t="s">
+        <v>304</v>
+      </c>
+      <c r="K31" t="s">
+        <v>304</v>
+      </c>
+      <c r="L31" t="s">
+        <v>304</v>
+      </c>
+      <c r="M31" t="s">
         <v>291</v>
       </c>
-      <c r="C31" t="s">
+      <c r="N31" t="s">
         <v>291</v>
       </c>
-      <c r="D31" t="s">
-        <v>291</v>
-      </c>
-      <c r="E31" t="s">
-        <v>291</v>
-      </c>
-      <c r="F31" t="s">
-        <v>291</v>
-      </c>
-      <c r="G31" t="s">
-        <v>310</v>
-      </c>
-      <c r="H31" t="s">
-        <v>311</v>
-      </c>
-      <c r="I31" t="s">
-        <v>305</v>
-      </c>
-      <c r="J31" t="s">
-        <v>305</v>
-      </c>
-      <c r="K31" t="s">
-        <v>305</v>
-      </c>
-      <c r="L31" t="s">
-        <v>305</v>
-      </c>
-      <c r="M31" t="s">
-        <v>292</v>
-      </c>
-      <c r="N31" t="s">
-        <v>292</v>
-      </c>
       <c r="O31" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q31" s="8"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G32" t="s">
+        <v>309</v>
+      </c>
+      <c r="H32" t="s">
         <v>310</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
+        <v>304</v>
+      </c>
+      <c r="J32" t="s">
+        <v>304</v>
+      </c>
+      <c r="K32" t="s">
         <v>311</v>
       </c>
-      <c r="I32" t="s">
-        <v>305</v>
-      </c>
-      <c r="J32" t="s">
-        <v>305</v>
-      </c>
-      <c r="K32" t="s">
-        <v>312</v>
-      </c>
       <c r="L32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G34" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B35" t="s">
+        <v>290</v>
+      </c>
+      <c r="C35" t="s">
+        <v>290</v>
+      </c>
+      <c r="D35" t="s">
+        <v>290</v>
+      </c>
+      <c r="E35" t="s">
+        <v>290</v>
+      </c>
+      <c r="F35" t="s">
+        <v>290</v>
+      </c>
+      <c r="G35" t="s">
+        <v>309</v>
+      </c>
+      <c r="H35" t="s">
+        <v>310</v>
+      </c>
+      <c r="I35" t="s">
+        <v>304</v>
+      </c>
+      <c r="J35" t="s">
+        <v>304</v>
+      </c>
+      <c r="K35" t="s">
         <v>291</v>
       </c>
-      <c r="C35" t="s">
+      <c r="L35" t="s">
         <v>291</v>
       </c>
-      <c r="D35" t="s">
-        <v>291</v>
-      </c>
-      <c r="E35" t="s">
-        <v>291</v>
-      </c>
-      <c r="F35" t="s">
-        <v>291</v>
-      </c>
-      <c r="G35" t="s">
-        <v>310</v>
-      </c>
-      <c r="H35" t="s">
-        <v>311</v>
-      </c>
-      <c r="I35" t="s">
-        <v>305</v>
-      </c>
-      <c r="J35" t="s">
-        <v>305</v>
-      </c>
-      <c r="K35" t="s">
-        <v>292</v>
-      </c>
-      <c r="L35" t="s">
-        <v>292</v>
-      </c>
       <c r="M35" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B36" t="s">
+        <v>290</v>
+      </c>
+      <c r="C36" t="s">
+        <v>290</v>
+      </c>
+      <c r="D36" t="s">
+        <v>290</v>
+      </c>
+      <c r="E36" t="s">
+        <v>290</v>
+      </c>
+      <c r="F36" t="s">
+        <v>290</v>
+      </c>
+      <c r="G36" t="s">
+        <v>309</v>
+      </c>
+      <c r="H36" t="s">
+        <v>310</v>
+      </c>
+      <c r="I36" t="s">
+        <v>304</v>
+      </c>
+      <c r="J36" t="s">
+        <v>304</v>
+      </c>
+      <c r="K36" t="s">
         <v>291</v>
       </c>
-      <c r="C36" t="s">
+      <c r="L36" t="s">
         <v>291</v>
       </c>
-      <c r="D36" t="s">
-        <v>291</v>
-      </c>
-      <c r="E36" t="s">
-        <v>291</v>
-      </c>
-      <c r="F36" t="s">
-        <v>291</v>
-      </c>
-      <c r="G36" t="s">
-        <v>310</v>
-      </c>
-      <c r="H36" t="s">
-        <v>311</v>
-      </c>
-      <c r="I36" t="s">
-        <v>305</v>
-      </c>
-      <c r="J36" t="s">
-        <v>305</v>
-      </c>
-      <c r="K36" t="s">
-        <v>292</v>
-      </c>
-      <c r="L36" t="s">
-        <v>292</v>
-      </c>
       <c r="M36" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B37" t="s">
+        <v>309</v>
+      </c>
+      <c r="C37" t="s">
         <v>310</v>
-      </c>
-      <c r="C37" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B39" t="s">
+        <v>290</v>
+      </c>
+      <c r="C39" t="s">
+        <v>290</v>
+      </c>
+      <c r="D39" t="s">
+        <v>304</v>
+      </c>
+      <c r="E39" t="s">
+        <v>304</v>
+      </c>
+      <c r="F39" t="s">
+        <v>304</v>
+      </c>
+      <c r="G39" t="s">
+        <v>304</v>
+      </c>
+      <c r="H39" t="s">
+        <v>304</v>
+      </c>
+      <c r="I39" t="s">
+        <v>304</v>
+      </c>
+      <c r="J39" t="s">
+        <v>304</v>
+      </c>
+      <c r="K39" t="s">
         <v>291</v>
       </c>
-      <c r="C39" t="s">
-        <v>291</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="L39" t="s">
+        <v>290</v>
+      </c>
+      <c r="M39" t="s">
         <v>305</v>
       </c>
-      <c r="E39" t="s">
-        <v>305</v>
-      </c>
-      <c r="F39" t="s">
-        <v>305</v>
-      </c>
-      <c r="G39" t="s">
-        <v>305</v>
-      </c>
-      <c r="H39" t="s">
-        <v>305</v>
-      </c>
-      <c r="I39" t="s">
-        <v>305</v>
-      </c>
-      <c r="J39" t="s">
-        <v>305</v>
-      </c>
-      <c r="K39" t="s">
-        <v>292</v>
-      </c>
-      <c r="L39" t="s">
-        <v>291</v>
-      </c>
-      <c r="M39" t="s">
-        <v>306</v>
-      </c>
       <c r="N39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B40" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C40" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D40" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E40" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G41" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H41" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I41" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J41" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K41" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B43" t="s">
+        <v>290</v>
+      </c>
+      <c r="C43" t="s">
+        <v>290</v>
+      </c>
+      <c r="D43" t="s">
+        <v>304</v>
+      </c>
+      <c r="E43" t="s">
         <v>291</v>
-      </c>
-      <c r="C43" t="s">
-        <v>291</v>
-      </c>
-      <c r="D43" t="s">
-        <v>305</v>
-      </c>
-      <c r="E43" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B44" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C44" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -5693,8 +5698,8 @@
   </sheetPr>
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5717,1042 +5722,1042 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>320</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="B10" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="C10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C21" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B24" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C24" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B26" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C30" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="D30" t="s">
         <v>349</v>
-      </c>
-      <c r="D30" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C31" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="G31" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="H31" s="6" t="s">
         <v>355</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C32" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="F32" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="G32" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="H32" s="6" t="s">
         <v>355</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D33" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>357</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C34" t="s">
+        <v>348</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="E34" t="s">
         <v>349</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="F34" t="s">
         <v>359</v>
       </c>
-      <c r="E34" t="s">
-        <v>350</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>360</v>
-      </c>
-      <c r="G34" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C35" t="s">
+        <v>361</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="E35" t="s">
         <v>363</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>364</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>365</v>
-      </c>
-      <c r="G35" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D36" t="s">
+        <v>366</v>
+      </c>
+      <c r="E36" t="s">
         <v>367</v>
-      </c>
-      <c r="E36" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C37" t="s">
+        <v>368</v>
+      </c>
+      <c r="D37" t="s">
         <v>369</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>370</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>371</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>372</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>373</v>
-      </c>
-      <c r="H37" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C38" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="E38" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="F38" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="G38" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="H38" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="I38" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="J38" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="J38" s="12" t="s">
+      <c r="K38" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="L38" s="12" t="s">
         <v>382</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C39" t="s">
+        <v>383</v>
+      </c>
+      <c r="D39" t="s">
         <v>384</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>385</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>386</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>387</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>388</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>389</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>390</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>391</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="L39" s="14" t="s">
+      <c r="M39" t="s">
         <v>393</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="N39" s="14" t="s">
+      <c r="O39" s="8" t="s">
         <v>395</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C40" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="E40" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="F40" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="G40" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="H40" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="I40" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="I40" s="8" t="s">
-        <v>390</v>
-      </c>
       <c r="J40" t="s">
+        <v>396</v>
+      </c>
+      <c r="K40" t="s">
         <v>397</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>398</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="M40" s="8" t="s">
+      <c r="N40" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="N40" s="14" t="s">
+      <c r="O40" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="O40" s="14" t="s">
+      <c r="P40" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="P40" s="8" t="s">
-        <v>403</v>
-      </c>
       <c r="Q40" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C41" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="E41" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="F41" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="G41" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="H41" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="I41" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="I41" s="8" t="s">
+      <c r="J41" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="J41" s="8" t="s">
+      <c r="K41" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="K41" s="8" t="s">
+      <c r="L41" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="L41" s="14" t="s">
+      <c r="M41" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="M41" s="8" t="s">
+      <c r="N41" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="N41" s="14" t="s">
+      <c r="O41" s="8" t="s">
         <v>395</v>
-      </c>
-      <c r="O41" s="8" t="s">
-        <v>396</v>
       </c>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C42" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="E42" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="F42" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="G42" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="G42" s="8" t="s">
-        <v>388</v>
-      </c>
       <c r="H42" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="I42" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="I42" s="8" t="s">
+      <c r="J42" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="K42" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="J42" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="K42" s="8" t="s">
-        <v>406</v>
-      </c>
       <c r="L42" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="M42" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="M42" s="8" t="s">
+      <c r="N42" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="N42" s="14" t="s">
+      <c r="O42" s="8" t="s">
         <v>395</v>
-      </c>
-      <c r="O42" s="8" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C43" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="E43" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="F43" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="G43" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="H43" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="H43" s="8" t="s">
-        <v>389</v>
-      </c>
       <c r="I43" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J43" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="K43" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="K43" s="8" t="s">
+      <c r="L43" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="L43" s="14" t="s">
+      <c r="M43" s="8" t="s">
         <v>395</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C44" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="E44" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="F44" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="G44" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="H44" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="I44" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="I44" s="8" t="s">
+      <c r="J44" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="K44" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="K44" s="8" t="s">
-        <v>392</v>
-      </c>
       <c r="L44" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="M44" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="M44" s="14" t="s">
+      <c r="N44" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="N44" s="8" t="s">
-        <v>403</v>
-      </c>
       <c r="O44" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C45" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="E45" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="F45" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="G45" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="H45" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="I45" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="I45" s="8" t="s">
+      <c r="J45" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="K45" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="K45" s="8" t="s">
-        <v>392</v>
-      </c>
       <c r="L45" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="M45" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="M45" s="14" t="s">
+      <c r="N45" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="N45" s="8" t="s">
-        <v>403</v>
-      </c>
       <c r="O45" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="46" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C46" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="E46" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="F46" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="G46" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="H46" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="H46" s="8" t="s">
-        <v>389</v>
-      </c>
       <c r="I46" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K46" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="L46" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="L46" s="8" t="s">
+      <c r="M46" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="M46" s="14" t="s">
+      <c r="N46" s="8" t="s">
         <v>395</v>
-      </c>
-      <c r="N46" s="8" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C47" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C48" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C49" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D50" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C51" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B52" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C52" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C53" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="E53" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="F53" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="G53" s="8" t="s">
         <v>417</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D54" t="s">
+        <v>418</v>
+      </c>
+      <c r="E54" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="F54" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="G54" s="8" t="s">
         <v>421</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -6780,81 +6785,81 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>427</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C2" t="s">
         <v>429</v>
-      </c>
-      <c r="C2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C3" t="s">
         <v>431</v>
-      </c>
-      <c r="C3" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C4" t="s">
         <v>433</v>
-      </c>
-      <c r="C4" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C5" t="s">
         <v>435</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>436</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>437</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>438</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>439</v>
-      </c>
-      <c r="G5" t="s">
-        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/dds/moorings.xlsx
+++ b/dds/moorings.xlsx
@@ -19,6 +19,9 @@
     <sheet name="Tables" sheetId="5" r:id="rId5"/>
     <sheet name="Valid Values" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ROOT!$A$1:$H$66</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="484">
   <si>
     <t>Identifier</t>
   </si>
@@ -124,9 +127,6 @@
     <t>Optional fabrication cost factor</t>
   </si>
   <si>
-    <t>component.predefined_mooring_list</t>
-  </si>
-  <si>
     <t>SimpleList</t>
   </si>
   <si>
@@ -175,9 +175,6 @@
     <t>Fairlead locations with respect to the device origin for N lines</t>
   </si>
   <si>
-    <t>device.foundation_safety_factor</t>
-  </si>
-  <si>
     <t>Foundation Safety Factor</t>
   </si>
   <si>
@@ -301,9 +298,6 @@
     <t>Vertical profile of tidal current flow</t>
   </si>
   <si>
-    <t>farm.grout_strength_safety_factor</t>
-  </si>
-  <si>
     <t>Grout Strength Safety Factor</t>
   </si>
   <si>
@@ -382,18 +376,12 @@
     <t>Minimum water level below mean sea level (50 year return period)</t>
   </si>
   <si>
-    <t>farm.mooring_ALS_safety_factor</t>
-  </si>
-  <si>
     <t>Mooring ALS Safety Factor</t>
   </si>
   <si>
     <t>Mooring accident limit state safety factor</t>
   </si>
   <si>
-    <t>farm.mooring_ULS_safety_factor</t>
-  </si>
-  <si>
     <t>Mooring ULS Safety Factor</t>
   </si>
   <si>
@@ -523,9 +511,6 @@
     <t>Holding and penetration coefficients for soft-like substrate</t>
   </si>
   <si>
-    <t>farm.moorings_foundations_network</t>
-  </si>
-  <si>
     <t>Network</t>
   </si>
   <si>
@@ -535,27 +520,18 @@
     <t>Output</t>
   </si>
   <si>
-    <t>farm.moorings_foundations_economics_data</t>
-  </si>
-  <si>
     <t>TableData</t>
   </si>
   <si>
     <t>Bill of materials for the moorings and foundations network cost calculation</t>
   </si>
   <si>
-    <t>farm.foundations_component_data</t>
-  </si>
-  <si>
     <t>Foundations Components Supplementary Data</t>
   </si>
   <si>
     <t>Supplementary design data for the foundation components</t>
   </si>
   <si>
-    <t>farm.foundations_soil_data</t>
-  </si>
-  <si>
     <t>Foundations Soil Data</t>
   </si>
   <si>
@@ -580,27 +556,18 @@
     <t>Component data for mooring umbilical cables</t>
   </si>
   <si>
-    <t>farm.moorings_component_data</t>
-  </si>
-  <si>
     <t>Moorings Components Supplementary Data</t>
   </si>
   <si>
     <t>Supplementary design data for the moorings components</t>
   </si>
   <si>
-    <t>farm.line_data</t>
-  </si>
-  <si>
     <t>Mooring Line Supplementary Data</t>
   </si>
   <si>
     <t>Designation of complete mooring lines</t>
   </si>
   <si>
-    <t>farm.moorings_dimensions</t>
-  </si>
-  <si>
     <t>Overall dimensions of the moorings and foundations design</t>
   </si>
   <si>
@@ -1009,9 +976,6 @@
     <t>wet_frontal_area</t>
   </si>
   <si>
-    <t>load_safety_factor</t>
-  </si>
-  <si>
     <t>prescribed_foundation_system</t>
   </si>
   <si>
@@ -1066,15 +1030,6 @@
     <t>water_level_min</t>
   </si>
   <si>
-    <t>costcon</t>
-  </si>
-  <si>
-    <t>costgrout</t>
-  </si>
-  <si>
-    <t>coststeel</t>
-  </si>
-  <si>
     <t>soil_friction_angle</t>
   </si>
   <si>
@@ -1390,9 +1345,6 @@
     <t>filter.device</t>
   </si>
   <si>
-    <t xml:space="preserve">reference.ref_general_parameter </t>
-  </si>
-  <si>
     <t>reference.ref_line_bcf</t>
   </si>
   <si>
@@ -1493,19 +1445,65 @@
   </si>
   <si>
     <t>Overrides the ratio of peak to remoulded shear strength for entire farm, ignoring individual soil types.</t>
+  </si>
+  <si>
+    <t>project.fabrication_cost</t>
+  </si>
+  <si>
+    <t>project.predefined_mooring_list</t>
+  </si>
+  <si>
+    <t>project.foundation_safety_factor</t>
+  </si>
+  <si>
+    <t>project.grout_strength_safety_factor</t>
+  </si>
+  <si>
+    <t>project.mooring_ALS_safety_factor</t>
+  </si>
+  <si>
+    <t>project.mooring_ULS_safety_factor</t>
+  </si>
+  <si>
+    <t>project.moorings_foundations_network</t>
+  </si>
+  <si>
+    <t>project.moorings_foundations_economics_data</t>
+  </si>
+  <si>
+    <t>project.foundations_component_data</t>
+  </si>
+  <si>
+    <t>project.foundations_soil_data</t>
+  </si>
+  <si>
+    <t>project.moorings_component_data</t>
+  </si>
+  <si>
+    <t>project.moorings_line_data</t>
+  </si>
+  <si>
+    <t>project.moorings_dimensions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1619,28 +1617,28 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1653,11 +1651,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
@@ -2014,9 +2013,9 @@
   </sheetPr>
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2046,10 +2045,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -2060,1023 +2059,1097 @@
     </row>
     <row r="2" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>478</v>
+        <v>132</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
-        <v>481</v>
+        <v>153</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
-        <v>482</v>
+        <v>156</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>479</v>
+        <v>138</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>480</v>
+        <v>129</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>483</v>
+        <v>135</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>484</v>
+        <v>141</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
-        <v>477</v>
+        <v>150</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>9</v>
+        <v>424</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
-        <v>486</v>
+      <c r="A10" s="16" t="s">
+        <v>144</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>487</v>
+        <v>145</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
-        <v>485</v>
+        <v>147</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>30</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="A13" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
-        <v>34</v>
+        <v>464</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
-        <v>38</v>
+        <v>465</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
-        <v>41</v>
+        <v>462</v>
       </c>
       <c r="B16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="16" t="s">
+      <c r="C22" s="16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>62</v>
-      </c>
       <c r="D22" s="16" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>448</v>
+        <v>42</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>446</v>
+        <v>46</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="16" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="16" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>451</v>
+        <v>55</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="16" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="16" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>89</v>
+        <v>432</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>98</v>
+        <v>74</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>435</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>104</v>
+        <v>128</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>431</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="17" t="s">
-        <v>473</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="17" t="s">
-        <v>474</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="16" t="s">
-        <v>114</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="17" t="s">
+        <v>456</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H42" s="16"/>
+    </row>
+    <row r="43" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H43" s="16"/>
+    </row>
+    <row r="44" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H44" s="16"/>
+    </row>
+    <row r="45" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="16" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H45" s="16"/>
+    </row>
+    <row r="46" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="16" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="B46" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H46" s="16"/>
+    </row>
+    <row r="47" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="16" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B47" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>447</v>
+        <v>107</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>136</v>
+        <v>110</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>139</v>
+        <v>113</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="16" t="s">
-        <v>140</v>
+      <c r="A50" s="18" t="s">
+        <v>469</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>142</v>
+        <v>25</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>145</v>
-      </c>
+      <c r="A51" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
     </row>
     <row r="52" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>148</v>
-      </c>
+      <c r="A52" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
     </row>
     <row r="53" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>154</v>
+      <c r="A53" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+    </row>
+    <row r="54" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>157</v>
-      </c>
+      <c r="A55" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H55" s="15"/>
     </row>
     <row r="56" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>160</v>
+      <c r="A56" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57" s="16" t="s">
+      <c r="A57" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D57" s="16" t="s">
-        <v>163</v>
-      </c>
+      <c r="C57" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57"/>
     </row>
     <row r="58" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>167</v>
-      </c>
+      <c r="A58" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
     </row>
     <row r="59" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>167</v>
-      </c>
+      <c r="A59" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
     </row>
     <row r="60" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>167</v>
-      </c>
+      <c r="A60" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C62" s="16" t="s">
+      <c r="A62" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D62" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H62" s="16" t="s">
-        <v>167</v>
-      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62"/>
     </row>
     <row r="63" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>182</v>
+      <c r="A63" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>183</v>
+        <v>477</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>184</v>
+        <v>427</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>186</v>
+        <v>482</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H66">
+    <sortState ref="A2:H66">
+      <sortCondition ref="A1:A66"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -3089,9 +3162,9 @@
   </sheetPr>
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3110,65 +3183,65 @@
   <sheetData>
     <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -3183,674 +3256,674 @@
     </row>
     <row r="4" spans="1:17" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="F4" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G4" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="D5" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="B6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" t="s">
         <v>198</v>
       </c>
-      <c r="C6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E6" t="s">
-        <v>210</v>
-      </c>
       <c r="F6" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D7" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E7" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="F7" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C8" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D8" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="B9" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D9" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="E9" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F9" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="G9" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="B10" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C10" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D10" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="E10" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F10" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="G10" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="H10" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="I10" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="J10" t="s">
         <v>25</v>
       </c>
       <c r="K10" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G11" t="s">
+        <v>227</v>
+      </c>
+      <c r="H11" t="s">
+        <v>228</v>
+      </c>
+      <c r="I11" t="s">
+        <v>229</v>
+      </c>
+      <c r="J11" t="s">
+        <v>230</v>
+      </c>
+      <c r="K11" t="s">
+        <v>231</v>
+      </c>
+      <c r="L11" t="s">
+        <v>232</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="N11" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="C11" t="s">
-        <v>235</v>
-      </c>
-      <c r="D11" t="s">
-        <v>236</v>
-      </c>
-      <c r="E11" t="s">
-        <v>237</v>
-      </c>
-      <c r="F11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G11" t="s">
-        <v>239</v>
-      </c>
-      <c r="H11" t="s">
-        <v>240</v>
-      </c>
-      <c r="I11" t="s">
-        <v>241</v>
-      </c>
-      <c r="J11" t="s">
-        <v>242</v>
-      </c>
-      <c r="K11" t="s">
-        <v>243</v>
-      </c>
-      <c r="L11" t="s">
-        <v>244</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12" t="s">
+        <v>225</v>
+      </c>
+      <c r="F12" t="s">
+        <v>226</v>
+      </c>
+      <c r="G12" t="s">
+        <v>227</v>
+      </c>
+      <c r="H12" t="s">
+        <v>228</v>
+      </c>
+      <c r="I12" t="s">
+        <v>235</v>
+      </c>
+      <c r="J12" t="s">
+        <v>236</v>
+      </c>
+      <c r="K12" t="s">
+        <v>237</v>
+      </c>
+      <c r="L12" t="s">
+        <v>238</v>
+      </c>
+      <c r="M12" t="s">
+        <v>239</v>
+      </c>
+      <c r="N12" t="s">
+        <v>240</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="P12" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="C12" t="s">
-        <v>235</v>
-      </c>
-      <c r="D12" t="s">
-        <v>236</v>
-      </c>
-      <c r="E12" t="s">
-        <v>237</v>
-      </c>
-      <c r="F12" t="s">
-        <v>238</v>
-      </c>
-      <c r="G12" t="s">
-        <v>239</v>
-      </c>
-      <c r="H12" t="s">
-        <v>240</v>
-      </c>
-      <c r="I12" t="s">
-        <v>247</v>
-      </c>
-      <c r="J12" t="s">
-        <v>248</v>
-      </c>
-      <c r="K12" t="s">
-        <v>249</v>
-      </c>
-      <c r="L12" t="s">
-        <v>250</v>
-      </c>
-      <c r="M12" t="s">
-        <v>251</v>
-      </c>
-      <c r="N12" t="s">
-        <v>252</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" t="s">
+        <v>225</v>
+      </c>
+      <c r="F13" t="s">
+        <v>226</v>
+      </c>
+      <c r="G13" t="s">
+        <v>227</v>
+      </c>
+      <c r="H13" t="s">
+        <v>228</v>
+      </c>
+      <c r="I13" t="s">
+        <v>229</v>
+      </c>
+      <c r="J13" t="s">
+        <v>230</v>
+      </c>
+      <c r="K13" t="s">
+        <v>231</v>
+      </c>
+      <c r="L13" t="s">
+        <v>232</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="N13" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="C13" t="s">
-        <v>235</v>
-      </c>
-      <c r="D13" t="s">
-        <v>236</v>
-      </c>
-      <c r="E13" t="s">
-        <v>237</v>
-      </c>
-      <c r="F13" t="s">
-        <v>238</v>
-      </c>
-      <c r="G13" t="s">
-        <v>239</v>
-      </c>
-      <c r="H13" t="s">
-        <v>240</v>
-      </c>
-      <c r="I13" t="s">
-        <v>241</v>
-      </c>
-      <c r="J13" t="s">
-        <v>242</v>
-      </c>
-      <c r="K13" t="s">
-        <v>243</v>
-      </c>
-      <c r="L13" t="s">
-        <v>244</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14" t="s">
+        <v>225</v>
+      </c>
+      <c r="F14" t="s">
+        <v>226</v>
+      </c>
+      <c r="G14" t="s">
+        <v>241</v>
+      </c>
+      <c r="H14" t="s">
+        <v>242</v>
+      </c>
+      <c r="I14" t="s">
+        <v>229</v>
+      </c>
+      <c r="J14" t="s">
+        <v>243</v>
+      </c>
+      <c r="K14" t="s">
+        <v>231</v>
+      </c>
+      <c r="L14" t="s">
+        <v>232</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="N14" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="C14" t="s">
-        <v>235</v>
-      </c>
-      <c r="D14" t="s">
-        <v>236</v>
-      </c>
-      <c r="E14" t="s">
-        <v>237</v>
-      </c>
-      <c r="F14" t="s">
-        <v>238</v>
-      </c>
-      <c r="G14" t="s">
-        <v>253</v>
-      </c>
-      <c r="H14" t="s">
-        <v>254</v>
-      </c>
-      <c r="I14" t="s">
-        <v>241</v>
-      </c>
-      <c r="J14" t="s">
-        <v>255</v>
-      </c>
-      <c r="K14" t="s">
-        <v>243</v>
-      </c>
-      <c r="L14" t="s">
-        <v>244</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F15" t="s">
+        <v>226</v>
+      </c>
+      <c r="G15" t="s">
+        <v>227</v>
+      </c>
+      <c r="H15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I15" t="s">
+        <v>231</v>
+      </c>
+      <c r="J15" t="s">
+        <v>232</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="L15" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="C15" t="s">
-        <v>235</v>
-      </c>
-      <c r="D15" t="s">
-        <v>236</v>
-      </c>
-      <c r="E15" t="s">
-        <v>237</v>
-      </c>
-      <c r="F15" t="s">
-        <v>238</v>
-      </c>
-      <c r="G15" t="s">
-        <v>239</v>
-      </c>
-      <c r="H15" t="s">
-        <v>256</v>
-      </c>
-      <c r="I15" t="s">
-        <v>243</v>
-      </c>
-      <c r="J15" t="s">
-        <v>244</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" t="s">
+        <v>225</v>
+      </c>
+      <c r="F16" t="s">
+        <v>226</v>
+      </c>
+      <c r="G16" t="s">
+        <v>227</v>
+      </c>
+      <c r="H16" t="s">
+        <v>228</v>
+      </c>
+      <c r="I16" t="s">
+        <v>229</v>
+      </c>
+      <c r="J16" t="s">
+        <v>230</v>
+      </c>
+      <c r="K16" t="s">
+        <v>239</v>
+      </c>
+      <c r="L16" t="s">
+        <v>240</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="N16" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="C16" t="s">
-        <v>235</v>
-      </c>
-      <c r="D16" t="s">
-        <v>236</v>
-      </c>
-      <c r="E16" t="s">
-        <v>237</v>
-      </c>
-      <c r="F16" t="s">
-        <v>238</v>
-      </c>
-      <c r="G16" t="s">
-        <v>239</v>
-      </c>
-      <c r="H16" t="s">
-        <v>240</v>
-      </c>
-      <c r="I16" t="s">
-        <v>241</v>
-      </c>
-      <c r="J16" t="s">
-        <v>242</v>
-      </c>
-      <c r="K16" t="s">
-        <v>251</v>
-      </c>
-      <c r="L16" t="s">
-        <v>252</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" t="s">
+        <v>227</v>
+      </c>
+      <c r="H17" t="s">
+        <v>228</v>
+      </c>
+      <c r="I17" t="s">
+        <v>229</v>
+      </c>
+      <c r="J17" t="s">
+        <v>230</v>
+      </c>
+      <c r="K17" t="s">
+        <v>239</v>
+      </c>
+      <c r="L17" t="s">
+        <v>240</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="N17" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="C17" t="s">
-        <v>235</v>
-      </c>
-      <c r="D17" t="s">
-        <v>236</v>
-      </c>
-      <c r="E17" t="s">
-        <v>237</v>
-      </c>
-      <c r="F17" t="s">
-        <v>238</v>
-      </c>
-      <c r="G17" t="s">
-        <v>239</v>
-      </c>
-      <c r="H17" t="s">
-        <v>240</v>
-      </c>
-      <c r="I17" t="s">
-        <v>241</v>
-      </c>
-      <c r="J17" t="s">
-        <v>242</v>
-      </c>
-      <c r="K17" t="s">
-        <v>251</v>
-      </c>
-      <c r="L17" t="s">
-        <v>252</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E19" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="F19" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E20" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="F20" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>478</v>
       </c>
       <c r="B21" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C21" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D21" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E21" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>479</v>
       </c>
       <c r="B22" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C22" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D22" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E22" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="F22" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="G22" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="H22" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="I22" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="J22" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="K22" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="L22" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="M22" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="N22" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>480</v>
       </c>
       <c r="B23" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C23" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D23" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E23" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" t="s">
+        <v>224</v>
+      </c>
+      <c r="E24" t="s">
+        <v>225</v>
+      </c>
+      <c r="F24" t="s">
+        <v>226</v>
+      </c>
+      <c r="G24" t="s">
+        <v>227</v>
+      </c>
+      <c r="H24" t="s">
+        <v>264</v>
+      </c>
+      <c r="I24" t="s">
+        <v>244</v>
+      </c>
+      <c r="J24" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24" t="s">
+        <v>232</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="M24" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="C24" t="s">
-        <v>235</v>
-      </c>
-      <c r="D24" t="s">
-        <v>236</v>
-      </c>
-      <c r="E24" t="s">
-        <v>237</v>
-      </c>
-      <c r="F24" t="s">
-        <v>238</v>
-      </c>
-      <c r="G24" t="s">
-        <v>239</v>
-      </c>
-      <c r="H24" t="s">
-        <v>276</v>
-      </c>
-      <c r="I24" t="s">
-        <v>256</v>
-      </c>
-      <c r="J24" t="s">
-        <v>243</v>
-      </c>
-      <c r="K24" t="s">
-        <v>244</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>183</v>
+        <v>481</v>
       </c>
       <c r="B25" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C25" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>482</v>
       </c>
       <c r="B26" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C26" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D26" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E26" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>189</v>
+        <v>483</v>
       </c>
       <c r="B27" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C27" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D27" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3866,8 +3939,8 @@
   </sheetPr>
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3878,36 +3951,36 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -3916,182 +3989,182 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="B3" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C3" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D3" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E3" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F3" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G3" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="B4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G4" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="B5" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C5" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D5" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E5" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F5" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="B6" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C6" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D6" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="B7" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C7" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D7" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E7" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F7" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G7" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C8" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D8" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C9" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D9" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E9" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F9" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="B10" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="B11" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C11" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D11" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E11" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F11" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G11" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="H11" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="I11" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="J11" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="K11" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -4099,797 +4172,797 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>31</v>
+        <v>472</v>
       </c>
       <c r="B13" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>473</v>
       </c>
       <c r="B17" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B28" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>474</v>
       </c>
       <c r="B32" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B33" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B39" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>475</v>
       </c>
       <c r="B42" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>476</v>
       </c>
       <c r="B43" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B44" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B46" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B47" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C47" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D47" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="E47" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F47" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="G47" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="H47" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="I47" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="J47" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="K47" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="L47" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B48" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C48" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D48" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="E48" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F48" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="G48" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="H48" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="I48" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="J48" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="K48" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="L48" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="M48" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="N48" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="P48" s="8" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="Q48" s="8"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B49" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C49" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D49" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="E49" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F49" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="G49" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="H49" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="I49" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="J49" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="K49" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="L49" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B50" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C50" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D50" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="E50" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F50" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="G50" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="H50" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="I50" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="J50" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="K50" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="L50" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B51" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C51" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D51" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="E51" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F51" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="G51" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="H51" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="I51" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="J51" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B52" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C52" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D52" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="E52" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F52" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="G52" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="H52" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="I52" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="J52" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="K52" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="L52" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B53" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C53" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D53" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="E53" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F53" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="G53" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="H53" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="I53" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="J53" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="K53" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="L53" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B54" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E54" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F54" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B55" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E55" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F55" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>168</v>
+        <v>478</v>
       </c>
       <c r="B56" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C56" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D56" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E56" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>171</v>
+        <v>479</v>
       </c>
       <c r="B57" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C57" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D57" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E57" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F57" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G57" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="H57" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="I57" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="J57" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="K57" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="L57" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="M57" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="N57" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>174</v>
+        <v>480</v>
       </c>
       <c r="B58" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C58" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D58" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E58" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B59" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B60" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C60" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D60" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="E60" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F60" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="G60" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="H60" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="I60" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="J60" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="K60" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
-        <v>183</v>
+        <v>481</v>
       </c>
       <c r="B61" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C61" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>186</v>
+        <v>482</v>
       </c>
       <c r="B62" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C62" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D62" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E62" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>189</v>
+        <v>483</v>
       </c>
       <c r="B63" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C63" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D63" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4906,7 +4979,7 @@
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4917,85 +4990,85 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="B2" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="B3" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C3" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="D3" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="E3" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F3" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="B4" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C4" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="D4" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="E4" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="F4" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="G4" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="H4" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="I4" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="J4" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="K4" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -5003,686 +5076,686 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C8" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="D8" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B24" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B28" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B29" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B30" t="s">
+        <v>278</v>
+      </c>
+      <c r="C30" t="s">
+        <v>278</v>
+      </c>
+      <c r="D30" t="s">
+        <v>278</v>
+      </c>
+      <c r="E30" t="s">
+        <v>278</v>
+      </c>
+      <c r="F30" t="s">
+        <v>278</v>
+      </c>
+      <c r="G30" t="s">
+        <v>297</v>
+      </c>
+      <c r="H30" t="s">
+        <v>298</v>
+      </c>
+      <c r="I30" t="s">
+        <v>292</v>
+      </c>
+      <c r="J30" t="s">
+        <v>292</v>
+      </c>
+      <c r="K30" t="s">
+        <v>299</v>
+      </c>
+      <c r="L30" t="s">
+        <v>299</v>
+      </c>
+      <c r="M30" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C30" t="s">
-        <v>290</v>
-      </c>
-      <c r="D30" t="s">
-        <v>290</v>
-      </c>
-      <c r="E30" t="s">
-        <v>290</v>
-      </c>
-      <c r="F30" t="s">
-        <v>290</v>
-      </c>
-      <c r="G30" t="s">
-        <v>309</v>
-      </c>
-      <c r="H30" t="s">
-        <v>310</v>
-      </c>
-      <c r="I30" t="s">
-        <v>304</v>
-      </c>
-      <c r="J30" t="s">
-        <v>304</v>
-      </c>
-      <c r="K30" t="s">
-        <v>311</v>
-      </c>
-      <c r="L30" t="s">
-        <v>311</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>302</v>
-      </c>
       <c r="N30" s="8" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B31" t="s">
+        <v>278</v>
+      </c>
+      <c r="C31" t="s">
+        <v>278</v>
+      </c>
+      <c r="D31" t="s">
+        <v>278</v>
+      </c>
+      <c r="E31" t="s">
+        <v>278</v>
+      </c>
+      <c r="F31" t="s">
+        <v>278</v>
+      </c>
+      <c r="G31" t="s">
+        <v>297</v>
+      </c>
+      <c r="H31" t="s">
+        <v>298</v>
+      </c>
+      <c r="I31" t="s">
+        <v>292</v>
+      </c>
+      <c r="J31" t="s">
+        <v>292</v>
+      </c>
+      <c r="K31" t="s">
+        <v>292</v>
+      </c>
+      <c r="L31" t="s">
+        <v>292</v>
+      </c>
+      <c r="M31" t="s">
+        <v>279</v>
+      </c>
+      <c r="N31" t="s">
+        <v>279</v>
+      </c>
+      <c r="O31" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C31" t="s">
-        <v>290</v>
-      </c>
-      <c r="D31" t="s">
-        <v>290</v>
-      </c>
-      <c r="E31" t="s">
-        <v>290</v>
-      </c>
-      <c r="F31" t="s">
-        <v>290</v>
-      </c>
-      <c r="G31" t="s">
-        <v>309</v>
-      </c>
-      <c r="H31" t="s">
-        <v>310</v>
-      </c>
-      <c r="I31" t="s">
-        <v>304</v>
-      </c>
-      <c r="J31" t="s">
-        <v>304</v>
-      </c>
-      <c r="K31" t="s">
-        <v>304</v>
-      </c>
-      <c r="L31" t="s">
-        <v>304</v>
-      </c>
-      <c r="M31" t="s">
-        <v>291</v>
-      </c>
-      <c r="N31" t="s">
-        <v>291</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>302</v>
-      </c>
       <c r="P31" s="8" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="Q31" s="8"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B32" t="s">
+        <v>278</v>
+      </c>
+      <c r="C32" t="s">
+        <v>278</v>
+      </c>
+      <c r="D32" t="s">
+        <v>278</v>
+      </c>
+      <c r="E32" t="s">
+        <v>278</v>
+      </c>
+      <c r="F32" t="s">
+        <v>278</v>
+      </c>
+      <c r="G32" t="s">
+        <v>297</v>
+      </c>
+      <c r="H32" t="s">
+        <v>298</v>
+      </c>
+      <c r="I32" t="s">
+        <v>292</v>
+      </c>
+      <c r="J32" t="s">
+        <v>292</v>
+      </c>
+      <c r="K32" t="s">
+        <v>299</v>
+      </c>
+      <c r="L32" t="s">
+        <v>299</v>
+      </c>
+      <c r="M32" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C32" t="s">
-        <v>290</v>
-      </c>
-      <c r="D32" t="s">
-        <v>290</v>
-      </c>
-      <c r="E32" t="s">
-        <v>290</v>
-      </c>
-      <c r="F32" t="s">
-        <v>290</v>
-      </c>
-      <c r="G32" t="s">
-        <v>309</v>
-      </c>
-      <c r="H32" t="s">
-        <v>310</v>
-      </c>
-      <c r="I32" t="s">
-        <v>304</v>
-      </c>
-      <c r="J32" t="s">
-        <v>304</v>
-      </c>
-      <c r="K32" t="s">
-        <v>311</v>
-      </c>
-      <c r="L32" t="s">
-        <v>311</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>302</v>
-      </c>
       <c r="N32" s="8" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B33" t="s">
+        <v>278</v>
+      </c>
+      <c r="C33" t="s">
+        <v>278</v>
+      </c>
+      <c r="D33" t="s">
+        <v>278</v>
+      </c>
+      <c r="E33" t="s">
+        <v>278</v>
+      </c>
+      <c r="F33" t="s">
+        <v>278</v>
+      </c>
+      <c r="G33" t="s">
+        <v>286</v>
+      </c>
+      <c r="H33" t="s">
+        <v>286</v>
+      </c>
+      <c r="I33" t="s">
+        <v>292</v>
+      </c>
+      <c r="J33" t="s">
+        <v>292</v>
+      </c>
+      <c r="K33" t="s">
+        <v>299</v>
+      </c>
+      <c r="L33" t="s">
+        <v>299</v>
+      </c>
+      <c r="M33" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C33" t="s">
-        <v>290</v>
-      </c>
-      <c r="D33" t="s">
-        <v>290</v>
-      </c>
-      <c r="E33" t="s">
-        <v>290</v>
-      </c>
-      <c r="F33" t="s">
-        <v>290</v>
-      </c>
-      <c r="G33" t="s">
-        <v>298</v>
-      </c>
-      <c r="H33" t="s">
-        <v>298</v>
-      </c>
-      <c r="I33" t="s">
-        <v>304</v>
-      </c>
-      <c r="J33" t="s">
-        <v>304</v>
-      </c>
-      <c r="K33" t="s">
-        <v>311</v>
-      </c>
-      <c r="L33" t="s">
-        <v>311</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>302</v>
-      </c>
       <c r="N33" s="8" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B34" t="s">
+        <v>278</v>
+      </c>
+      <c r="C34" t="s">
+        <v>278</v>
+      </c>
+      <c r="D34" t="s">
+        <v>278</v>
+      </c>
+      <c r="E34" t="s">
+        <v>278</v>
+      </c>
+      <c r="F34" t="s">
+        <v>278</v>
+      </c>
+      <c r="G34" t="s">
+        <v>297</v>
+      </c>
+      <c r="H34" t="s">
+        <v>292</v>
+      </c>
+      <c r="I34" t="s">
+        <v>299</v>
+      </c>
+      <c r="J34" t="s">
+        <v>299</v>
+      </c>
+      <c r="K34" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C34" t="s">
-        <v>290</v>
-      </c>
-      <c r="D34" t="s">
-        <v>290</v>
-      </c>
-      <c r="E34" t="s">
-        <v>290</v>
-      </c>
-      <c r="F34" t="s">
-        <v>290</v>
-      </c>
-      <c r="G34" t="s">
-        <v>309</v>
-      </c>
-      <c r="H34" t="s">
-        <v>304</v>
-      </c>
-      <c r="I34" t="s">
-        <v>311</v>
-      </c>
-      <c r="J34" t="s">
-        <v>311</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>302</v>
-      </c>
       <c r="L34" s="8" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B35" t="s">
+        <v>278</v>
+      </c>
+      <c r="C35" t="s">
+        <v>278</v>
+      </c>
+      <c r="D35" t="s">
+        <v>278</v>
+      </c>
+      <c r="E35" t="s">
+        <v>278</v>
+      </c>
+      <c r="F35" t="s">
+        <v>278</v>
+      </c>
+      <c r="G35" t="s">
+        <v>297</v>
+      </c>
+      <c r="H35" t="s">
+        <v>298</v>
+      </c>
+      <c r="I35" t="s">
+        <v>292</v>
+      </c>
+      <c r="J35" t="s">
+        <v>292</v>
+      </c>
+      <c r="K35" t="s">
+        <v>279</v>
+      </c>
+      <c r="L35" t="s">
+        <v>279</v>
+      </c>
+      <c r="M35" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C35" t="s">
-        <v>290</v>
-      </c>
-      <c r="D35" t="s">
-        <v>290</v>
-      </c>
-      <c r="E35" t="s">
-        <v>290</v>
-      </c>
-      <c r="F35" t="s">
-        <v>290</v>
-      </c>
-      <c r="G35" t="s">
-        <v>309</v>
-      </c>
-      <c r="H35" t="s">
-        <v>310</v>
-      </c>
-      <c r="I35" t="s">
-        <v>304</v>
-      </c>
-      <c r="J35" t="s">
-        <v>304</v>
-      </c>
-      <c r="K35" t="s">
-        <v>291</v>
-      </c>
-      <c r="L35" t="s">
-        <v>291</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>302</v>
-      </c>
       <c r="N35" s="8" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B36" t="s">
+        <v>278</v>
+      </c>
+      <c r="C36" t="s">
+        <v>278</v>
+      </c>
+      <c r="D36" t="s">
+        <v>278</v>
+      </c>
+      <c r="E36" t="s">
+        <v>278</v>
+      </c>
+      <c r="F36" t="s">
+        <v>278</v>
+      </c>
+      <c r="G36" t="s">
+        <v>297</v>
+      </c>
+      <c r="H36" t="s">
+        <v>298</v>
+      </c>
+      <c r="I36" t="s">
+        <v>292</v>
+      </c>
+      <c r="J36" t="s">
+        <v>292</v>
+      </c>
+      <c r="K36" t="s">
+        <v>279</v>
+      </c>
+      <c r="L36" t="s">
+        <v>279</v>
+      </c>
+      <c r="M36" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C36" t="s">
-        <v>290</v>
-      </c>
-      <c r="D36" t="s">
-        <v>290</v>
-      </c>
-      <c r="E36" t="s">
-        <v>290</v>
-      </c>
-      <c r="F36" t="s">
-        <v>290</v>
-      </c>
-      <c r="G36" t="s">
-        <v>309</v>
-      </c>
-      <c r="H36" t="s">
-        <v>310</v>
-      </c>
-      <c r="I36" t="s">
-        <v>304</v>
-      </c>
-      <c r="J36" t="s">
-        <v>304</v>
-      </c>
-      <c r="K36" t="s">
-        <v>291</v>
-      </c>
-      <c r="L36" t="s">
-        <v>291</v>
-      </c>
-      <c r="M36" s="8" t="s">
-        <v>302</v>
-      </c>
       <c r="N36" s="8" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B37" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C37" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>168</v>
+        <v>478</v>
       </c>
       <c r="B38" t="s">
+        <v>278</v>
+      </c>
+      <c r="C38" t="s">
         <v>290</v>
       </c>
-      <c r="C38" t="s">
-        <v>302</v>
-      </c>
       <c r="D38" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="E38" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>171</v>
+        <v>479</v>
       </c>
       <c r="B39" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C39" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D39" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="E39" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="F39" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="G39" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="H39" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="I39" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="J39" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="K39" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="L39" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="M39" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="N39" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>174</v>
+        <v>480</v>
       </c>
       <c r="B40" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C40" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D40" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="E40" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B41" t="s">
+        <v>278</v>
+      </c>
+      <c r="C41" t="s">
+        <v>278</v>
+      </c>
+      <c r="D41" t="s">
+        <v>278</v>
+      </c>
+      <c r="E41" t="s">
+        <v>278</v>
+      </c>
+      <c r="F41" t="s">
+        <v>278</v>
+      </c>
+      <c r="G41" t="s">
+        <v>297</v>
+      </c>
+      <c r="H41" t="s">
+        <v>292</v>
+      </c>
+      <c r="I41" t="s">
+        <v>292</v>
+      </c>
+      <c r="J41" t="s">
+        <v>299</v>
+      </c>
+      <c r="K41" t="s">
+        <v>299</v>
+      </c>
+      <c r="L41" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C41" t="s">
-        <v>290</v>
-      </c>
-      <c r="D41" t="s">
-        <v>290</v>
-      </c>
-      <c r="E41" t="s">
-        <v>290</v>
-      </c>
-      <c r="F41" t="s">
-        <v>290</v>
-      </c>
-      <c r="G41" t="s">
-        <v>309</v>
-      </c>
-      <c r="H41" t="s">
-        <v>304</v>
-      </c>
-      <c r="I41" t="s">
-        <v>304</v>
-      </c>
-      <c r="J41" t="s">
-        <v>311</v>
-      </c>
-      <c r="K41" t="s">
-        <v>311</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>302</v>
-      </c>
       <c r="M41" s="8" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
-        <v>183</v>
+        <v>481</v>
       </c>
       <c r="B42" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C42" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>186</v>
+        <v>482</v>
       </c>
       <c r="B43" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C43" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D43" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="E43" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>189</v>
+        <v>483</v>
       </c>
       <c r="B44" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C44" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="D44" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -5696,10 +5769,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5722,144 +5795,144 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="C2" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="C3" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="C4" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="C5" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="C6" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="C7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="C8" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>452</v>
+        <v>469</v>
+      </c>
+      <c r="B9" t="s">
+        <v>455</v>
       </c>
       <c r="C9" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>486</v>
-      </c>
-      <c r="B10" t="s">
-        <v>472</v>
+      <c r="A10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>436</v>
       </c>
       <c r="C10" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>64</v>
+      <c r="A11" t="s">
+        <v>65</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="C11" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -5867,10 +5940,10 @@
         <v>67</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="C12" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -5878,54 +5951,54 @@
         <v>69</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="C13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="C14" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="C15" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="C16" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>452</v>
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>455</v>
       </c>
       <c r="C17" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -5933,21 +6006,21 @@
         <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="C18" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="C19" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -5955,21 +6028,21 @@
         <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="C20" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="C21" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -5977,787 +6050,743 @@
         <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="C22" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>456</v>
       </c>
       <c r="B23" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="C23" t="s">
-        <v>342</v>
+        <v>459</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>473</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="C24" t="s">
-        <v>476</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="C25" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" t="s">
-        <v>472</v>
-      </c>
-      <c r="C26" t="s">
-        <v>344</v>
+        <v>461</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="D26" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
-        <v>123</v>
+      <c r="A27" t="s">
+        <v>464</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>345</v>
+        <v>438</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
-        <v>126</v>
+      <c r="A28" t="s">
+        <v>465</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>346</v>
+        <v>439</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
-        <v>129</v>
+      <c r="A29" t="s">
+        <v>462</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="C29" t="s">
-        <v>347</v>
+        <v>440</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="D30" t="s">
-        <v>349</v>
+        <v>441</v>
+      </c>
+      <c r="C30" t="s">
+        <v>332</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="E30" t="s">
+        <v>333</v>
+      </c>
+      <c r="F30" t="s">
+        <v>343</v>
+      </c>
+      <c r="G30" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>355</v>
+        <v>442</v>
+      </c>
+      <c r="C31" t="s">
+        <v>345</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="E31" t="s">
+        <v>347</v>
+      </c>
+      <c r="F31" t="s">
+        <v>348</v>
+      </c>
+      <c r="G31" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="C32" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C32" t="s">
+        <v>345</v>
+      </c>
+      <c r="D32" t="s">
         <v>350</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="E32" t="s">
         <v>351</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="D33" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="C33" t="s">
+        <v>352</v>
+      </c>
+      <c r="D33" t="s">
+        <v>353</v>
+      </c>
+      <c r="E33" t="s">
+        <v>354</v>
+      </c>
+      <c r="F33" t="s">
+        <v>355</v>
+      </c>
+      <c r="G33" t="s">
         <v>356</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="H33" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>480</v>
+      <c r="A34" s="7" t="s">
+        <v>468</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="C34" t="s">
-        <v>348</v>
+        <v>445</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>358</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="E34" t="s">
-        <v>349</v>
-      </c>
-      <c r="F34" t="s">
         <v>359</v>
       </c>
-      <c r="G34" t="s">
+      <c r="E34" s="12" t="s">
         <v>360</v>
       </c>
+      <c r="F34" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>483</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>459</v>
+      <c r="A35" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" t="s">
+        <v>446</v>
       </c>
       <c r="C35" t="s">
-        <v>361</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>362</v>
+        <v>367</v>
+      </c>
+      <c r="D35" t="s">
+        <v>368</v>
       </c>
       <c r="E35" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F35" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="G35" t="s">
-        <v>365</v>
+        <v>371</v>
+      </c>
+      <c r="H35" t="s">
+        <v>372</v>
+      </c>
+      <c r="I35" t="s">
+        <v>373</v>
+      </c>
+      <c r="J35" t="s">
+        <v>374</v>
+      </c>
+      <c r="K35" t="s">
+        <v>375</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="M35" t="s">
+        <v>377</v>
+      </c>
+      <c r="N35" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>484</v>
+      <c r="A36" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="C36" t="s">
-        <v>361</v>
-      </c>
-      <c r="D36" t="s">
-        <v>366</v>
-      </c>
-      <c r="E36" t="s">
+        <v>447</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>367</v>
       </c>
+      <c r="D36" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="J36" t="s">
+        <v>380</v>
+      </c>
+      <c r="K36" t="s">
+        <v>381</v>
+      </c>
+      <c r="L36" t="s">
+        <v>382</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="N36" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="O36" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="P36" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q36" s="8" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>477</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="A37" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" s="8" t="s">
         <v>373</v>
       </c>
+      <c r="J37" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="L37" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="N37" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38" s="7" t="s">
-        <v>485</v>
+      <c r="A38" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="C38" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="J38" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="D38" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="E38" s="12" t="s">
+      <c r="K38" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="L38" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="M38" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="N38" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="O38" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="I38" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>382</v>
-      </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B39" t="s">
-        <v>463</v>
-      </c>
-      <c r="C39" t="s">
-        <v>383</v>
-      </c>
-      <c r="D39" t="s">
-        <v>384</v>
-      </c>
-      <c r="E39" t="s">
-        <v>385</v>
-      </c>
-      <c r="F39" t="s">
-        <v>386</v>
-      </c>
-      <c r="G39" t="s">
-        <v>387</v>
-      </c>
-      <c r="H39" t="s">
-        <v>388</v>
-      </c>
-      <c r="I39" t="s">
-        <v>389</v>
-      </c>
-      <c r="J39" t="s">
-        <v>390</v>
-      </c>
-      <c r="K39" t="s">
-        <v>391</v>
+      <c r="A39" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="J39" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>377</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="M39" t="s">
-        <v>393</v>
-      </c>
-      <c r="N39" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>395</v>
+        <v>378</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>464</v>
+        <v>144</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>451</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="D40" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="L40" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="M40" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="N40" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="G40" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="J40" t="s">
-        <v>396</v>
-      </c>
-      <c r="K40" t="s">
-        <v>397</v>
-      </c>
-      <c r="L40" t="s">
-        <v>398</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="N40" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="O40" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="P40" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q40" s="8" t="s">
-        <v>395</v>
+      <c r="O40" s="8" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="D41" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="L41" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="M41" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="N41" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="G41" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="J41" s="8" t="s">
+      <c r="O41" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="I42" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="K41" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="L41" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="N41" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="O41" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A42" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>404</v>
-      </c>
       <c r="J42" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="K42" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="L42" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="N42" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="O42" s="8" t="s">
-        <v>395</v>
+        <v>374</v>
+      </c>
+      <c r="K42" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="M42" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>146</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="J43" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s">
+        <v>436</v>
+      </c>
+      <c r="C43" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="C44" t="s">
         <v>392</v>
       </c>
-      <c r="K43" s="8" t="s">
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="C45" t="s">
         <v>393</v>
       </c>
-      <c r="L43" s="14" t="s">
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="D46" t="s">
         <v>394</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A44" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="K44" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="L44" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="M44" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="N44" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="O44" s="8" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A45" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="K45" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="L45" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="M45" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="N45" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="O45" s="8" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="K46" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="L46" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="M46" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="N46" s="8" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" t="s">
-        <v>452</v>
+        <v>168</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>436</v>
       </c>
       <c r="C47" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>452</v>
+        <v>84</v>
+      </c>
+      <c r="B48" t="s">
+        <v>455</v>
       </c>
       <c r="C48" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="C49" t="s">
-        <v>409</v>
+        <v>153</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>155</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>467</v>
+        <v>156</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>454</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="D50" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>177</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="C51" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>86</v>
-      </c>
-      <c r="B52" t="s">
-        <v>472</v>
-      </c>
-      <c r="C52" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>158</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>161</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="D54" t="s">
-        <v>418</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>421</v>
+        <v>402</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -6785,81 +6814,81 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="C2" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="C3" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="C4" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="C5" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="D5" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="E5" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="F5" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="G5" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>

--- a/dds/moorings.xlsx
+++ b/dds/moorings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="419"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="419" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="483">
   <si>
     <t>Identifier</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>Default Soil Properties Table</t>
-  </si>
-  <si>
-    <t>component.fabrication_cost</t>
   </si>
   <si>
     <t>SimpleData</t>
@@ -1490,13 +1487,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1617,28 +1621,28 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1651,11 +1655,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -2013,9 +2018,9 @@
   </sheetPr>
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B53" sqref="B53"/>
+      <selection pane="topRight" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2045,10 +2050,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -2059,161 +2064,161 @@
     </row>
     <row r="2" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>154</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>157</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>139</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>130</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>142</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>145</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>148</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>172</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>6</v>
@@ -2231,7 +2236,7 @@
     </row>
     <row r="14" spans="1:8" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>9</v>
@@ -2245,7 +2250,7 @@
     </row>
     <row r="15" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>9</v>
@@ -2259,7 +2264,7 @@
     </row>
     <row r="16" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>9</v>
@@ -2273,7 +2278,7 @@
     </row>
     <row r="17" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>9</v>
@@ -2287,7 +2292,7 @@
     </row>
     <row r="18" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>9</v>
@@ -2305,7 +2310,7 @@
     </row>
     <row r="19" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>9</v>
@@ -2319,7 +2324,7 @@
     </row>
     <row r="20" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>9</v>
@@ -2333,7 +2338,7 @@
     </row>
     <row r="21" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>26</v>
@@ -2347,504 +2352,504 @@
     </row>
     <row r="22" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>36</v>
-      </c>
       <c r="G22" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>39</v>
-      </c>
       <c r="G23" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="G24" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="C25" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="D25" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="G25" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="G26" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="16" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="C27" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="D27" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="G27" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="G28" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="16" t="s">
+      <c r="D29" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="16" t="s">
-        <v>61</v>
-      </c>
       <c r="G29" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="16" t="s">
-        <v>64</v>
-      </c>
       <c r="G30" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="16" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>71</v>
-      </c>
       <c r="G33" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C34" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>74</v>
-      </c>
       <c r="F34" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="16" t="s">
-        <v>77</v>
-      </c>
       <c r="G35" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="D37" s="16" t="s">
-        <v>170</v>
-      </c>
       <c r="G37" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C38" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="16" t="s">
-        <v>80</v>
-      </c>
       <c r="G38" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="16" t="s">
-        <v>83</v>
-      </c>
       <c r="G39" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="16" t="s">
-        <v>87</v>
-      </c>
       <c r="G40" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C41" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="D41" s="17" t="s">
         <v>457</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C42" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="16" t="s">
         <v>91</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>92</v>
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H42" s="16"/>
     </row>
     <row r="43" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C43" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="16" t="s">
         <v>94</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>95</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H43" s="16"/>
     </row>
     <row r="44" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C44" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="16" t="s">
         <v>97</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>98</v>
       </c>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H44" s="16"/>
     </row>
     <row r="45" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="17" t="s">
         <v>100</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>101</v>
       </c>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
       <c r="G45" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H45" s="16"/>
     </row>
     <row r="46" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B46" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C46" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="16" t="s">
         <v>103</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>104</v>
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
       <c r="G46" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H46" s="16"/>
     </row>
     <row r="47" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B47" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C47" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D47" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="G47" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B48" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C48" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D48" s="16" t="s">
-        <v>110</v>
-      </c>
       <c r="G48" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B49" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C49" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D49" s="16" t="s">
-        <v>113</v>
-      </c>
       <c r="G49" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B50" s="16" t="s">
         <v>24</v>
@@ -2853,21 +2858,21 @@
         <v>25</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C51" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>120</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
@@ -2876,16 +2881,16 @@
     </row>
     <row r="52" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C52" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>123</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
@@ -2894,16 +2899,16 @@
     </row>
     <row r="53" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C53" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" s="15" t="s">
         <v>125</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>126</v>
       </c>
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
@@ -2911,71 +2916,71 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="15" t="s">
-        <v>471</v>
+      <c r="A54" s="21" t="s">
+        <v>470</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C55" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="15" t="s">
         <v>47</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>48</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
       <c r="G55" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H55" s="15"/>
     </row>
     <row r="56" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C57" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -2984,16 +2989,16 @@
     </row>
     <row r="58" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C58" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>89</v>
       </c>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
@@ -3002,16 +3007,16 @@
     </row>
     <row r="59" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C59" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" s="15" t="s">
         <v>114</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>115</v>
       </c>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
@@ -3020,16 +3025,16 @@
     </row>
     <row r="60" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C60" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>117</v>
       </c>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
@@ -3038,16 +3043,16 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -3056,16 +3061,16 @@
     </row>
     <row r="62" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -3074,53 +3079,53 @@
     </row>
     <row r="63" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D64" s="3" t="s">
+      <c r="H64" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -3128,16 +3133,16 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B66" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="D66" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>32</v>
       </c>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
@@ -3183,65 +3188,65 @@
   <sheetData>
     <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="H1" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" t="s">
         <v>186</v>
-      </c>
-      <c r="C2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -3256,674 +3261,674 @@
     </row>
     <row r="4" spans="1:17" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" t="s">
         <v>188</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>189</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>190</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>191</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>192</v>
-      </c>
-      <c r="G4" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" t="s">
         <v>194</v>
-      </c>
-      <c r="D5" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" t="s">
         <v>196</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>197</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>198</v>
-      </c>
-      <c r="F6" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" t="s">
         <v>200</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>201</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>202</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>203</v>
-      </c>
-      <c r="F7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" t="s">
         <v>205</v>
-      </c>
-      <c r="D8" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" t="s">
         <v>207</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>208</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>209</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>210</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>211</v>
-      </c>
-      <c r="G9" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" t="s">
         <v>213</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>214</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>215</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>216</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>217</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>218</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>219</v>
-      </c>
-      <c r="I10" t="s">
-        <v>220</v>
       </c>
       <c r="J10" t="s">
         <v>25</v>
       </c>
       <c r="K10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" t="s">
         <v>222</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>223</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>224</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>225</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>226</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>227</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>228</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>229</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>230</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>231</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="N11" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" t="s">
         <v>222</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>223</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>224</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>225</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>226</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>227</v>
       </c>
-      <c r="H12" t="s">
-        <v>228</v>
-      </c>
       <c r="I12" t="s">
+        <v>234</v>
+      </c>
+      <c r="J12" t="s">
         <v>235</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>236</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>237</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>238</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>239</v>
       </c>
-      <c r="N12" t="s">
-        <v>240</v>
-      </c>
       <c r="O12" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="P12" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" t="s">
         <v>222</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>223</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>224</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>225</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>226</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>227</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>228</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>229</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>230</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>231</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="N13" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" t="s">
         <v>222</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>223</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>224</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>225</v>
       </c>
-      <c r="F14" t="s">
-        <v>226</v>
-      </c>
       <c r="G14" t="s">
+        <v>240</v>
+      </c>
+      <c r="H14" t="s">
         <v>241</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
+        <v>228</v>
+      </c>
+      <c r="J14" t="s">
         <v>242</v>
       </c>
-      <c r="I14" t="s">
-        <v>229</v>
-      </c>
-      <c r="J14" t="s">
-        <v>243</v>
-      </c>
       <c r="K14" t="s">
+        <v>230</v>
+      </c>
+      <c r="L14" t="s">
         <v>231</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="N14" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" t="s">
         <v>222</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>223</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>224</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>225</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>226</v>
       </c>
-      <c r="G15" t="s">
-        <v>227</v>
-      </c>
       <c r="H15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I15" t="s">
+        <v>230</v>
+      </c>
+      <c r="J15" t="s">
         <v>231</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="L15" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" t="s">
         <v>222</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>223</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>224</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>225</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>226</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>227</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>228</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>229</v>
       </c>
-      <c r="J16" t="s">
-        <v>230</v>
-      </c>
       <c r="K16" t="s">
+        <v>238</v>
+      </c>
+      <c r="L16" t="s">
         <v>239</v>
       </c>
-      <c r="L16" t="s">
-        <v>240</v>
-      </c>
       <c r="M16" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="N16" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" t="s">
         <v>222</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>223</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>224</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>225</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>226</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>227</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>228</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>229</v>
       </c>
-      <c r="J17" t="s">
-        <v>230</v>
-      </c>
       <c r="K17" t="s">
+        <v>238</v>
+      </c>
+      <c r="L17" t="s">
         <v>239</v>
       </c>
-      <c r="L17" t="s">
-        <v>240</v>
-      </c>
       <c r="M17" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="N17" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>245</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="E19" t="s">
         <v>248</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>249</v>
-      </c>
-      <c r="F19" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="E20" t="s">
         <v>248</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>249</v>
-      </c>
-      <c r="F20" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D21" t="s">
+        <v>250</v>
+      </c>
+      <c r="E21" t="s">
         <v>251</v>
-      </c>
-      <c r="E21" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B22" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22" t="s">
         <v>253</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>254</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>255</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>235</v>
+      </c>
+      <c r="G22" t="s">
         <v>256</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
+        <v>234</v>
+      </c>
+      <c r="I22" t="s">
         <v>236</v>
       </c>
-      <c r="G22" t="s">
+      <c r="J22" t="s">
         <v>257</v>
       </c>
-      <c r="H22" t="s">
-        <v>235</v>
-      </c>
-      <c r="I22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>258</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>259</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>260</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>261</v>
-      </c>
-      <c r="N22" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B24" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" t="s">
         <v>222</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>223</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>224</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>225</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>226</v>
       </c>
-      <c r="G24" t="s">
-        <v>227</v>
-      </c>
       <c r="H24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J24" t="s">
+        <v>230</v>
+      </c>
+      <c r="K24" t="s">
         <v>231</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="L24" s="8" t="s">
+      <c r="M24" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B27" t="s">
+        <v>265</v>
+      </c>
+      <c r="C27" t="s">
         <v>266</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>267</v>
-      </c>
-      <c r="D27" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3939,8 +3944,8 @@
   </sheetPr>
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3951,36 +3956,36 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>273</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -3989,980 +3994,980 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>28</v>
+        <v>470</v>
       </c>
       <c r="B12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E47" t="s">
+        <v>274</v>
+      </c>
+      <c r="F47" t="s">
         <v>275</v>
       </c>
-      <c r="F47" t="s">
-        <v>276</v>
-      </c>
       <c r="G47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B48" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C48" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D48" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E48" t="s">
+        <v>274</v>
+      </c>
+      <c r="F48" t="s">
         <v>275</v>
       </c>
-      <c r="F48" t="s">
-        <v>276</v>
-      </c>
       <c r="G48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P48" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q48" s="8"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B49" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C49" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D49" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E49" t="s">
+        <v>274</v>
+      </c>
+      <c r="F49" t="s">
         <v>275</v>
       </c>
-      <c r="F49" t="s">
-        <v>276</v>
-      </c>
       <c r="G49" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H49" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I49" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J49" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K49" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L49" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B50" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C50" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D50" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E50" t="s">
+        <v>274</v>
+      </c>
+      <c r="F50" t="s">
         <v>275</v>
       </c>
-      <c r="F50" t="s">
-        <v>276</v>
-      </c>
       <c r="G50" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H50" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I50" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J50" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K50" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L50" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B51" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C51" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D51" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E51" t="s">
+        <v>274</v>
+      </c>
+      <c r="F51" t="s">
         <v>275</v>
       </c>
-      <c r="F51" t="s">
-        <v>276</v>
-      </c>
       <c r="G51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B52" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C52" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D52" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E52" t="s">
+        <v>274</v>
+      </c>
+      <c r="F52" t="s">
         <v>275</v>
       </c>
-      <c r="F52" t="s">
-        <v>276</v>
-      </c>
       <c r="G52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E53" t="s">
+        <v>274</v>
+      </c>
+      <c r="F53" t="s">
         <v>275</v>
       </c>
-      <c r="F53" t="s">
-        <v>276</v>
-      </c>
       <c r="G53" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H53" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I53" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J53" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K53" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L53" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B54" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E54" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F54" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B55" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E55" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F55" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C56" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D56" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B57" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C57" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D57" t="s">
+        <v>274</v>
+      </c>
+      <c r="E57" t="s">
+        <v>274</v>
+      </c>
+      <c r="F57" t="s">
+        <v>274</v>
+      </c>
+      <c r="G57" t="s">
+        <v>274</v>
+      </c>
+      <c r="H57" t="s">
+        <v>274</v>
+      </c>
+      <c r="I57" t="s">
+        <v>274</v>
+      </c>
+      <c r="J57" t="s">
+        <v>274</v>
+      </c>
+      <c r="K57" t="s">
+        <v>274</v>
+      </c>
+      <c r="L57" t="s">
         <v>275</v>
       </c>
-      <c r="E57" t="s">
-        <v>275</v>
-      </c>
-      <c r="F57" t="s">
-        <v>275</v>
-      </c>
-      <c r="G57" t="s">
-        <v>275</v>
-      </c>
-      <c r="H57" t="s">
-        <v>275</v>
-      </c>
-      <c r="I57" t="s">
-        <v>275</v>
-      </c>
-      <c r="J57" t="s">
-        <v>275</v>
-      </c>
-      <c r="K57" t="s">
-        <v>275</v>
-      </c>
-      <c r="L57" t="s">
-        <v>276</v>
-      </c>
       <c r="M57" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N57" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B58" t="s">
+        <v>274</v>
+      </c>
+      <c r="C58" t="s">
         <v>275</v>
       </c>
-      <c r="C58" t="s">
-        <v>276</v>
-      </c>
       <c r="D58" t="s">
+        <v>274</v>
+      </c>
+      <c r="E58" t="s">
         <v>275</v>
-      </c>
-      <c r="E58" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B59" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B60" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C60" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D60" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E60" t="s">
+        <v>274</v>
+      </c>
+      <c r="F60" t="s">
         <v>275</v>
       </c>
-      <c r="F60" t="s">
-        <v>276</v>
-      </c>
       <c r="G60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B61" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C61" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B62" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C62" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D62" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E62" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B63" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C63" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D63" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -4978,8 +4983,8 @@
   </sheetPr>
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4990,772 +4995,772 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>283</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E3" t="s">
         <v>285</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>285</v>
-      </c>
-      <c r="D3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F3" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E4" t="s">
         <v>287</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>288</v>
       </c>
-      <c r="F4" t="s">
-        <v>289</v>
-      </c>
       <c r="G4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>28</v>
+        <v>470</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G30" t="s">
+        <v>296</v>
+      </c>
+      <c r="H30" t="s">
         <v>297</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
+        <v>291</v>
+      </c>
+      <c r="J30" t="s">
+        <v>291</v>
+      </c>
+      <c r="K30" t="s">
         <v>298</v>
       </c>
-      <c r="I30" t="s">
-        <v>292</v>
-      </c>
-      <c r="J30" t="s">
-        <v>292</v>
-      </c>
-      <c r="K30" t="s">
-        <v>299</v>
-      </c>
       <c r="L30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
+        <v>277</v>
+      </c>
+      <c r="C31" t="s">
+        <v>277</v>
+      </c>
+      <c r="D31" t="s">
+        <v>277</v>
+      </c>
+      <c r="E31" t="s">
+        <v>277</v>
+      </c>
+      <c r="F31" t="s">
+        <v>277</v>
+      </c>
+      <c r="G31" t="s">
+        <v>296</v>
+      </c>
+      <c r="H31" t="s">
+        <v>297</v>
+      </c>
+      <c r="I31" t="s">
+        <v>291</v>
+      </c>
+      <c r="J31" t="s">
+        <v>291</v>
+      </c>
+      <c r="K31" t="s">
+        <v>291</v>
+      </c>
+      <c r="L31" t="s">
+        <v>291</v>
+      </c>
+      <c r="M31" t="s">
         <v>278</v>
       </c>
-      <c r="C31" t="s">
+      <c r="N31" t="s">
         <v>278</v>
       </c>
-      <c r="D31" t="s">
-        <v>278</v>
-      </c>
-      <c r="E31" t="s">
-        <v>278</v>
-      </c>
-      <c r="F31" t="s">
-        <v>278</v>
-      </c>
-      <c r="G31" t="s">
-        <v>297</v>
-      </c>
-      <c r="H31" t="s">
-        <v>298</v>
-      </c>
-      <c r="I31" t="s">
-        <v>292</v>
-      </c>
-      <c r="J31" t="s">
-        <v>292</v>
-      </c>
-      <c r="K31" t="s">
-        <v>292</v>
-      </c>
-      <c r="L31" t="s">
-        <v>292</v>
-      </c>
-      <c r="M31" t="s">
-        <v>279</v>
-      </c>
-      <c r="N31" t="s">
-        <v>279</v>
-      </c>
       <c r="O31" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q31" s="8"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G32" t="s">
+        <v>296</v>
+      </c>
+      <c r="H32" t="s">
         <v>297</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
+        <v>291</v>
+      </c>
+      <c r="J32" t="s">
+        <v>291</v>
+      </c>
+      <c r="K32" t="s">
         <v>298</v>
       </c>
-      <c r="I32" t="s">
-        <v>292</v>
-      </c>
-      <c r="J32" t="s">
-        <v>292</v>
-      </c>
-      <c r="K32" t="s">
-        <v>299</v>
-      </c>
       <c r="L32" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B35" t="s">
+        <v>277</v>
+      </c>
+      <c r="C35" t="s">
+        <v>277</v>
+      </c>
+      <c r="D35" t="s">
+        <v>277</v>
+      </c>
+      <c r="E35" t="s">
+        <v>277</v>
+      </c>
+      <c r="F35" t="s">
+        <v>277</v>
+      </c>
+      <c r="G35" t="s">
+        <v>296</v>
+      </c>
+      <c r="H35" t="s">
+        <v>297</v>
+      </c>
+      <c r="I35" t="s">
+        <v>291</v>
+      </c>
+      <c r="J35" t="s">
+        <v>291</v>
+      </c>
+      <c r="K35" t="s">
         <v>278</v>
       </c>
-      <c r="C35" t="s">
+      <c r="L35" t="s">
         <v>278</v>
       </c>
-      <c r="D35" t="s">
-        <v>278</v>
-      </c>
-      <c r="E35" t="s">
-        <v>278</v>
-      </c>
-      <c r="F35" t="s">
-        <v>278</v>
-      </c>
-      <c r="G35" t="s">
-        <v>297</v>
-      </c>
-      <c r="H35" t="s">
-        <v>298</v>
-      </c>
-      <c r="I35" t="s">
-        <v>292</v>
-      </c>
-      <c r="J35" t="s">
-        <v>292</v>
-      </c>
-      <c r="K35" t="s">
-        <v>279</v>
-      </c>
-      <c r="L35" t="s">
-        <v>279</v>
-      </c>
       <c r="M35" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B36" t="s">
+        <v>277</v>
+      </c>
+      <c r="C36" t="s">
+        <v>277</v>
+      </c>
+      <c r="D36" t="s">
+        <v>277</v>
+      </c>
+      <c r="E36" t="s">
+        <v>277</v>
+      </c>
+      <c r="F36" t="s">
+        <v>277</v>
+      </c>
+      <c r="G36" t="s">
+        <v>296</v>
+      </c>
+      <c r="H36" t="s">
+        <v>297</v>
+      </c>
+      <c r="I36" t="s">
+        <v>291</v>
+      </c>
+      <c r="J36" t="s">
+        <v>291</v>
+      </c>
+      <c r="K36" t="s">
         <v>278</v>
       </c>
-      <c r="C36" t="s">
+      <c r="L36" t="s">
         <v>278</v>
       </c>
-      <c r="D36" t="s">
-        <v>278</v>
-      </c>
-      <c r="E36" t="s">
-        <v>278</v>
-      </c>
-      <c r="F36" t="s">
-        <v>278</v>
-      </c>
-      <c r="G36" t="s">
-        <v>297</v>
-      </c>
-      <c r="H36" t="s">
-        <v>298</v>
-      </c>
-      <c r="I36" t="s">
-        <v>292</v>
-      </c>
-      <c r="J36" t="s">
-        <v>292</v>
-      </c>
-      <c r="K36" t="s">
-        <v>279</v>
-      </c>
-      <c r="L36" t="s">
-        <v>279</v>
-      </c>
       <c r="M36" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B37" t="s">
+        <v>296</v>
+      </c>
+      <c r="C37" t="s">
         <v>297</v>
-      </c>
-      <c r="C37" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B38" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D38" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E38" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B39" t="s">
+        <v>277</v>
+      </c>
+      <c r="C39" t="s">
+        <v>277</v>
+      </c>
+      <c r="D39" t="s">
+        <v>291</v>
+      </c>
+      <c r="E39" t="s">
+        <v>291</v>
+      </c>
+      <c r="F39" t="s">
+        <v>291</v>
+      </c>
+      <c r="G39" t="s">
+        <v>291</v>
+      </c>
+      <c r="H39" t="s">
+        <v>291</v>
+      </c>
+      <c r="I39" t="s">
+        <v>291</v>
+      </c>
+      <c r="J39" t="s">
+        <v>291</v>
+      </c>
+      <c r="K39" t="s">
         <v>278</v>
       </c>
-      <c r="C39" t="s">
-        <v>278</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="L39" t="s">
+        <v>277</v>
+      </c>
+      <c r="M39" t="s">
         <v>292</v>
       </c>
-      <c r="E39" t="s">
-        <v>292</v>
-      </c>
-      <c r="F39" t="s">
-        <v>292</v>
-      </c>
-      <c r="G39" t="s">
-        <v>292</v>
-      </c>
-      <c r="H39" t="s">
-        <v>292</v>
-      </c>
-      <c r="I39" t="s">
-        <v>292</v>
-      </c>
-      <c r="J39" t="s">
-        <v>292</v>
-      </c>
-      <c r="K39" t="s">
-        <v>279</v>
-      </c>
-      <c r="L39" t="s">
-        <v>278</v>
-      </c>
-      <c r="M39" t="s">
-        <v>293</v>
-      </c>
       <c r="N39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D40" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H41" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I41" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B43" t="s">
+        <v>277</v>
+      </c>
+      <c r="C43" t="s">
+        <v>277</v>
+      </c>
+      <c r="D43" t="s">
+        <v>291</v>
+      </c>
+      <c r="E43" t="s">
         <v>278</v>
-      </c>
-      <c r="C43" t="s">
-        <v>278</v>
-      </c>
-      <c r="D43" t="s">
-        <v>292</v>
-      </c>
-      <c r="E43" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C44" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D44" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -5795,998 +5800,998 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>307</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C21" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B23" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C23" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C26" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D26" t="s">
         <v>332</v>
-      </c>
-      <c r="D26" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="H27" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="H28" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D29" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>340</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C30" t="s">
+        <v>331</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="E30" t="s">
         <v>332</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="F30" t="s">
         <v>342</v>
       </c>
-      <c r="E30" t="s">
-        <v>333</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>343</v>
-      </c>
-      <c r="G30" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C31" t="s">
+        <v>344</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="E31" t="s">
         <v>346</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>347</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>348</v>
-      </c>
-      <c r="G31" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D32" t="s">
+        <v>349</v>
+      </c>
+      <c r="E32" t="s">
         <v>350</v>
-      </c>
-      <c r="E32" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C33" t="s">
+        <v>351</v>
+      </c>
+      <c r="D33" t="s">
         <v>352</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>353</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>354</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>355</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>356</v>
-      </c>
-      <c r="H33" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C34" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="E34" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="F34" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="G34" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="H34" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="I34" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="J34" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="J34" s="12" t="s">
+      <c r="K34" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="L34" s="12" t="s">
         <v>365</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C35" t="s">
+        <v>366</v>
+      </c>
+      <c r="D35" t="s">
         <v>367</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>368</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>369</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>370</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>371</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>372</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>373</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>374</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="L35" s="14" t="s">
+      <c r="M35" t="s">
         <v>376</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="N35" s="14" t="s">
+      <c r="O35" s="8" t="s">
         <v>378</v>
-      </c>
-      <c r="O35" s="8" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C36" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="E36" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="F36" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="G36" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="H36" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="I36" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="I36" s="8" t="s">
-        <v>373</v>
-      </c>
       <c r="J36" t="s">
+        <v>379</v>
+      </c>
+      <c r="K36" t="s">
         <v>380</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>381</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="M36" s="8" t="s">
+      <c r="N36" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="N36" s="14" t="s">
+      <c r="O36" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="O36" s="14" t="s">
+      <c r="P36" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="P36" s="8" t="s">
-        <v>386</v>
-      </c>
       <c r="Q36" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C37" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="E37" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="F37" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="G37" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="H37" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="I37" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="J37" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="K37" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="K37" s="8" t="s">
+      <c r="L37" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="L37" s="14" t="s">
+      <c r="M37" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="M37" s="8" t="s">
+      <c r="N37" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="N37" s="14" t="s">
+      <c r="O37" s="8" t="s">
         <v>378</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>379</v>
       </c>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C38" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="E38" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="F38" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="G38" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="G38" s="8" t="s">
-        <v>371</v>
-      </c>
       <c r="H38" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="I38" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="J38" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="K38" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="J38" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>389</v>
-      </c>
       <c r="L38" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="M38" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="M38" s="8" t="s">
+      <c r="N38" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="N38" s="14" t="s">
+      <c r="O38" s="8" t="s">
         <v>378</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C39" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="E39" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="F39" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="G39" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="H39" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="H39" s="8" t="s">
-        <v>372</v>
-      </c>
       <c r="I39" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J39" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="K39" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="K39" s="8" t="s">
+      <c r="L39" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="L39" s="14" t="s">
+      <c r="M39" s="8" t="s">
         <v>378</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C40" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="E40" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="F40" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="G40" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="H40" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="I40" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="I40" s="8" t="s">
+      <c r="J40" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="J40" s="8" t="s">
+      <c r="K40" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="K40" s="8" t="s">
-        <v>375</v>
-      </c>
       <c r="L40" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="M40" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="M40" s="14" t="s">
+      <c r="N40" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="N40" s="8" t="s">
-        <v>386</v>
-      </c>
       <c r="O40" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C41" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="E41" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="F41" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="G41" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="H41" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="I41" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="I41" s="8" t="s">
+      <c r="J41" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="J41" s="8" t="s">
+      <c r="K41" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="K41" s="8" t="s">
-        <v>375</v>
-      </c>
       <c r="L41" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="M41" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="M41" s="14" t="s">
+      <c r="N41" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="N41" s="8" t="s">
-        <v>386</v>
-      </c>
       <c r="O41" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C42" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="E42" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="F42" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="G42" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="H42" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="H42" s="8" t="s">
-        <v>372</v>
-      </c>
       <c r="I42" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K42" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="L42" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="L42" s="8" t="s">
+      <c r="M42" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="M42" s="14" t="s">
+      <c r="N42" s="8" t="s">
         <v>378</v>
-      </c>
-      <c r="N42" s="8" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C43" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C44" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C45" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D46" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C47" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C49" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="E49" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="F49" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="G49" s="8" t="s">
         <v>400</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D50" t="s">
+        <v>401</v>
+      </c>
+      <c r="E50" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="F50" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="G50" s="8" t="s">
         <v>404</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -6814,81 +6819,81 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>410</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C2" t="s">
         <v>412</v>
-      </c>
-      <c r="C2" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C3" t="s">
         <v>414</v>
-      </c>
-      <c r="C3" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C4" t="s">
         <v>416</v>
-      </c>
-      <c r="C4" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C5" t="s">
         <v>418</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>419</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>420</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>421</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>422</v>
-      </c>
-      <c r="G5" t="s">
-        <v>423</v>
       </c>
     </row>
   </sheetData>

--- a/dds/moorings.xlsx
+++ b/dds/moorings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="419" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="419" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ROOT!$A$1:$H$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Tables!$A$1:$Q$50</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="482">
   <si>
     <t>Identifier</t>
   </si>
@@ -259,12 +260,6 @@
     <t>device.system_roughness</t>
   </si>
   <si>
-    <t>System Roughness</t>
-  </si>
-  <si>
-    <t>Skin surface roughness of the device</t>
-  </si>
-  <si>
     <t>device.wet_beam_area</t>
   </si>
   <si>
@@ -982,27 +977,6 @@
     <t>soil_sensitivity</t>
   </si>
   <si>
-    <t>system_displaced_volume</t>
-  </si>
-  <si>
-    <t>sys_height</t>
-  </si>
-  <si>
-    <t>sys_length</t>
-  </si>
-  <si>
-    <t>system_mass</t>
-  </si>
-  <si>
-    <t>sys_width</t>
-  </si>
-  <si>
-    <t>system_profile</t>
-  </si>
-  <si>
-    <t>device_surface_roughness</t>
-  </si>
-  <si>
     <t>wind_gust_direction</t>
   </si>
   <si>
@@ -1204,12 +1178,6 @@
     <t>minimum_bend_radius</t>
   </si>
   <si>
-    <t>system_centre_of_gravity</t>
-  </si>
-  <si>
-    <t>fairlead_location</t>
-  </si>
-  <si>
     <t>maximum_displacement</t>
   </si>
   <si>
@@ -1339,9 +1307,6 @@
     <t>Characteristics</t>
   </si>
   <si>
-    <t>filter.device</t>
-  </si>
-  <si>
     <t>reference.ref_line_bcf</t>
   </si>
   <si>
@@ -1481,19 +1446,59 @@
   </si>
   <si>
     <t>project.moorings_dimensions</t>
+  </si>
+  <si>
+    <t>filter.device_floating</t>
+  </si>
+  <si>
+    <t>filter.device_shared</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>displaced_volume</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>surface_roughness</t>
+  </si>
+  <si>
+    <t>centre_of_gravity</t>
+  </si>
+  <si>
+    <t>fairlead_locations</t>
+  </si>
+  <si>
+    <t>System Surface Roughness</t>
+  </si>
+  <si>
+    <t>Skin surface roughness of the device (Ra)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1621,28 +1626,28 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1655,13 +1660,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
@@ -2018,9 +2024,9 @@
   </sheetPr>
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A54" sqref="A54"/>
+      <selection pane="topRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2050,10 +2056,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -2064,161 +2070,161 @@
     </row>
     <row r="2" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>149</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>6</v>
@@ -2236,7 +2242,7 @@
     </row>
     <row r="14" spans="1:8" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>9</v>
@@ -2250,7 +2256,7 @@
     </row>
     <row r="15" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>9</v>
@@ -2264,7 +2270,7 @@
     </row>
     <row r="16" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>9</v>
@@ -2278,7 +2284,7 @@
     </row>
     <row r="17" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>9</v>
@@ -2292,7 +2298,7 @@
     </row>
     <row r="18" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>9</v>
@@ -2310,7 +2316,7 @@
     </row>
     <row r="19" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>9</v>
@@ -2324,7 +2330,7 @@
     </row>
     <row r="20" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>9</v>
@@ -2338,7 +2344,7 @@
     </row>
     <row r="21" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>26</v>
@@ -2514,7 +2520,7 @@
         <v>65</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G31" s="16" t="s">
         <v>33</v>
@@ -2531,7 +2537,7 @@
         <v>67</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
@@ -2571,7 +2577,7 @@
         <v>73</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="G34" s="16" t="s">
         <v>33</v>
@@ -2584,11 +2590,11 @@
       <c r="B35" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>76</v>
+      <c r="C35" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>481</v>
       </c>
       <c r="G35" s="16" t="s">
         <v>33</v>
@@ -2596,16 +2602,16 @@
     </row>
     <row r="36" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="G36" s="16" t="s">
         <v>33</v>
@@ -2613,36 +2619,36 @@
     </row>
     <row r="37" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>33</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>33</v>
@@ -2650,16 +2656,16 @@
     </row>
     <row r="39" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G39" s="16" t="s">
         <v>33</v>
@@ -2667,189 +2673,189 @@
     </row>
     <row r="40" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B42" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H42" s="16"/>
     </row>
     <row r="43" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H43" s="16"/>
     </row>
     <row r="44" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H44" s="16"/>
     </row>
     <row r="45" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
       <c r="G45" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H45" s="16"/>
     </row>
     <row r="46" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B46" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
       <c r="G46" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H46" s="16"/>
     </row>
     <row r="47" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B47" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B48" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B49" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="B50" s="16" t="s">
         <v>24</v>
@@ -2858,21 +2864,21 @@
         <v>25</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
@@ -2881,16 +2887,16 @@
     </row>
     <row r="52" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
@@ -2899,16 +2905,16 @@
     </row>
     <row r="53" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
@@ -2917,13 +2923,13 @@
     </row>
     <row r="54" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="21" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>29</v>
@@ -2931,7 +2937,7 @@
     </row>
     <row r="55" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="15" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>24</v>
@@ -2951,36 +2957,36 @@
     </row>
     <row r="56" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="D56" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -2989,16 +2995,16 @@
     </row>
     <row r="58" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="20" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
@@ -3007,16 +3013,16 @@
     </row>
     <row r="59" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="20" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="B59" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
@@ -3025,16 +3031,16 @@
     </row>
     <row r="60" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="20" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
@@ -3043,16 +3049,16 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -3061,16 +3067,16 @@
     </row>
     <row r="62" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -3079,53 +3085,53 @@
     </row>
     <row r="63" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H64" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -3133,13 +3139,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="20" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>31</v>
@@ -3188,65 +3194,65 @@
   <sheetData>
     <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -3261,674 +3267,674 @@
     </row>
     <row r="4" spans="1:17" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="B4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" t="s">
         <v>187</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>188</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>189</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>190</v>
-      </c>
-      <c r="F4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G4" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" t="s">
         <v>195</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>196</v>
-      </c>
-      <c r="E6" t="s">
-        <v>197</v>
-      </c>
-      <c r="F6" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="B7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" t="s">
         <v>199</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>200</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>201</v>
-      </c>
-      <c r="E7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="B9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" t="s">
         <v>206</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>207</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>208</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>209</v>
-      </c>
-      <c r="F9" t="s">
-        <v>210</v>
-      </c>
-      <c r="G9" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="B10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" t="s">
         <v>212</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>213</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>214</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>215</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>216</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>217</v>
-      </c>
-      <c r="H10" t="s">
-        <v>218</v>
-      </c>
-      <c r="I10" t="s">
-        <v>219</v>
       </c>
       <c r="J10" t="s">
         <v>25</v>
       </c>
       <c r="K10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" t="s">
         <v>221</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>222</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>223</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>224</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>225</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>226</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>227</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>228</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>229</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" t="s">
         <v>221</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>222</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>223</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>224</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>225</v>
       </c>
-      <c r="G12" t="s">
-        <v>226</v>
-      </c>
-      <c r="H12" t="s">
-        <v>227</v>
-      </c>
       <c r="I12" t="s">
+        <v>232</v>
+      </c>
+      <c r="J12" t="s">
+        <v>233</v>
+      </c>
+      <c r="K12" t="s">
         <v>234</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>235</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>236</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
         <v>237</v>
       </c>
-      <c r="M12" t="s">
-        <v>238</v>
-      </c>
-      <c r="N12" t="s">
-        <v>239</v>
-      </c>
       <c r="O12" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" t="s">
         <v>221</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>222</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>223</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>224</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>225</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>226</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>227</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>228</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>229</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" t="s">
         <v>221</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>222</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>223</v>
       </c>
-      <c r="E14" t="s">
-        <v>224</v>
-      </c>
-      <c r="F14" t="s">
-        <v>225</v>
-      </c>
       <c r="G14" t="s">
+        <v>238</v>
+      </c>
+      <c r="H14" t="s">
+        <v>239</v>
+      </c>
+      <c r="I14" t="s">
+        <v>226</v>
+      </c>
+      <c r="J14" t="s">
         <v>240</v>
       </c>
-      <c r="H14" t="s">
-        <v>241</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>228</v>
       </c>
-      <c r="J14" t="s">
-        <v>242</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
+        <v>229</v>
+      </c>
+      <c r="M14" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" t="s">
         <v>221</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>222</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>223</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>224</v>
       </c>
-      <c r="F15" t="s">
-        <v>225</v>
-      </c>
-      <c r="G15" t="s">
-        <v>226</v>
-      </c>
       <c r="H15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I15" t="s">
+        <v>228</v>
+      </c>
+      <c r="J15" t="s">
+        <v>229</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" t="s">
         <v>221</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>222</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>223</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>224</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>225</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>226</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>227</v>
       </c>
-      <c r="I16" t="s">
-        <v>228</v>
-      </c>
-      <c r="J16" t="s">
-        <v>229</v>
-      </c>
       <c r="K16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" t="s">
         <v>221</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>222</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>223</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>224</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>225</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>226</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>227</v>
       </c>
-      <c r="I17" t="s">
-        <v>228</v>
-      </c>
-      <c r="J17" t="s">
-        <v>229</v>
-      </c>
       <c r="K17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E19" t="s">
         <v>246</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="F19" t="s">
         <v>247</v>
-      </c>
-      <c r="E19" t="s">
-        <v>248</v>
-      </c>
-      <c r="F19" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E20" t="s">
         <v>246</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="F20" t="s">
         <v>247</v>
-      </c>
-      <c r="E20" t="s">
-        <v>248</v>
-      </c>
-      <c r="F20" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="B21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="B22" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D22" t="s">
         <v>252</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>253</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
+        <v>233</v>
+      </c>
+      <c r="G22" t="s">
         <v>254</v>
       </c>
-      <c r="E22" t="s">
+      <c r="H22" t="s">
+        <v>232</v>
+      </c>
+      <c r="I22" t="s">
+        <v>234</v>
+      </c>
+      <c r="J22" t="s">
         <v>255</v>
       </c>
-      <c r="F22" t="s">
-        <v>235</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="K22" t="s">
         <v>256</v>
       </c>
-      <c r="H22" t="s">
-        <v>234</v>
-      </c>
-      <c r="I22" t="s">
-        <v>236</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>257</v>
       </c>
-      <c r="K22" t="s">
+      <c r="M22" t="s">
         <v>258</v>
       </c>
-      <c r="L22" t="s">
+      <c r="N22" t="s">
         <v>259</v>
-      </c>
-      <c r="M22" t="s">
-        <v>260</v>
-      </c>
-      <c r="N22" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" t="s">
         <v>221</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>222</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>223</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
         <v>224</v>
       </c>
-      <c r="F24" t="s">
-        <v>225</v>
-      </c>
-      <c r="G24" t="s">
-        <v>226</v>
-      </c>
       <c r="H24" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J24" t="s">
+        <v>228</v>
+      </c>
+      <c r="K24" t="s">
+        <v>229</v>
+      </c>
+      <c r="L24" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="K24" t="s">
+      <c r="M24" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="B25" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C25" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="B26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D26" t="s">
+        <v>254</v>
+      </c>
+      <c r="E26" t="s">
         <v>256</v>
-      </c>
-      <c r="E26" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="B27" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" t="s">
+        <v>264</v>
+      </c>
+      <c r="D27" t="s">
         <v>265</v>
-      </c>
-      <c r="C27" t="s">
-        <v>266</v>
-      </c>
-      <c r="D27" t="s">
-        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3944,7 +3950,7 @@
   </sheetPr>
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -3956,36 +3962,36 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -3994,198 +4000,198 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="B3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="B5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="B6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="B7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="B8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="B10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="B11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="B13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -4193,7 +4199,7 @@
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -4201,7 +4207,7 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -4209,15 +4215,15 @@
         <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -4225,7 +4231,7 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -4233,7 +4239,7 @@
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -4241,7 +4247,7 @@
         <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -4249,7 +4255,7 @@
         <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -4257,7 +4263,7 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -4265,7 +4271,7 @@
         <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -4273,7 +4279,7 @@
         <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -4281,7 +4287,7 @@
         <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -4289,7 +4295,7 @@
         <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -4297,677 +4303,677 @@
         <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B28" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="B32" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B34" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B41" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="B42" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="B43" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B45" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B46" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B48" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C48" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D48" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E48" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F48" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G48" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H48" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I48" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J48" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K48" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L48" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M48" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N48" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P48" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q48" s="8"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C49" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D49" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E49" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F49" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G49" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H49" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I49" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J49" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K49" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L49" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B50" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C50" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D50" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E50" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F50" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G50" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H50" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I50" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J50" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K50" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L50" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B51" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C51" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D51" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E51" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F51" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G51" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H51" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I51" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J51" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B52" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C52" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D52" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E52" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F52" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G52" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H52" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I52" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J52" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K52" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L52" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B53" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C53" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D53" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E53" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F53" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G53" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H53" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I53" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J53" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K53" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L53" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B54" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E54" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F54" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B55" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E55" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F55" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="B56" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C56" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D56" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E56" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="B57" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C57" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D57" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E57" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F57" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G57" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H57" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I57" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J57" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K57" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L57" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M57" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N57" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B58" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C58" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D58" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E58" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B59" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B60" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C60" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D60" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E60" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F60" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G60" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H60" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I60" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J60" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K60" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="B61" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C61" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="B62" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C62" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D62" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E62" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="B63" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C63" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D63" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -4983,8 +4989,8 @@
   </sheetPr>
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4995,93 +5001,93 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>281</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="B4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" t="s">
         <v>284</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F4" t="s">
         <v>286</v>
       </c>
-      <c r="E4" t="s">
-        <v>287</v>
-      </c>
-      <c r="F4" t="s">
-        <v>288</v>
-      </c>
       <c r="G4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -5089,7 +5095,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -5097,7 +5103,7 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -5105,13 +5111,13 @@
         <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -5119,7 +5125,7 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -5127,7 +5133,7 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -5135,7 +5141,7 @@
         <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -5143,7 +5149,7 @@
         <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -5151,7 +5157,7 @@
         <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -5159,7 +5165,7 @@
         <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -5167,600 +5173,600 @@
         <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B27" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B29" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B30" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C30" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D30" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E30" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F30" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G30" t="s">
+        <v>294</v>
+      </c>
+      <c r="H30" t="s">
+        <v>295</v>
+      </c>
+      <c r="I30" t="s">
+        <v>289</v>
+      </c>
+      <c r="J30" t="s">
+        <v>289</v>
+      </c>
+      <c r="K30" t="s">
         <v>296</v>
       </c>
-      <c r="H30" t="s">
-        <v>297</v>
-      </c>
-      <c r="I30" t="s">
-        <v>291</v>
-      </c>
-      <c r="J30" t="s">
-        <v>291</v>
-      </c>
-      <c r="K30" t="s">
-        <v>298</v>
-      </c>
       <c r="L30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B31" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C31" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D31" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E31" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F31" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G31" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H31" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I31" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J31" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K31" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L31" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="N31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P31" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q31" s="8"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B32" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C32" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D32" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E32" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F32" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G32" t="s">
+        <v>294</v>
+      </c>
+      <c r="H32" t="s">
+        <v>295</v>
+      </c>
+      <c r="I32" t="s">
+        <v>289</v>
+      </c>
+      <c r="J32" t="s">
+        <v>289</v>
+      </c>
+      <c r="K32" t="s">
         <v>296</v>
       </c>
-      <c r="H32" t="s">
-        <v>297</v>
-      </c>
-      <c r="I32" t="s">
-        <v>291</v>
-      </c>
-      <c r="J32" t="s">
-        <v>291</v>
-      </c>
-      <c r="K32" t="s">
-        <v>298</v>
-      </c>
       <c r="L32" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G33" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H33" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B34" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C34" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D34" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E34" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F34" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G34" t="s">
+        <v>294</v>
+      </c>
+      <c r="H34" t="s">
+        <v>289</v>
+      </c>
+      <c r="I34" t="s">
         <v>296</v>
       </c>
-      <c r="H34" t="s">
-        <v>291</v>
-      </c>
-      <c r="I34" t="s">
-        <v>298</v>
-      </c>
       <c r="J34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B35" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C35" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D35" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E35" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F35" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G35" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H35" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I35" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J35" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K35" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L35" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B36" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C36" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D36" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E36" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F36" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H36" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I36" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J36" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K36" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L36" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B37" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C37" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="B38" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C38" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D38" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E38" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="B39" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C39" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D39" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E39" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F39" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G39" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H39" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I39" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J39" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K39" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L39" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M39" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N39" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B40" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C40" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D40" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E40" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B41" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C41" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D41" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E41" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F41" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G41" t="s">
+        <v>294</v>
+      </c>
+      <c r="H41" t="s">
+        <v>289</v>
+      </c>
+      <c r="I41" t="s">
+        <v>289</v>
+      </c>
+      <c r="J41" t="s">
         <v>296</v>
       </c>
-      <c r="H41" t="s">
-        <v>291</v>
-      </c>
-      <c r="I41" t="s">
-        <v>291</v>
-      </c>
-      <c r="J41" t="s">
-        <v>298</v>
-      </c>
       <c r="K41" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="B42" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C42" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="B43" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C43" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D43" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E43" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="B44" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C44" t="s">
+        <v>288</v>
+      </c>
+      <c r="D44" t="s">
         <v>290</v>
-      </c>
-      <c r="D44" t="s">
-        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -5776,8 +5782,8 @@
   </sheetPr>
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5800,34 +5806,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>305</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -5835,10 +5841,10 @@
         <v>32</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>435</v>
+        <v>471</v>
       </c>
       <c r="C2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -5846,10 +5852,10 @@
         <v>36</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="C3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -5857,32 +5863,32 @@
         <v>39</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="C4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="C5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="C6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -5890,10 +5896,10 @@
         <v>48</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="C7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -5901,900 +5907,908 @@
         <v>55</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>435</v>
+        <v>471</v>
       </c>
       <c r="C8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>468</v>
-      </c>
-      <c r="B9" t="s">
-        <v>454</v>
+      <c r="A9" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>472</v>
       </c>
       <c r="C9" t="s">
-        <v>315</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>61</v>
+      <c r="A10" t="s">
+        <v>64</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="C10" t="s">
-        <v>316</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="C11" t="s">
-        <v>317</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="C12" t="s">
-        <v>318</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="C13" t="s">
-        <v>319</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="C14" t="s">
-        <v>320</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="C15" t="s">
-        <v>321</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>435</v>
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>472</v>
       </c>
       <c r="C16" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" t="s">
-        <v>454</v>
+        <v>42</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>471</v>
       </c>
       <c r="C17" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" t="s">
-        <v>454</v>
+        <v>51</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>471</v>
       </c>
       <c r="C18" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" t="s">
-        <v>454</v>
+        <v>165</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>471</v>
       </c>
       <c r="C19" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>456</v>
       </c>
       <c r="B20" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="C20" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="C21" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="C22" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>455</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="C23" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B24" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="C24" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="C25" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>460</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>436</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="D26" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+      <c r="B26" t="s">
+        <v>442</v>
+      </c>
+      <c r="C26" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>463</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+        <v>443</v>
+      </c>
+      <c r="B27" t="s">
+        <v>442</v>
+      </c>
+      <c r="C27" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>464</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="B28" t="s">
+        <v>442</v>
+      </c>
+      <c r="C28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>461</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+      <c r="B29" t="s">
+        <v>442</v>
+      </c>
+      <c r="C29" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>462</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>440</v>
+        <v>81</v>
+      </c>
+      <c r="B30" t="s">
+        <v>442</v>
       </c>
       <c r="C30" t="s">
-        <v>331</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="E30" t="s">
-        <v>332</v>
-      </c>
-      <c r="F30" t="s">
-        <v>342</v>
-      </c>
-      <c r="G30" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>465</v>
+        <v>150</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="C31" t="s">
-        <v>344</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="E31" t="s">
-        <v>346</v>
-      </c>
-      <c r="F31" t="s">
-        <v>347</v>
-      </c>
-      <c r="G31" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C31" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>466</v>
+        <v>153</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="C32" t="s">
-        <v>344</v>
+        <v>441</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>385</v>
       </c>
       <c r="D32" t="s">
-        <v>349</v>
-      </c>
-      <c r="E32" t="s">
-        <v>350</v>
+        <v>390</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="C33" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="D33" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="E33" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F33" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G33" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="H33" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
-        <v>467</v>
+      <c r="A34" t="s">
+        <v>448</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>365</v>
+        <v>322</v>
+      </c>
+      <c r="D34" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B35" t="s">
-        <v>445</v>
-      </c>
-      <c r="C35" t="s">
-        <v>366</v>
-      </c>
-      <c r="D35" t="s">
-        <v>367</v>
-      </c>
-      <c r="E35" t="s">
-        <v>368</v>
-      </c>
-      <c r="F35" t="s">
-        <v>369</v>
-      </c>
-      <c r="G35" t="s">
-        <v>370</v>
-      </c>
-      <c r="H35" t="s">
-        <v>371</v>
-      </c>
-      <c r="I35" t="s">
-        <v>372</v>
-      </c>
-      <c r="J35" t="s">
-        <v>373</v>
-      </c>
-      <c r="K35" t="s">
-        <v>374</v>
-      </c>
-      <c r="L35" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="M35" t="s">
-        <v>376</v>
-      </c>
-      <c r="N35" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="O35" s="8" t="s">
-        <v>378</v>
+      <c r="A35" t="s">
+        <v>449</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
-        <v>131</v>
+      <c r="A36" t="s">
+        <v>450</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="J36" t="s">
-        <v>379</v>
-      </c>
-      <c r="K36" t="s">
-        <v>380</v>
-      </c>
-      <c r="L36" t="s">
-        <v>381</v>
-      </c>
-      <c r="M36" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="N36" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="O36" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="P36" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q36" s="8" t="s">
-        <v>378</v>
+        <v>428</v>
+      </c>
+      <c r="C36" t="s">
+        <v>322</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="E36" t="s">
+        <v>323</v>
+      </c>
+      <c r="F36" t="s">
+        <v>333</v>
+      </c>
+      <c r="G36" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="L37" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="N37" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
+      <c r="A37" t="s">
+        <v>451</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38" s="8" t="s">
-        <v>137</v>
+      <c r="A38" t="s">
+        <v>452</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="L38" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="N38" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>378</v>
+        <v>426</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>140</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="J39" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="L39" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>378</v>
+        <v>453</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="C39" t="s">
+        <v>335</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E39" t="s">
+        <v>337</v>
+      </c>
+      <c r="F39" t="s">
+        <v>338</v>
+      </c>
+      <c r="G39" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A40" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="L40" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="M40" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="O40" s="8" t="s">
-        <v>378</v>
+      <c r="A40" t="s">
+        <v>454</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="C40" t="s">
+        <v>335</v>
+      </c>
+      <c r="D40" t="s">
+        <v>340</v>
+      </c>
+      <c r="E40" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A41" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="L41" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="M41" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="O41" s="8" t="s">
-        <v>378</v>
+      <c r="A41" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="L41" s="13" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>452</v>
+        <v>129</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>434</v>
       </c>
       <c r="C42" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="J42" t="s">
+        <v>370</v>
+      </c>
+      <c r="K42" t="s">
+        <v>371</v>
+      </c>
+      <c r="L42" t="s">
+        <v>372</v>
+      </c>
+      <c r="M42" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="P42" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q42" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A43" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="K43" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="L43" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="M43" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="N43" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="O43" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="G42" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="K42" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="M42" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="N42" s="8" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" t="s">
-        <v>435</v>
-      </c>
-      <c r="C43" t="s">
-        <v>390</v>
-      </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>435</v>
+      <c r="A44" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" t="s">
+        <v>433</v>
       </c>
       <c r="C44" t="s">
-        <v>391</v>
+        <v>357</v>
+      </c>
+      <c r="D44" t="s">
+        <v>358</v>
+      </c>
+      <c r="E44" t="s">
+        <v>359</v>
+      </c>
+      <c r="F44" t="s">
+        <v>360</v>
+      </c>
+      <c r="G44" t="s">
+        <v>361</v>
+      </c>
+      <c r="H44" t="s">
+        <v>362</v>
+      </c>
+      <c r="I44" t="s">
+        <v>363</v>
+      </c>
+      <c r="J44" t="s">
+        <v>364</v>
+      </c>
+      <c r="K44" t="s">
+        <v>365</v>
+      </c>
+      <c r="L44" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="M44" t="s">
+        <v>367</v>
+      </c>
+      <c r="N44" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="O44" s="14" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>51</v>
+      <c r="A45" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="C45" t="s">
-        <v>392</v>
-      </c>
+      <c r="C45" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="J45" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="K45" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="L45" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="M45" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="N45" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="O45" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="C46" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="J46" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="D46" t="s">
-        <v>393</v>
+      <c r="K46" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="L46" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="M46" s="14" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="C47" t="s">
-        <v>394</v>
+        <v>437</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="D47" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" t="s">
-        <v>454</v>
-      </c>
-      <c r="C48" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>152</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>453</v>
+      <c r="A48" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="K48" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="L48" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="M48" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="N48" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="O48" s="14" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A49" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>439</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>155</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>453</v>
+        <v>361</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="J49" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="K49" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="L49" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="M49" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="N49" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="O49" s="14" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A50" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>440</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="D50" t="s">
-        <v>401</v>
+        <v>357</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>358</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>402</v>
+        <v>359</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>403</v>
+        <v>360</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>404</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="K50" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="M50" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="N50" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q50">
+    <sortState ref="A2:Q50">
+      <sortCondition ref="B1:B50"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -6819,36 +6833,36 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="C2" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -6856,10 +6870,10 @@
         <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="C3" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -6867,10 +6881,10 @@
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="C4" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -6878,22 +6892,22 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="C5" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="D5" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="E5" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="F5" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="G5" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>

--- a/dds/moorings.xlsx
+++ b/dds/moorings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="419" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="419" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="472">
   <si>
     <t>Identifier</t>
   </si>
@@ -611,15 +611,6 @@
     <t>Friction Angle Sand-Pile</t>
   </si>
   <si>
-    <t>Maximum Bearing Capacity Factor</t>
-  </si>
-  <si>
-    <t>Maximum Unit Skin Friction</t>
-  </si>
-  <si>
-    <t>Maximum End Bearing Capacity</t>
-  </si>
-  <si>
     <t>Allowable Deflection / Diameter</t>
   </si>
   <si>
@@ -695,9 +686,6 @@
     <t>Material</t>
   </si>
   <si>
-    <t>Minimum Break Load</t>
-  </si>
-  <si>
     <t>Axial Stiffness</t>
   </si>
   <si>
@@ -749,9 +737,6 @@
     <t>Extension</t>
   </si>
   <si>
-    <t>% of Minimum Breaking Load</t>
-  </si>
-  <si>
     <t>Holding Capacity Coefficient 1</t>
   </si>
   <si>
@@ -1151,9 +1136,6 @@
     <t>moor_found_current_profile</t>
   </si>
   <si>
-    <t>fk_component_id</t>
-  </si>
-  <si>
     <t>sand_holding_cap_coef_1</t>
   </si>
   <si>
@@ -1316,9 +1298,6 @@
     <t>reference.view_component_moorings_swivel</t>
   </si>
   <si>
-    <t>reference.component_anchor</t>
-  </si>
-  <si>
     <t>filter.lease_area</t>
   </si>
   <si>
@@ -1455,6 +1434,24 @@
   </si>
   <si>
     <t>Euro/kg</t>
+  </si>
+  <si>
+    <t>reference.view_component_foundations_anchor_coefs</t>
+  </si>
+  <si>
+    <t>Max Bearing Capacity Factor</t>
+  </si>
+  <si>
+    <t>Max Unit Skin Friction</t>
+  </si>
+  <si>
+    <t>Max End Bearing Capacity</t>
+  </si>
+  <si>
+    <t>Min Break Load</t>
+  </si>
+  <si>
+    <t>% of Min Breaking Load</t>
   </si>
 </sst>
 </file>
@@ -2006,8 +2003,8 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:XFD2"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2037,10 +2034,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -2152,7 +2149,7 @@
         <v>147</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>148</v>
@@ -2195,7 +2192,7 @@
     </row>
     <row r="12" spans="1:8" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>6</v>
@@ -2209,7 +2206,7 @@
     </row>
     <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>9</v>
@@ -2223,7 +2220,7 @@
     </row>
     <row r="14" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>9</v>
@@ -2237,7 +2234,7 @@
     </row>
     <row r="15" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>9</v>
@@ -2251,7 +2248,7 @@
     </row>
     <row r="16" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>9</v>
@@ -2269,7 +2266,7 @@
     </row>
     <row r="17" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>9</v>
@@ -2283,7 +2280,7 @@
     </row>
     <row r="18" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>9</v>
@@ -2297,7 +2294,7 @@
     </row>
     <row r="19" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>9</v>
@@ -2311,7 +2308,7 @@
     </row>
     <row r="20" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>26</v>
@@ -2487,7 +2484,7 @@
         <v>65</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -2507,7 +2504,7 @@
         <v>67</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G31" s="15" t="s">
         <v>33</v>
@@ -2544,7 +2541,7 @@
         <v>73</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G33" s="15" t="s">
         <v>33</v>
@@ -2558,10 +2555,10 @@
         <v>24</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G34" s="15" t="s">
         <v>33</v>
@@ -2578,7 +2575,7 @@
         <v>125</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G35" s="15" t="s">
         <v>33</v>
@@ -2657,16 +2654,16 @@
     </row>
     <row r="40" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
@@ -2823,7 +2820,7 @@
     </row>
     <row r="49" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>24</v>
@@ -2832,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -2887,13 +2884,13 @@
     </row>
     <row r="53" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="20" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>29</v>
@@ -2905,7 +2902,7 @@
     </row>
     <row r="54" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="14" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>24</v>
@@ -2925,7 +2922,7 @@
     </row>
     <row r="55" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>159</v>
@@ -2945,7 +2942,7 @@
     </row>
     <row r="56" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>159</v>
@@ -2960,7 +2957,7 @@
     </row>
     <row r="57" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="19" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>28</v>
@@ -2978,7 +2975,7 @@
     </row>
     <row r="58" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="19" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>28</v>
@@ -2996,7 +2993,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="19" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>28</v>
@@ -3014,7 +3011,7 @@
     </row>
     <row r="60" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>159</v>
@@ -3032,13 +3029,13 @@
     </row>
     <row r="61" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>172</v>
@@ -3050,13 +3047,13 @@
     </row>
     <row r="62" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>160</v>
@@ -3067,13 +3064,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>157</v>
@@ -3087,7 +3084,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>159</v>
@@ -3104,13 +3101,13 @@
     </row>
     <row r="65" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="19" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>31</v>
@@ -3138,9 +3135,9 @@
   </sheetPr>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="topRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3200,40 +3197,40 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J2" t="s">
+        <v>470</v>
+      </c>
+      <c r="K2" t="s">
         <v>216</v>
       </c>
-      <c r="C2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H2" t="s">
-        <v>231</v>
-      </c>
-      <c r="I2" t="s">
-        <v>232</v>
-      </c>
-      <c r="J2" t="s">
-        <v>219</v>
-      </c>
-      <c r="K2" t="s">
-        <v>220</v>
-      </c>
       <c r="L2" s="13" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q2" s="6"/>
     </row>
@@ -3242,19 +3239,19 @@
         <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -3262,19 +3259,19 @@
         <v>153</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
@@ -3282,34 +3279,34 @@
         <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" t="s">
         <v>217</v>
       </c>
-      <c r="D5" t="s">
-        <v>221</v>
-      </c>
       <c r="E5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
@@ -3317,34 +3314,34 @@
         <v>126</v>
       </c>
       <c r="B6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H6" t="s">
+        <v>470</v>
+      </c>
+      <c r="I6" t="s">
         <v>216</v>
       </c>
-      <c r="C6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="J6" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>222</v>
-      </c>
-      <c r="F6" t="s">
-        <v>223</v>
-      </c>
-      <c r="G6" t="s">
-        <v>224</v>
-      </c>
-      <c r="H6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I6" t="s">
-        <v>220</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
@@ -3352,34 +3349,34 @@
         <v>132</v>
       </c>
       <c r="B7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H7" t="s">
+        <v>470</v>
+      </c>
+      <c r="I7" t="s">
         <v>216</v>
       </c>
-      <c r="C7" t="s">
-        <v>217</v>
-      </c>
-      <c r="D7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="J7" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="K7" s="13" t="s">
         <v>222</v>
-      </c>
-      <c r="F7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H7" t="s">
-        <v>219</v>
-      </c>
-      <c r="I7" t="s">
-        <v>220</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
@@ -3387,31 +3384,31 @@
         <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" t="s">
         <v>217</v>
       </c>
-      <c r="D8" t="s">
-        <v>221</v>
-      </c>
       <c r="E8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H8" t="s">
-        <v>219</v>
+        <v>470</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
@@ -3419,13 +3416,13 @@
         <v>147</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>237</v>
+        <v>471</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
@@ -3433,34 +3430,34 @@
         <v>141</v>
       </c>
       <c r="B10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H10" t="s">
+        <v>470</v>
+      </c>
+      <c r="I10" t="s">
         <v>216</v>
       </c>
-      <c r="C10" t="s">
-        <v>217</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="J10" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="E10" t="s">
+      <c r="K10" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="F10" t="s">
-        <v>231</v>
-      </c>
-      <c r="G10" t="s">
-        <v>232</v>
-      </c>
-      <c r="H10" t="s">
-        <v>219</v>
-      </c>
-      <c r="I10" t="s">
-        <v>220</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
@@ -3468,39 +3465,39 @@
         <v>144</v>
       </c>
       <c r="B11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G11" t="s">
+        <v>228</v>
+      </c>
+      <c r="H11" t="s">
+        <v>470</v>
+      </c>
+      <c r="I11" t="s">
         <v>216</v>
       </c>
-      <c r="C11" t="s">
-        <v>217</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="J11" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="E11" t="s">
+      <c r="K11" s="13" t="s">
         <v>222</v>
-      </c>
-      <c r="F11" t="s">
-        <v>231</v>
-      </c>
-      <c r="G11" t="s">
-        <v>232</v>
-      </c>
-      <c r="H11" t="s">
-        <v>219</v>
-      </c>
-      <c r="I11" t="s">
-        <v>220</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B12" t="s">
         <v>180</v>
@@ -3511,7 +3508,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>182</v>
@@ -3543,7 +3540,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B14" t="s">
         <v>182</v>
@@ -3566,7 +3563,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B15" t="s">
         <v>182</v>
@@ -3580,7 +3577,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B16" t="s">
         <v>180</v>
@@ -3589,225 +3586,225 @@
         <v>190</v>
       </c>
       <c r="D16" t="s">
-        <v>191</v>
+        <v>467</v>
       </c>
       <c r="E16" t="s">
-        <v>192</v>
+        <v>468</v>
       </c>
       <c r="F16" t="s">
-        <v>193</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" t="s">
         <v>194</v>
       </c>
-      <c r="C17" t="s">
+      <c r="F17" t="s">
         <v>195</v>
-      </c>
-      <c r="D17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E17" t="s">
-        <v>197</v>
-      </c>
-      <c r="F17" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C18" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D18" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19" t="s">
+        <v>200</v>
+      </c>
+      <c r="E19" t="s">
         <v>201</v>
       </c>
-      <c r="C19" t="s">
+      <c r="F19" t="s">
         <v>202</v>
       </c>
-      <c r="D19" t="s">
+      <c r="G19" t="s">
         <v>203</v>
-      </c>
-      <c r="E19" t="s">
-        <v>204</v>
-      </c>
-      <c r="F19" t="s">
-        <v>205</v>
-      </c>
-      <c r="G19" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" t="s">
+        <v>206</v>
+      </c>
+      <c r="E20" t="s">
         <v>207</v>
       </c>
-      <c r="C20" t="s">
+      <c r="F20" t="s">
         <v>208</v>
       </c>
-      <c r="D20" t="s">
+      <c r="G20" t="s">
         <v>209</v>
       </c>
-      <c r="E20" t="s">
+      <c r="H20" t="s">
         <v>210</v>
       </c>
-      <c r="F20" t="s">
+      <c r="I20" t="s">
         <v>211</v>
-      </c>
-      <c r="G20" t="s">
-        <v>212</v>
-      </c>
-      <c r="H20" t="s">
-        <v>213</v>
-      </c>
-      <c r="I20" t="s">
-        <v>214</v>
       </c>
       <c r="J20" t="s">
         <v>25</v>
       </c>
       <c r="K20" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D21" t="s">
+        <v>241</v>
+      </c>
+      <c r="E21" t="s">
+        <v>242</v>
+      </c>
+      <c r="F21" t="s">
+        <v>224</v>
+      </c>
+      <c r="G21" t="s">
+        <v>243</v>
+      </c>
+      <c r="H21" t="s">
+        <v>223</v>
+      </c>
+      <c r="I21" t="s">
+        <v>225</v>
+      </c>
+      <c r="J21" t="s">
         <v>244</v>
       </c>
-      <c r="C21" t="s">
+      <c r="K21" t="s">
         <v>245</v>
       </c>
-      <c r="D21" t="s">
+      <c r="L21" t="s">
         <v>246</v>
       </c>
-      <c r="E21" t="s">
+      <c r="M21" t="s">
         <v>247</v>
       </c>
-      <c r="F21" t="s">
-        <v>228</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="N21" t="s">
         <v>248</v>
-      </c>
-      <c r="H21" t="s">
-        <v>227</v>
-      </c>
-      <c r="I21" t="s">
-        <v>229</v>
-      </c>
-      <c r="J21" t="s">
-        <v>249</v>
-      </c>
-      <c r="K21" t="s">
-        <v>250</v>
-      </c>
-      <c r="L21" t="s">
-        <v>251</v>
-      </c>
-      <c r="M21" t="s">
-        <v>252</v>
-      </c>
-      <c r="N21" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B22" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C22" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D22" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E22" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B23" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C23" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B24" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C24" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D24" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C25" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D25" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E25" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B26" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C26" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D26" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E26" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -3843,22 +3840,22 @@
         <v>173</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>259</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -3866,40 +3863,40 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
@@ -3910,19 +3907,19 @@
         <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
@@ -3930,19 +3927,19 @@
         <v>153</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
@@ -3950,34 +3947,34 @@
         <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
@@ -3987,34 +3984,34 @@
         <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
@@ -4024,34 +4021,34 @@
         <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
@@ -4061,31 +4058,31 @@
         <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D8" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E8" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F8" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H8" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
@@ -4095,34 +4092,34 @@
         <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C9" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
@@ -4132,47 +4129,47 @@
         <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -4195,174 +4192,174 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B12" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C12" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D12" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E12" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F12" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G12" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B13" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C13" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D13" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E13" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F13" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G13" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B14" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C14" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D14" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B15" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C15" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D15" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E15" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F15" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B16" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C16" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D16" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E16" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F16" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B17" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C17" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D17" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B18" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C18" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D18" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E18" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F18" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G18" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B19" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C19" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D19" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E19" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F19" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G19" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H19" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I19" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J19" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K19" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -4370,7 +4367,7 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -4378,7 +4375,7 @@
         <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -4386,7 +4383,7 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -4394,7 +4391,7 @@
         <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -4402,7 +4399,7 @@
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -4410,7 +4407,7 @@
         <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -4418,7 +4415,7 @@
         <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -4426,7 +4423,7 @@
         <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -4434,7 +4431,7 @@
         <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -4442,7 +4439,7 @@
         <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -4450,7 +4447,7 @@
         <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -4458,7 +4455,7 @@
         <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -4466,7 +4463,7 @@
         <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -4474,7 +4471,7 @@
         <v>124</v>
       </c>
       <c r="B33" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -4482,7 +4479,7 @@
         <v>165</v>
       </c>
       <c r="B34" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -4490,7 +4487,7 @@
         <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -4498,7 +4495,7 @@
         <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -4506,15 +4503,15 @@
         <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -4522,7 +4519,7 @@
         <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -4530,7 +4527,7 @@
         <v>90</v>
       </c>
       <c r="B40" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -4538,7 +4535,7 @@
         <v>93</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -4546,7 +4543,7 @@
         <v>96</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -4554,7 +4551,7 @@
         <v>99</v>
       </c>
       <c r="B43" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -4562,7 +4559,7 @@
         <v>102</v>
       </c>
       <c r="B44" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -4570,7 +4567,7 @@
         <v>105</v>
       </c>
       <c r="B45" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -4578,15 +4575,15 @@
         <v>108</v>
       </c>
       <c r="B46" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B47" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -4594,7 +4591,7 @@
         <v>115</v>
       </c>
       <c r="B48" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
@@ -4602,7 +4599,7 @@
         <v>118</v>
       </c>
       <c r="B49" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
@@ -4610,175 +4607,175 @@
         <v>121</v>
       </c>
       <c r="B50" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B51" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B52" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B53" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C53" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D53" t="s">
+        <v>260</v>
+      </c>
+      <c r="E53" t="s">
+        <v>260</v>
+      </c>
+      <c r="F53" t="s">
+        <v>260</v>
+      </c>
+      <c r="G53" t="s">
+        <v>260</v>
+      </c>
+      <c r="H53" t="s">
+        <v>260</v>
+      </c>
+      <c r="I53" t="s">
+        <v>260</v>
+      </c>
+      <c r="J53" t="s">
+        <v>260</v>
+      </c>
+      <c r="K53" t="s">
+        <v>260</v>
+      </c>
+      <c r="L53" t="s">
+        <v>261</v>
+      </c>
+      <c r="M53" t="s">
+        <v>260</v>
+      </c>
+      <c r="N53" t="s">
         <v>265</v>
-      </c>
-      <c r="E53" t="s">
-        <v>265</v>
-      </c>
-      <c r="F53" t="s">
-        <v>265</v>
-      </c>
-      <c r="G53" t="s">
-        <v>265</v>
-      </c>
-      <c r="H53" t="s">
-        <v>265</v>
-      </c>
-      <c r="I53" t="s">
-        <v>265</v>
-      </c>
-      <c r="J53" t="s">
-        <v>265</v>
-      </c>
-      <c r="K53" t="s">
-        <v>265</v>
-      </c>
-      <c r="L53" t="s">
-        <v>266</v>
-      </c>
-      <c r="M53" t="s">
-        <v>265</v>
-      </c>
-      <c r="N53" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B54" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C54" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D54" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E54" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B55" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B56" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B57" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B58" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C58" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B59" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C59" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D59" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B60" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C60" t="s">
+        <v>260</v>
+      </c>
+      <c r="D60" t="s">
+        <v>260</v>
+      </c>
+      <c r="E60" t="s">
         <v>265</v>
-      </c>
-      <c r="D60" t="s">
-        <v>265</v>
-      </c>
-      <c r="E60" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B61" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C61" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D61" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E61" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B62" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4799,7 +4796,7 @@
   </sheetPr>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -4814,16 +4811,16 @@
         <v>173</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -4831,40 +4828,40 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J2" t="s">
+        <v>280</v>
+      </c>
+      <c r="K2" t="s">
         <v>281</v>
       </c>
-      <c r="E2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G2" t="s">
-        <v>281</v>
-      </c>
-      <c r="H2" t="s">
-        <v>269</v>
-      </c>
-      <c r="I2" t="s">
-        <v>269</v>
-      </c>
-      <c r="J2" t="s">
-        <v>285</v>
-      </c>
-      <c r="K2" t="s">
-        <v>286</v>
-      </c>
       <c r="L2" s="13" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="N2" s="13"/>
     </row>
@@ -4873,34 +4870,34 @@
         <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="I3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -4908,34 +4905,34 @@
         <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I4" t="s">
         <v>281</v>
       </c>
-      <c r="E4" t="s">
-        <v>281</v>
-      </c>
-      <c r="F4" t="s">
-        <v>287</v>
-      </c>
-      <c r="G4" t="s">
-        <v>287</v>
-      </c>
-      <c r="H4" t="s">
-        <v>285</v>
-      </c>
-      <c r="I4" t="s">
-        <v>286</v>
-      </c>
       <c r="J4" s="13" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -4943,34 +4940,34 @@
         <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G5" t="s">
+        <v>282</v>
+      </c>
+      <c r="H5" t="s">
+        <v>280</v>
+      </c>
+      <c r="I5" t="s">
         <v>281</v>
       </c>
-      <c r="E5" t="s">
-        <v>281</v>
-      </c>
-      <c r="F5" t="s">
-        <v>287</v>
-      </c>
-      <c r="G5" t="s">
-        <v>287</v>
-      </c>
-      <c r="H5" t="s">
-        <v>285</v>
-      </c>
-      <c r="I5" t="s">
-        <v>286</v>
-      </c>
       <c r="J5" s="13" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -4978,31 +4975,31 @@
         <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C6" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E6" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F6" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G6" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -5010,10 +5007,10 @@
         <v>147</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -5021,34 +5018,34 @@
         <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E8" t="s">
+        <v>276</v>
+      </c>
+      <c r="F8" t="s">
+        <v>264</v>
+      </c>
+      <c r="G8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H8" t="s">
+        <v>280</v>
+      </c>
+      <c r="I8" t="s">
         <v>281</v>
       </c>
-      <c r="E8" t="s">
-        <v>281</v>
-      </c>
-      <c r="F8" t="s">
-        <v>269</v>
-      </c>
-      <c r="G8" t="s">
-        <v>269</v>
-      </c>
-      <c r="H8" t="s">
-        <v>285</v>
-      </c>
-      <c r="I8" t="s">
-        <v>286</v>
-      </c>
       <c r="J8" s="13" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -5056,100 +5053,100 @@
         <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C9" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E9" t="s">
+        <v>276</v>
+      </c>
+      <c r="F9" t="s">
+        <v>264</v>
+      </c>
+      <c r="G9" t="s">
+        <v>264</v>
+      </c>
+      <c r="H9" t="s">
+        <v>280</v>
+      </c>
+      <c r="I9" t="s">
         <v>281</v>
       </c>
-      <c r="E9" t="s">
-        <v>281</v>
-      </c>
-      <c r="F9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G9" t="s">
-        <v>269</v>
-      </c>
-      <c r="H9" t="s">
-        <v>285</v>
-      </c>
-      <c r="I9" t="s">
-        <v>286</v>
-      </c>
       <c r="J9" s="13" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B10" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B11" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C11" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D11" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E11" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F11" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B12" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C12" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D12" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E12" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F12" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G12" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H12" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I12" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="J12" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="K12" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -5157,7 +5154,7 @@
         <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -5165,7 +5162,7 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -5173,13 +5170,13 @@
         <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C15" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D15" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -5187,7 +5184,7 @@
         <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -5195,7 +5192,7 @@
         <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -5203,7 +5200,7 @@
         <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -5211,7 +5208,7 @@
         <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -5219,7 +5216,7 @@
         <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -5227,7 +5224,7 @@
         <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -5235,7 +5232,7 @@
         <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -5243,7 +5240,7 @@
         <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -5251,7 +5248,7 @@
         <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -5259,7 +5256,7 @@
         <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -5267,7 +5264,7 @@
         <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -5275,7 +5272,7 @@
         <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -5283,7 +5280,7 @@
         <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -5291,7 +5288,7 @@
         <v>96</v>
       </c>
       <c r="B29" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -5299,7 +5296,7 @@
         <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -5307,7 +5304,7 @@
         <v>102</v>
       </c>
       <c r="B31" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -5315,7 +5312,7 @@
         <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
@@ -5323,7 +5320,7 @@
         <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
@@ -5331,7 +5328,7 @@
         <v>115</v>
       </c>
       <c r="B34" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
@@ -5339,7 +5336,7 @@
         <v>118</v>
       </c>
       <c r="B35" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
@@ -5347,135 +5344,135 @@
         <v>121</v>
       </c>
       <c r="B36" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B37" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B38" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C38" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D38" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E38" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F38" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G38" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H38" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I38" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="J38" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="K38" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L38" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="M38" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="N38" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B39" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C39" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D39" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E39" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B40" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C40" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B41" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C41" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D41" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B42" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C42" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D42" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E42" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B43" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C43" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D43" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E43" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -5497,9 +5494,9 @@
   <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A34" sqref="A34"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5533,31 +5530,31 @@
         <v>173</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>291</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -5565,43 +5562,43 @@
         <v>129</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K2" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="G2" t="s">
-        <v>359</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>351</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>356</v>
       </c>
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
@@ -5612,22 +5609,22 @@
         <v>150</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>426</v>
+        <v>466</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -5635,22 +5632,22 @@
         <v>153</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>426</v>
+        <v>466</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="D4" t="s">
-        <v>376</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>377</v>
-      </c>
       <c r="F4" s="13" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
@@ -5658,37 +5655,37 @@
         <v>135</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>353</v>
-      </c>
       <c r="F5" s="13" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
@@ -5696,37 +5693,37 @@
         <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E6" t="s">
         <v>348</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>349</v>
       </c>
-      <c r="E6" t="s">
-        <v>353</v>
-      </c>
-      <c r="F6" t="s">
-        <v>354</v>
-      </c>
       <c r="G6" s="13" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H6" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="I6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J6" t="s">
+        <v>347</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="L6" s="13" t="s">
         <v>351</v>
-      </c>
-      <c r="J6" t="s">
-        <v>352</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
@@ -5734,37 +5731,37 @@
         <v>132</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>354</v>
-      </c>
       <c r="G7" s="13" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="I7" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="L7" s="13" t="s">
         <v>351</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>356</v>
       </c>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
@@ -5774,34 +5771,34 @@
         <v>138</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>353</v>
-      </c>
       <c r="F8" s="13" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I8" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="K8" s="13" t="s">
         <v>351</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
@@ -5809,13 +5806,13 @@
         <v>147</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D9" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
@@ -5823,37 +5820,37 @@
         <v>141</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="F10" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>354</v>
-      </c>
       <c r="G10" s="13" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="I10" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="L10" s="13" t="s">
         <v>351</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
@@ -5861,247 +5858,247 @@
         <v>144</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="F11" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>354</v>
-      </c>
       <c r="G11" s="13" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="I11" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="L11" s="13" t="s">
         <v>351</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D12" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C16" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E16" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F16" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G16" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C17" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E17" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F17" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G17" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C18" t="s">
+        <v>321</v>
+      </c>
+      <c r="D18" t="s">
         <v>326</v>
       </c>
-      <c r="D18" t="s">
-        <v>331</v>
-      </c>
       <c r="E18" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C19" t="s">
+        <v>328</v>
+      </c>
+      <c r="D19" t="s">
+        <v>329</v>
+      </c>
+      <c r="E19" t="s">
+        <v>330</v>
+      </c>
+      <c r="F19" t="s">
+        <v>331</v>
+      </c>
+      <c r="G19" t="s">
+        <v>332</v>
+      </c>
+      <c r="H19" t="s">
         <v>333</v>
-      </c>
-      <c r="D19" t="s">
-        <v>334</v>
-      </c>
-      <c r="E19" t="s">
-        <v>335</v>
-      </c>
-      <c r="F19" t="s">
-        <v>336</v>
-      </c>
-      <c r="G19" t="s">
-        <v>337</v>
-      </c>
-      <c r="H19" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C20" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="I20" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="J20" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="K20" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="L20" s="12" t="s">
         <v>342</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -6109,10 +6106,10 @@
         <v>32</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C21" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -6120,10 +6117,10 @@
         <v>36</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C22" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
@@ -6131,10 +6128,10 @@
         <v>39</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C23" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -6142,10 +6139,10 @@
         <v>42</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C24" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -6153,10 +6150,10 @@
         <v>48</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C25" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -6164,10 +6161,10 @@
         <v>51</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C26" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -6175,10 +6172,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C27" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -6186,10 +6183,10 @@
         <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C28" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -6197,10 +6194,10 @@
         <v>61</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C29" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -6208,10 +6205,10 @@
         <v>64</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C30" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -6219,10 +6216,10 @@
         <v>66</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C31" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -6230,10 +6227,10 @@
         <v>68</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C32" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -6241,10 +6238,10 @@
         <v>71</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C33" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -6252,10 +6249,10 @@
         <v>74</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C34" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -6263,10 +6260,10 @@
         <v>124</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C35" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -6274,10 +6271,10 @@
         <v>165</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C36" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -6285,10 +6282,10 @@
         <v>75</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C37" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -6296,10 +6293,10 @@
         <v>78</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C38" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
@@ -6307,21 +6304,21 @@
         <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C39" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B40" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C40" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
@@ -6343,10 +6340,10 @@
         <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C41" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
@@ -6354,10 +6351,10 @@
         <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C42" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -6365,10 +6362,10 @@
         <v>93</v>
       </c>
       <c r="B43" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C43" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -6376,10 +6373,10 @@
         <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C44" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -6387,10 +6384,10 @@
         <v>99</v>
       </c>
       <c r="B45" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C45" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -6398,10 +6395,10 @@
         <v>102</v>
       </c>
       <c r="B46" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C46" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
@@ -6409,10 +6406,10 @@
         <v>105</v>
       </c>
       <c r="B47" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C47" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -6420,21 +6417,21 @@
         <v>108</v>
       </c>
       <c r="B48" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C48" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B49" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C49" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="U49" s="13"/>
       <c r="V49" s="13"/>
@@ -6532,22 +6529,22 @@
         <v>173</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -6555,10 +6552,10 @@
         <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -6566,10 +6563,10 @@
         <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -6577,10 +6574,10 @@
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C4" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -6588,22 +6585,22 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C5" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D5" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E5" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F5" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G5" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>

--- a/dds/moorings.xlsx
+++ b/dds/moorings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="419" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="419" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -1274,9 +1274,6 @@
     <t>reference.ref_holding_capacity_factors_plate_anchors</t>
   </si>
   <si>
-    <t>reference.soil_type_geotechnical_properties</t>
-  </si>
-  <si>
     <t>reference.view_component_moorings_chain</t>
   </si>
   <si>
@@ -1452,6 +1449,9 @@
   </si>
   <si>
     <t>% of Min Breaking Load</t>
+  </si>
+  <si>
+    <t>reference.view_soil_type_geotechnical_properties</t>
   </si>
 </sst>
 </file>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="12" spans="1:8" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>6</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>9</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="14" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>9</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="15" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>9</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="16" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>9</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="17" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>9</v>
@@ -2280,7 +2280,7 @@
     </row>
     <row r="18" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>9</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="19" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>9</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="20" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>26</v>
@@ -2555,10 +2555,10 @@
         <v>24</v>
       </c>
       <c r="C34" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="D34" s="21" t="s">
         <v>458</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>459</v>
       </c>
       <c r="G34" s="15" t="s">
         <v>33</v>
@@ -2654,16 +2654,16 @@
     </row>
     <row r="40" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="D40" s="16" t="s">
         <v>422</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>423</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="49" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>24</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -2884,7 +2884,7 @@
     </row>
     <row r="53" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>24</v>
@@ -2902,7 +2902,7 @@
     </row>
     <row r="54" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>24</v>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="55" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>159</v>
@@ -2942,7 +2942,7 @@
     </row>
     <row r="56" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>159</v>
@@ -2957,7 +2957,7 @@
     </row>
     <row r="57" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="19" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>28</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="58" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="19" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>28</v>
@@ -2993,7 +2993,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>28</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="60" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>159</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="61" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>159</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="62" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>159</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>156</v>
@@ -3084,7 +3084,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>159</v>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="65" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>30</v>
@@ -3135,7 +3135,7 @@
   </sheetPr>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E16" sqref="E16"/>
     </sheetView>
@@ -3221,7 +3221,7 @@
         <v>228</v>
       </c>
       <c r="J2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K2" t="s">
         <v>216</v>
@@ -3303,7 +3303,7 @@
         <v>230</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>222</v>
@@ -3332,13 +3332,13 @@
         <v>220</v>
       </c>
       <c r="H6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I6" t="s">
         <v>216</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>222</v>
@@ -3367,13 +3367,13 @@
         <v>220</v>
       </c>
       <c r="H7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I7" t="s">
         <v>216</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>222</v>
@@ -3402,10 +3402,10 @@
         <v>215</v>
       </c>
       <c r="H8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>222</v>
@@ -3422,7 +3422,7 @@
         <v>232</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
@@ -3448,7 +3448,7 @@
         <v>228</v>
       </c>
       <c r="H10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I10" t="s">
         <v>216</v>
@@ -3483,7 +3483,7 @@
         <v>228</v>
       </c>
       <c r="H11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I11" t="s">
         <v>216</v>
@@ -3497,7 +3497,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B12" t="s">
         <v>180</v>
@@ -3508,7 +3508,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>182</v>
@@ -3540,7 +3540,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B14" t="s">
         <v>182</v>
@@ -3563,7 +3563,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B15" t="s">
         <v>182</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B16" t="s">
         <v>180</v>
@@ -3586,18 +3586,18 @@
         <v>190</v>
       </c>
       <c r="D16" t="s">
+        <v>466</v>
+      </c>
+      <c r="E16" t="s">
         <v>467</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>468</v>
-      </c>
-      <c r="F16" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B17" t="s">
         <v>191</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B18" t="s">
         <v>191</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B19" t="s">
         <v>198</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B20" t="s">
         <v>204</v>
@@ -3689,7 +3689,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B21" t="s">
         <v>239</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B22" t="s">
         <v>249</v>
@@ -3750,7 +3750,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B23" t="s">
         <v>250</v>
@@ -3761,7 +3761,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B24" t="s">
         <v>251</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B25" t="s">
         <v>213</v>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B26" t="s">
         <v>250</v>
@@ -4163,7 +4163,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>260</v>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B12" t="s">
         <v>260</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B13" t="s">
         <v>260</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B14" t="s">
         <v>260</v>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B15" t="s">
         <v>260</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B16" t="s">
         <v>260</v>
@@ -4292,7 +4292,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B17" t="s">
         <v>260</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B18" t="s">
         <v>260</v>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B19" t="s">
         <v>261</v>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>260</v>
@@ -4580,7 +4580,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B47" t="s">
         <v>260</v>
@@ -4612,7 +4612,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B51" t="s">
         <v>260</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B52" t="s">
         <v>260</v>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B53" t="s">
         <v>261</v>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B54" t="s">
         <v>260</v>
@@ -4689,7 +4689,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B55" t="s">
         <v>260</v>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B56" t="s">
         <v>260</v>
@@ -4705,7 +4705,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B57" t="s">
         <v>260</v>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B58" t="s">
         <v>261</v>
@@ -4724,7 +4724,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B59" t="s">
         <v>261</v>
@@ -4738,7 +4738,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B60" t="s">
         <v>261</v>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B61" t="s">
         <v>261</v>
@@ -4772,7 +4772,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B62" t="s">
         <v>261</v>
@@ -4858,7 +4858,7 @@
         <v>281</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M2" s="13" t="s">
         <v>263</v>
@@ -4894,7 +4894,7 @@
         <v>271</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>263</v>
@@ -4929,7 +4929,7 @@
         <v>281</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>263</v>
@@ -4964,7 +4964,7 @@
         <v>281</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>263</v>
@@ -4996,7 +4996,7 @@
         <v>280</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>263</v>
@@ -5042,7 +5042,7 @@
         <v>281</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>263</v>
@@ -5077,7 +5077,7 @@
         <v>281</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K9" s="13" t="s">
         <v>263</v>
@@ -5085,7 +5085,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B10" t="s">
         <v>270</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B11" t="s">
         <v>270</v>
@@ -5116,7 +5116,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B12" t="s">
         <v>263</v>
@@ -5328,7 +5328,7 @@
         <v>115</v>
       </c>
       <c r="B34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
@@ -5336,7 +5336,7 @@
         <v>118</v>
       </c>
       <c r="B35" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
@@ -5344,20 +5344,20 @@
         <v>121</v>
       </c>
       <c r="B36" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B37" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B38" t="s">
         <v>263</v>
@@ -5401,7 +5401,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B39" t="s">
         <v>263</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B40" t="s">
         <v>263</v>
@@ -5429,7 +5429,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B41" t="s">
         <v>263</v>
@@ -5443,13 +5443,13 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B42" t="s">
         <v>263</v>
       </c>
       <c r="C42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D42" t="s">
         <v>263</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B43" t="s">
         <v>263</v>
@@ -5493,10 +5493,10 @@
   </sheetPr>
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A34" sqref="A34"/>
-      <selection pane="topRight" activeCell="B3" sqref="B3"/>
+      <selection pane="topRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5562,7 +5562,7 @@
         <v>129</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>343</v>
@@ -5609,7 +5609,7 @@
         <v>150</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>343</v>
@@ -5632,7 +5632,7 @@
         <v>153</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>343</v>
@@ -5655,7 +5655,7 @@
         <v>135</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>343</v>
@@ -5673,7 +5673,7 @@
         <v>350</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>359</v>
@@ -5682,7 +5682,7 @@
         <v>360</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L5" s="13" t="s">
         <v>351</v>
@@ -5693,7 +5693,7 @@
         <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C6" t="s">
         <v>343</v>
@@ -5711,7 +5711,7 @@
         <v>350</v>
       </c>
       <c r="H6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I6" t="s">
         <v>346</v>
@@ -5720,7 +5720,7 @@
         <v>347</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L6" s="13" t="s">
         <v>351</v>
@@ -5731,7 +5731,7 @@
         <v>132</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>343</v>
@@ -5749,7 +5749,7 @@
         <v>350</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>346</v>
@@ -5758,7 +5758,7 @@
         <v>347</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L7" s="13" t="s">
         <v>351</v>
@@ -5771,7 +5771,7 @@
         <v>138</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>343</v>
@@ -5786,7 +5786,7 @@
         <v>350</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>345</v>
@@ -5795,7 +5795,7 @@
         <v>346</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>351</v>
@@ -5806,7 +5806,7 @@
         <v>147</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>343</v>
@@ -5820,7 +5820,7 @@
         <v>141</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>343</v>
@@ -5858,7 +5858,7 @@
         <v>144</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>343</v>
@@ -5893,7 +5893,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>404</v>
@@ -5907,7 +5907,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>405</v>
@@ -5933,7 +5933,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>406</v>
@@ -5959,7 +5959,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>407</v>
@@ -5976,7 +5976,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>408</v>
@@ -5999,7 +5999,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>409</v>
@@ -6022,7 +6022,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>410</v>
@@ -6039,7 +6039,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>411</v>
@@ -6065,10 +6065,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>412</v>
+        <v>471</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>334</v>
@@ -6106,7 +6106,7 @@
         <v>32</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C21" t="s">
         <v>292</v>
@@ -6117,7 +6117,7 @@
         <v>36</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C22" t="s">
         <v>293</v>
@@ -6128,7 +6128,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C23" t="s">
         <v>294</v>
@@ -6139,10 +6139,10 @@
         <v>42</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C24" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -6150,7 +6150,7 @@
         <v>48</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C25" t="s">
         <v>297</v>
@@ -6161,7 +6161,7 @@
         <v>51</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C26" t="s">
         <v>362</v>
@@ -6172,7 +6172,7 @@
         <v>55</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C27" t="s">
         <v>298</v>
@@ -6183,10 +6183,10 @@
         <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -6194,10 +6194,10 @@
         <v>61</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C29" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -6205,7 +6205,7 @@
         <v>64</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C30" t="s">
         <v>354</v>
@@ -6216,10 +6216,10 @@
         <v>66</v>
       </c>
       <c r="B31" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="C31" t="s">
         <v>450</v>
-      </c>
-      <c r="C31" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -6227,10 +6227,10 @@
         <v>68</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -6238,10 +6238,10 @@
         <v>71</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C33" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -6249,10 +6249,10 @@
         <v>74</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C34" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -6260,7 +6260,7 @@
         <v>124</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C35" t="s">
         <v>352</v>
@@ -6271,7 +6271,7 @@
         <v>165</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C36" t="s">
         <v>364</v>
@@ -6282,7 +6282,7 @@
         <v>75</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C37" t="s">
         <v>295</v>
@@ -6293,7 +6293,7 @@
         <v>78</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C38" t="s">
         <v>296</v>
@@ -6304,7 +6304,7 @@
         <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C39" t="s">
         <v>365</v>
@@ -6312,13 +6312,13 @@
     </row>
     <row r="40" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B40" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C40" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
@@ -6340,7 +6340,7 @@
         <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C41" t="s">
         <v>300</v>
@@ -6351,7 +6351,7 @@
         <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C42" t="s">
         <v>301</v>
@@ -6362,7 +6362,7 @@
         <v>93</v>
       </c>
       <c r="B43" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C43" t="s">
         <v>304</v>
@@ -6373,7 +6373,7 @@
         <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C44" t="s">
         <v>305</v>
@@ -6384,7 +6384,7 @@
         <v>99</v>
       </c>
       <c r="B45" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C45" t="s">
         <v>306</v>
@@ -6395,7 +6395,7 @@
         <v>102</v>
       </c>
       <c r="B46" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C46" t="s">
         <v>302</v>
@@ -6406,7 +6406,7 @@
         <v>105</v>
       </c>
       <c r="B47" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C47" t="s">
         <v>303</v>
@@ -6417,7 +6417,7 @@
         <v>108</v>
       </c>
       <c r="B48" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C48" t="s">
         <v>307</v>
@@ -6425,10 +6425,10 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B49" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C49" t="s">
         <v>299</v>

--- a/dds/moorings.xlsx
+++ b/dds/moorings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="419" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="474">
   <si>
     <t>Identifier</t>
   </si>
@@ -731,9 +731,6 @@
     <t>Youngs Modulus</t>
   </si>
   <si>
-    <t>Thickness</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -1121,9 +1118,6 @@
     <t>youngs_modulus</t>
   </si>
   <si>
-    <t>thickness</t>
-  </si>
-  <si>
     <t>maximum_displacement</t>
   </si>
   <si>
@@ -1452,6 +1446,18 @@
   </si>
   <si>
     <t>reference.view_soil_type_geotechnical_properties</t>
+  </si>
+  <si>
+    <t>Nominal Diameter</t>
+  </si>
+  <si>
+    <t>nominal_diameter</t>
+  </si>
+  <si>
+    <t>wall_thickness</t>
+  </si>
+  <si>
+    <t>Wall Thickness</t>
   </si>
 </sst>
 </file>
@@ -2034,10 +2040,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -2149,7 +2155,7 @@
         <v>147</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>148</v>
@@ -2192,7 +2198,7 @@
     </row>
     <row r="12" spans="1:8" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>6</v>
@@ -2206,7 +2212,7 @@
     </row>
     <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>9</v>
@@ -2220,7 +2226,7 @@
     </row>
     <row r="14" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>9</v>
@@ -2234,7 +2240,7 @@
     </row>
     <row r="15" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>9</v>
@@ -2248,7 +2254,7 @@
     </row>
     <row r="16" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>9</v>
@@ -2266,7 +2272,7 @@
     </row>
     <row r="17" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>9</v>
@@ -2280,7 +2286,7 @@
     </row>
     <row r="18" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>9</v>
@@ -2294,7 +2300,7 @@
     </row>
     <row r="19" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>9</v>
@@ -2308,7 +2314,7 @@
     </row>
     <row r="20" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>26</v>
@@ -2484,7 +2490,7 @@
         <v>65</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -2504,7 +2510,7 @@
         <v>67</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G31" s="15" t="s">
         <v>33</v>
@@ -2541,7 +2547,7 @@
         <v>73</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G33" s="15" t="s">
         <v>33</v>
@@ -2555,10 +2561,10 @@
         <v>24</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G34" s="15" t="s">
         <v>33</v>
@@ -2575,7 +2581,7 @@
         <v>125</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G35" s="15" t="s">
         <v>33</v>
@@ -2654,16 +2660,16 @@
     </row>
     <row r="40" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
@@ -2820,7 +2826,7 @@
     </row>
     <row r="49" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>24</v>
@@ -2829,7 +2835,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -2884,13 +2890,13 @@
     </row>
     <row r="53" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="20" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>29</v>
@@ -2902,7 +2908,7 @@
     </row>
     <row r="54" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>24</v>
@@ -2922,7 +2928,7 @@
     </row>
     <row r="55" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>159</v>
@@ -2942,7 +2948,7 @@
     </row>
     <row r="56" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>159</v>
@@ -2957,7 +2963,7 @@
     </row>
     <row r="57" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="19" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>28</v>
@@ -2975,7 +2981,7 @@
     </row>
     <row r="58" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="19" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>28</v>
@@ -2993,7 +2999,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>28</v>
@@ -3011,7 +3017,7 @@
     </row>
     <row r="60" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>159</v>
@@ -3029,13 +3035,13 @@
     </row>
     <row r="61" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>172</v>
@@ -3047,13 +3053,13 @@
     </row>
     <row r="62" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>160</v>
@@ -3064,13 +3070,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>157</v>
@@ -3084,7 +3090,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>159</v>
@@ -3101,13 +3107,13 @@
     </row>
     <row r="65" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="19" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>31</v>
@@ -3135,9 +3141,9 @@
   </sheetPr>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3221,7 +3227,7 @@
         <v>228</v>
       </c>
       <c r="J2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K2" t="s">
         <v>216</v>
@@ -3242,16 +3248,16 @@
         <v>213</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" t="s">
         <v>234</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>235</v>
-      </c>
-      <c r="F3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -3262,16 +3268,16 @@
         <v>213</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" t="s">
         <v>234</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>235</v>
-      </c>
-      <c r="F4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
@@ -3288,7 +3294,7 @@
         <v>217</v>
       </c>
       <c r="E5" t="s">
-        <v>231</v>
+        <v>473</v>
       </c>
       <c r="F5" t="s">
         <v>219</v>
@@ -3303,7 +3309,7 @@
         <v>230</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>222</v>
@@ -3332,13 +3338,13 @@
         <v>220</v>
       </c>
       <c r="H6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I6" t="s">
         <v>216</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>222</v>
@@ -3367,13 +3373,13 @@
         <v>220</v>
       </c>
       <c r="H7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I7" t="s">
         <v>216</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>222</v>
@@ -3402,10 +3408,10 @@
         <v>215</v>
       </c>
       <c r="H8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>222</v>
@@ -3419,10 +3425,10 @@
         <v>213</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
@@ -3436,27 +3442,36 @@
         <v>214</v>
       </c>
       <c r="D10" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E10" t="s">
+        <v>224</v>
+      </c>
+      <c r="F10" t="s">
+        <v>225</v>
+      </c>
+      <c r="G10" t="s">
+        <v>470</v>
+      </c>
+      <c r="H10" t="s">
         <v>218</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
         <v>227</v>
       </c>
-      <c r="G10" t="s">
+      <c r="J10" t="s">
         <v>228</v>
       </c>
-      <c r="H10" t="s">
-        <v>469</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
+        <v>467</v>
+      </c>
+      <c r="L10" t="s">
         <v>216</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="M10" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="N10" s="13" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3471,33 +3486,42 @@
         <v>214</v>
       </c>
       <c r="D11" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E11" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G11" t="s">
+        <v>470</v>
+      </c>
+      <c r="H11" t="s">
         <v>218</v>
       </c>
-      <c r="F11" t="s">
+      <c r="I11" t="s">
         <v>227</v>
       </c>
-      <c r="G11" t="s">
+      <c r="J11" t="s">
         <v>228</v>
       </c>
-      <c r="H11" t="s">
-        <v>469</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
+        <v>467</v>
+      </c>
+      <c r="L11" t="s">
         <v>216</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="M11" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="N11" s="13" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B12" t="s">
         <v>180</v>
@@ -3508,7 +3532,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>182</v>
@@ -3540,7 +3564,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B14" t="s">
         <v>182</v>
@@ -3563,7 +3587,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B15" t="s">
         <v>182</v>
@@ -3577,7 +3601,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B16" t="s">
         <v>180</v>
@@ -3586,18 +3610,18 @@
         <v>190</v>
       </c>
       <c r="D16" t="s">
+        <v>464</v>
+      </c>
+      <c r="E16" t="s">
+        <v>465</v>
+      </c>
+      <c r="F16" t="s">
         <v>466</v>
-      </c>
-      <c r="E16" t="s">
-        <v>467</v>
-      </c>
-      <c r="F16" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B17" t="s">
         <v>191</v>
@@ -3617,7 +3641,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B18" t="s">
         <v>191</v>
@@ -3631,7 +3655,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B19" t="s">
         <v>198</v>
@@ -3654,7 +3678,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B20" t="s">
         <v>204</v>
@@ -3689,25 +3713,25 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" t="s">
         <v>239</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>240</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>241</v>
-      </c>
-      <c r="E21" t="s">
-        <v>242</v>
       </c>
       <c r="F21" t="s">
         <v>224</v>
       </c>
       <c r="G21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H21" t="s">
         <v>223</v>
@@ -3716,27 +3740,27 @@
         <v>225</v>
       </c>
       <c r="J21" t="s">
+        <v>243</v>
+      </c>
+      <c r="K21" t="s">
         <v>244</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>245</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>246</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>247</v>
-      </c>
-      <c r="N21" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C22" t="s">
         <v>204</v>
@@ -3745,37 +3769,37 @@
         <v>224</v>
       </c>
       <c r="E22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B24" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24" t="s">
         <v>251</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>252</v>
-      </c>
-      <c r="D24" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B25" t="s">
         <v>213</v>
@@ -3784,27 +3808,27 @@
         <v>221</v>
       </c>
       <c r="D25" t="s">
+        <v>236</v>
+      </c>
+      <c r="E25" t="s">
         <v>237</v>
-      </c>
-      <c r="E25" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3826,7 +3850,7 @@
   <dimension ref="A1:U62"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B10" sqref="B10:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3840,22 +3864,22 @@
         <v>173</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -3863,40 +3887,40 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K2" t="s">
+        <v>259</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="E2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G2" t="s">
-        <v>260</v>
-      </c>
-      <c r="H2" t="s">
-        <v>260</v>
-      </c>
-      <c r="I2" t="s">
-        <v>260</v>
-      </c>
-      <c r="J2" t="s">
-        <v>260</v>
-      </c>
-      <c r="K2" t="s">
-        <v>260</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
@@ -3907,19 +3931,19 @@
         <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
@@ -3927,19 +3951,19 @@
         <v>153</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
@@ -3947,34 +3971,34 @@
         <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G5" t="s">
+        <v>259</v>
+      </c>
+      <c r="H5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I5" t="s">
+        <v>259</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="K5" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="E5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F5" t="s">
-        <v>260</v>
-      </c>
-      <c r="G5" t="s">
-        <v>260</v>
-      </c>
-      <c r="H5" t="s">
-        <v>260</v>
-      </c>
-      <c r="I5" t="s">
-        <v>260</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
@@ -3984,34 +4008,34 @@
         <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E6" t="s">
+        <v>259</v>
+      </c>
+      <c r="F6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G6" t="s">
+        <v>259</v>
+      </c>
+      <c r="H6" t="s">
+        <v>259</v>
+      </c>
+      <c r="I6" t="s">
+        <v>259</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="E6" t="s">
-        <v>260</v>
-      </c>
-      <c r="F6" t="s">
-        <v>260</v>
-      </c>
-      <c r="G6" t="s">
-        <v>260</v>
-      </c>
-      <c r="H6" t="s">
-        <v>260</v>
-      </c>
-      <c r="I6" t="s">
-        <v>260</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
@@ -4021,34 +4045,34 @@
         <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H7" t="s">
+        <v>259</v>
+      </c>
+      <c r="I7" t="s">
+        <v>259</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="K7" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="E7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H7" t="s">
-        <v>260</v>
-      </c>
-      <c r="I7" t="s">
-        <v>260</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
@@ -4058,31 +4082,31 @@
         <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" t="s">
         <v>260</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="J8" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="F8" t="s">
-        <v>260</v>
-      </c>
-      <c r="G8" t="s">
-        <v>261</v>
-      </c>
-      <c r="H8" t="s">
-        <v>260</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
@@ -4092,84 +4116,98 @@
         <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F9" t="s">
+        <v>259</v>
+      </c>
+      <c r="G9" t="s">
+        <v>259</v>
+      </c>
+      <c r="H9" t="s">
+        <v>259</v>
+      </c>
+      <c r="I9" t="s">
+        <v>259</v>
+      </c>
+      <c r="J9" t="s">
+        <v>259</v>
+      </c>
+      <c r="K9" t="s">
+        <v>259</v>
+      </c>
+      <c r="L9" t="s">
+        <v>259</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="N9" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="E9" t="s">
-        <v>260</v>
-      </c>
-      <c r="F9" t="s">
-        <v>260</v>
-      </c>
-      <c r="G9" t="s">
-        <v>260</v>
-      </c>
-      <c r="H9" t="s">
-        <v>260</v>
-      </c>
-      <c r="I9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G10" t="s">
+        <v>259</v>
+      </c>
+      <c r="H10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I10" t="s">
+        <v>259</v>
+      </c>
+      <c r="J10" t="s">
+        <v>259</v>
+      </c>
+      <c r="K10" t="s">
+        <v>259</v>
+      </c>
+      <c r="L10" t="s">
+        <v>259</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="N10" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="E10" t="s">
-        <v>260</v>
-      </c>
-      <c r="F10" t="s">
-        <v>260</v>
-      </c>
-      <c r="G10" t="s">
-        <v>260</v>
-      </c>
-      <c r="H10" t="s">
-        <v>260</v>
-      </c>
-      <c r="I10" t="s">
-        <v>260</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -4192,174 +4230,174 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -4367,7 +4405,7 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -4375,7 +4413,7 @@
         <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -4383,7 +4421,7 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -4391,7 +4429,7 @@
         <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -4399,7 +4437,7 @@
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -4407,7 +4445,7 @@
         <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -4415,7 +4453,7 @@
         <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -4423,7 +4461,7 @@
         <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -4431,7 +4469,7 @@
         <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -4439,7 +4477,7 @@
         <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -4447,7 +4485,7 @@
         <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -4455,7 +4493,7 @@
         <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -4463,7 +4501,7 @@
         <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -4471,7 +4509,7 @@
         <v>124</v>
       </c>
       <c r="B33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -4479,7 +4517,7 @@
         <v>165</v>
       </c>
       <c r="B34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -4487,7 +4525,7 @@
         <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -4495,7 +4533,7 @@
         <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -4503,15 +4541,15 @@
         <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -4519,7 +4557,7 @@
         <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -4527,7 +4565,7 @@
         <v>90</v>
       </c>
       <c r="B40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -4535,7 +4573,7 @@
         <v>93</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -4543,7 +4581,7 @@
         <v>96</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -4551,7 +4589,7 @@
         <v>99</v>
       </c>
       <c r="B43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -4559,7 +4597,7 @@
         <v>102</v>
       </c>
       <c r="B44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -4567,7 +4605,7 @@
         <v>105</v>
       </c>
       <c r="B45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -4575,15 +4613,15 @@
         <v>108</v>
       </c>
       <c r="B46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -4591,7 +4629,7 @@
         <v>115</v>
       </c>
       <c r="B48" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
@@ -4599,7 +4637,7 @@
         <v>118</v>
       </c>
       <c r="B49" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
@@ -4607,175 +4645,175 @@
         <v>121</v>
       </c>
       <c r="B50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B51" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B53" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C53" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D53" t="s">
+        <v>259</v>
+      </c>
+      <c r="E53" t="s">
+        <v>259</v>
+      </c>
+      <c r="F53" t="s">
+        <v>259</v>
+      </c>
+      <c r="G53" t="s">
+        <v>259</v>
+      </c>
+      <c r="H53" t="s">
+        <v>259</v>
+      </c>
+      <c r="I53" t="s">
+        <v>259</v>
+      </c>
+      <c r="J53" t="s">
+        <v>259</v>
+      </c>
+      <c r="K53" t="s">
+        <v>259</v>
+      </c>
+      <c r="L53" t="s">
         <v>260</v>
       </c>
-      <c r="E53" t="s">
-        <v>260</v>
-      </c>
-      <c r="F53" t="s">
-        <v>260</v>
-      </c>
-      <c r="G53" t="s">
-        <v>260</v>
-      </c>
-      <c r="H53" t="s">
-        <v>260</v>
-      </c>
-      <c r="I53" t="s">
-        <v>260</v>
-      </c>
-      <c r="J53" t="s">
-        <v>260</v>
-      </c>
-      <c r="K53" t="s">
-        <v>260</v>
-      </c>
-      <c r="L53" t="s">
-        <v>261</v>
-      </c>
       <c r="M53" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N53" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B54" t="s">
+        <v>259</v>
+      </c>
+      <c r="C54" t="s">
         <v>260</v>
       </c>
-      <c r="C54" t="s">
-        <v>261</v>
-      </c>
       <c r="D54" t="s">
+        <v>259</v>
+      </c>
+      <c r="E54" t="s">
         <v>260</v>
-      </c>
-      <c r="E54" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B55" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B56" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B58" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C58" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B59" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C60" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D60" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E60" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B61" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C61" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D61" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E61" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B62" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4797,7 +4835,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B9" sqref="B9:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4811,16 +4849,16 @@
         <v>173</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -4828,40 +4866,40 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" t="s">
         <v>263</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
         <v>263</v>
       </c>
-      <c r="D2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F2" t="s">
-        <v>276</v>
-      </c>
-      <c r="G2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H2" t="s">
-        <v>264</v>
-      </c>
-      <c r="I2" t="s">
-        <v>264</v>
-      </c>
       <c r="J2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K2" t="s">
         <v>280</v>
       </c>
-      <c r="K2" t="s">
-        <v>281</v>
-      </c>
       <c r="L2" s="13" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N2" s="13"/>
     </row>
@@ -4870,34 +4908,34 @@
         <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -4905,34 +4943,34 @@
         <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H4" t="s">
+        <v>279</v>
+      </c>
+      <c r="I4" t="s">
         <v>280</v>
       </c>
-      <c r="I4" t="s">
-        <v>281</v>
-      </c>
       <c r="J4" s="13" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -4940,34 +4978,34 @@
         <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H5" t="s">
+        <v>279</v>
+      </c>
+      <c r="I5" t="s">
         <v>280</v>
       </c>
-      <c r="I5" t="s">
-        <v>281</v>
-      </c>
       <c r="J5" s="13" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -4975,31 +5013,31 @@
         <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -5007,10 +5045,10 @@
         <v>147</v>
       </c>
       <c r="B7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" t="s">
         <v>280</v>
-      </c>
-      <c r="C7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -5018,34 +5056,43 @@
         <v>141</v>
       </c>
       <c r="B8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E8" t="s">
+        <v>275</v>
+      </c>
+      <c r="F8" t="s">
+        <v>275</v>
+      </c>
+      <c r="G8" t="s">
+        <v>275</v>
+      </c>
+      <c r="H8" t="s">
+        <v>275</v>
+      </c>
+      <c r="I8" t="s">
         <v>263</v>
       </c>
-      <c r="C8" t="s">
+      <c r="J8" t="s">
         <v>263</v>
       </c>
-      <c r="D8" t="s">
-        <v>276</v>
-      </c>
-      <c r="E8" t="s">
-        <v>276</v>
-      </c>
-      <c r="F8" t="s">
-        <v>264</v>
-      </c>
-      <c r="G8" t="s">
-        <v>264</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="K8" t="s">
+        <v>279</v>
+      </c>
+      <c r="L8" t="s">
         <v>280</v>
       </c>
-      <c r="I8" t="s">
-        <v>281</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>263</v>
+      <c r="M8" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -5053,100 +5100,109 @@
         <v>144</v>
       </c>
       <c r="B9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E9" t="s">
+        <v>275</v>
+      </c>
+      <c r="F9" t="s">
+        <v>275</v>
+      </c>
+      <c r="G9" t="s">
+        <v>275</v>
+      </c>
+      <c r="H9" t="s">
+        <v>275</v>
+      </c>
+      <c r="I9" t="s">
         <v>263</v>
       </c>
-      <c r="C9" t="s">
+      <c r="J9" t="s">
         <v>263</v>
       </c>
-      <c r="D9" t="s">
-        <v>276</v>
-      </c>
-      <c r="E9" t="s">
-        <v>276</v>
-      </c>
-      <c r="F9" t="s">
-        <v>264</v>
-      </c>
-      <c r="G9" t="s">
-        <v>264</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="K9" t="s">
+        <v>279</v>
+      </c>
+      <c r="L9" t="s">
         <v>280</v>
       </c>
-      <c r="I9" t="s">
-        <v>281</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>263</v>
+      <c r="M9" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E11" t="s">
         <v>270</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
         <v>270</v>
-      </c>
-      <c r="D11" t="s">
-        <v>263</v>
-      </c>
-      <c r="E11" t="s">
-        <v>271</v>
-      </c>
-      <c r="F11" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D12" t="s">
+        <v>271</v>
+      </c>
+      <c r="E12" t="s">
         <v>272</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>273</v>
       </c>
-      <c r="F12" t="s">
-        <v>274</v>
-      </c>
       <c r="G12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -5154,7 +5210,7 @@
         <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -5162,7 +5218,7 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -5170,13 +5226,13 @@
         <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -5184,7 +5240,7 @@
         <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -5192,7 +5248,7 @@
         <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -5200,7 +5256,7 @@
         <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -5208,7 +5264,7 @@
         <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -5216,7 +5272,7 @@
         <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -5224,7 +5280,7 @@
         <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -5232,7 +5288,7 @@
         <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -5240,7 +5296,7 @@
         <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -5248,7 +5304,7 @@
         <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -5256,7 +5312,7 @@
         <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -5264,7 +5320,7 @@
         <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -5272,7 +5328,7 @@
         <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -5280,7 +5336,7 @@
         <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -5288,7 +5344,7 @@
         <v>96</v>
       </c>
       <c r="B29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -5296,7 +5352,7 @@
         <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -5304,7 +5360,7 @@
         <v>102</v>
       </c>
       <c r="B31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -5312,7 +5368,7 @@
         <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
@@ -5320,7 +5376,7 @@
         <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
@@ -5328,7 +5384,7 @@
         <v>115</v>
       </c>
       <c r="B34" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
@@ -5336,7 +5392,7 @@
         <v>118</v>
       </c>
       <c r="B35" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
@@ -5344,135 +5400,135 @@
         <v>121</v>
       </c>
       <c r="B36" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B37" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B38" t="s">
+        <v>262</v>
+      </c>
+      <c r="C38" t="s">
+        <v>262</v>
+      </c>
+      <c r="D38" t="s">
+        <v>275</v>
+      </c>
+      <c r="E38" t="s">
+        <v>275</v>
+      </c>
+      <c r="F38" t="s">
+        <v>275</v>
+      </c>
+      <c r="G38" t="s">
+        <v>275</v>
+      </c>
+      <c r="H38" t="s">
+        <v>275</v>
+      </c>
+      <c r="I38" t="s">
+        <v>275</v>
+      </c>
+      <c r="J38" t="s">
+        <v>275</v>
+      </c>
+      <c r="K38" t="s">
         <v>263</v>
       </c>
-      <c r="C38" t="s">
-        <v>263</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="L38" t="s">
+        <v>262</v>
+      </c>
+      <c r="M38" t="s">
         <v>276</v>
       </c>
-      <c r="E38" t="s">
-        <v>276</v>
-      </c>
-      <c r="F38" t="s">
-        <v>276</v>
-      </c>
-      <c r="G38" t="s">
-        <v>276</v>
-      </c>
-      <c r="H38" t="s">
-        <v>276</v>
-      </c>
-      <c r="I38" t="s">
-        <v>276</v>
-      </c>
-      <c r="J38" t="s">
-        <v>276</v>
-      </c>
-      <c r="K38" t="s">
-        <v>264</v>
-      </c>
-      <c r="L38" t="s">
-        <v>263</v>
-      </c>
-      <c r="M38" t="s">
-        <v>277</v>
-      </c>
       <c r="N38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C42" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B43" t="s">
+        <v>262</v>
+      </c>
+      <c r="C43" t="s">
+        <v>262</v>
+      </c>
+      <c r="D43" t="s">
+        <v>275</v>
+      </c>
+      <c r="E43" t="s">
         <v>263</v>
-      </c>
-      <c r="C43" t="s">
-        <v>263</v>
-      </c>
-      <c r="D43" t="s">
-        <v>276</v>
-      </c>
-      <c r="E43" t="s">
-        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -5493,10 +5549,10 @@
   </sheetPr>
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A34" sqref="A34"/>
-      <selection pane="topRight" activeCell="B20" sqref="B20"/>
+      <selection pane="topRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5514,7 +5570,7 @@
     <col min="12" max="12" width="23.90625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.6328125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21" customWidth="1"/>
     <col min="16" max="16" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21.90625" bestFit="1" customWidth="1"/>
@@ -5530,31 +5586,31 @@
         <v>173</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>290</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -5562,43 +5618,43 @@
         <v>129</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>344</v>
-      </c>
       <c r="E2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F2" t="s">
         <v>352</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>353</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>358</v>
-      </c>
       <c r="N2" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
@@ -5609,22 +5665,22 @@
         <v>150</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>367</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -5632,22 +5688,22 @@
         <v>153</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>371</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
@@ -5655,37 +5711,37 @@
         <v>135</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>344</v>
-      </c>
       <c r="E5" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>361</v>
+        <v>472</v>
       </c>
       <c r="G5" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="L5" s="13" t="s">
         <v>350</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
@@ -5693,37 +5749,37 @@
         <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D6" t="s">
         <v>343</v>
       </c>
-      <c r="D6" t="s">
-        <v>344</v>
-      </c>
       <c r="E6" t="s">
+        <v>347</v>
+      </c>
+      <c r="F6" t="s">
         <v>348</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="H6" t="s">
+        <v>457</v>
+      </c>
+      <c r="I6" t="s">
+        <v>345</v>
+      </c>
+      <c r="J6" t="s">
+        <v>346</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="L6" s="13" t="s">
         <v>350</v>
-      </c>
-      <c r="H6" t="s">
-        <v>459</v>
-      </c>
-      <c r="I6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J6" t="s">
-        <v>347</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
@@ -5731,37 +5787,37 @@
         <v>132</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>344</v>
-      </c>
       <c r="E7" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="H7" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="L7" s="13" t="s">
         <v>350</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>351</v>
       </c>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
@@ -5771,34 +5827,34 @@
         <v>138</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="F8" s="13" t="s">
+      <c r="I8" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="K8" s="13" t="s">
         <v>350</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
@@ -5806,13 +5862,13 @@
         <v>147</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
@@ -5820,37 +5876,46 @@
         <v>141</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G10" t="s">
+        <v>353</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="G10" s="13" t="s">
+      <c r="J10" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="K10" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="L10" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="N10" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>351</v>
+      <c r="O10" s="13" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
@@ -5858,247 +5923,256 @@
         <v>144</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F11" t="s">
+        <v>352</v>
+      </c>
+      <c r="G11" t="s">
+        <v>353</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="J11" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="K11" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="L11" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="N11" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>351</v>
+      <c r="O11" s="13" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D12" t="s">
         <v>308</v>
-      </c>
-      <c r="D12" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D15" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>316</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C16" t="s">
+        <v>307</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="E16" t="s">
         <v>308</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="F16" t="s">
         <v>318</v>
       </c>
-      <c r="E16" t="s">
-        <v>309</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>319</v>
-      </c>
-      <c r="G16" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C17" t="s">
+        <v>320</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="E17" t="s">
         <v>322</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>323</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>324</v>
-      </c>
-      <c r="G17" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D18" t="s">
+        <v>325</v>
+      </c>
+      <c r="E18" t="s">
         <v>326</v>
-      </c>
-      <c r="E18" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C19" t="s">
+        <v>327</v>
+      </c>
+      <c r="D19" t="s">
         <v>328</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>329</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>330</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>331</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>332</v>
-      </c>
-      <c r="H19" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C20" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="E20" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="F20" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="G20" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="H20" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="I20" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="J20" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="K20" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="L20" s="12" t="s">
         <v>341</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -6106,10 +6180,10 @@
         <v>32</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -6117,10 +6191,10 @@
         <v>36</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
@@ -6128,10 +6202,10 @@
         <v>39</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -6139,10 +6213,10 @@
         <v>42</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C24" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -6150,10 +6224,10 @@
         <v>48</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -6161,10 +6235,10 @@
         <v>51</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -6172,10 +6246,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -6183,10 +6257,10 @@
         <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C28" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -6194,10 +6268,10 @@
         <v>61</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C29" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -6205,10 +6279,10 @@
         <v>64</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -6216,10 +6290,10 @@
         <v>66</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C31" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -6227,10 +6301,10 @@
         <v>68</v>
       </c>
       <c r="B32" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="C32" t="s">
         <v>449</v>
-      </c>
-      <c r="C32" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -6238,10 +6312,10 @@
         <v>71</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C33" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -6249,10 +6323,10 @@
         <v>74</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C34" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -6260,10 +6334,10 @@
         <v>124</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -6271,10 +6345,10 @@
         <v>165</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C36" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -6282,10 +6356,10 @@
         <v>75</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -6293,10 +6367,10 @@
         <v>78</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
@@ -6304,21 +6378,21 @@
         <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C39" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B40" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C40" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
@@ -6340,10 +6414,10 @@
         <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C41" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
@@ -6351,10 +6425,10 @@
         <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -6362,10 +6436,10 @@
         <v>93</v>
       </c>
       <c r="B43" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -6373,10 +6447,10 @@
         <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C44" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -6384,10 +6458,10 @@
         <v>99</v>
       </c>
       <c r="B45" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C45" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -6395,10 +6469,10 @@
         <v>102</v>
       </c>
       <c r="B46" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C46" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
@@ -6406,10 +6480,10 @@
         <v>105</v>
       </c>
       <c r="B47" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C47" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -6417,21 +6491,21 @@
         <v>108</v>
       </c>
       <c r="B48" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C48" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B49" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C49" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="U49" s="13"/>
       <c r="V49" s="13"/>
@@ -6529,22 +6603,22 @@
         <v>173</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>377</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -6552,10 +6626,10 @@
         <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -6563,10 +6637,10 @@
         <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -6574,10 +6648,10 @@
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -6585,22 +6659,22 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D5" t="s">
         <v>386</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>387</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>388</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>389</v>
-      </c>
-      <c r="F5" t="s">
-        <v>390</v>
-      </c>
-      <c r="G5" t="s">
-        <v>391</v>
       </c>
     </row>
   </sheetData>

--- a/dds/moorings.xlsx
+++ b/dds/moorings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="530" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="474">
   <si>
     <t>Identifier</t>
   </si>
@@ -1103,12 +1103,6 @@
     <t>connecting_size</t>
   </si>
   <si>
-    <t>dry_unit_mass</t>
-  </si>
-  <si>
-    <t>wet_unit_mass</t>
-  </si>
-  <si>
     <t>cost</t>
   </si>
   <si>
@@ -1458,19 +1452,32 @@
   </si>
   <si>
     <t>Wall Thickness</t>
+  </si>
+  <si>
+    <t>dry_mass</t>
+  </si>
+  <si>
+    <t>wet_mass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1612,28 +1619,28 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1643,15 +1650,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
@@ -2008,9 +2016,9 @@
   </sheetPr>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2040,10 +2048,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -2155,7 +2163,7 @@
         <v>147</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>148</v>
@@ -2198,7 +2206,7 @@
     </row>
     <row r="12" spans="1:8" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>6</v>
@@ -2212,7 +2220,7 @@
     </row>
     <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>9</v>
@@ -2226,7 +2234,7 @@
     </row>
     <row r="14" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>9</v>
@@ -2240,7 +2248,7 @@
     </row>
     <row r="15" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>9</v>
@@ -2254,7 +2262,7 @@
     </row>
     <row r="16" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>9</v>
@@ -2272,7 +2280,7 @@
     </row>
     <row r="17" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>9</v>
@@ -2286,7 +2294,7 @@
     </row>
     <row r="18" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>9</v>
@@ -2300,7 +2308,7 @@
     </row>
     <row r="19" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>9</v>
@@ -2314,7 +2322,7 @@
     </row>
     <row r="20" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>26</v>
@@ -2490,7 +2498,7 @@
         <v>65</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -2510,7 +2518,7 @@
         <v>67</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G31" s="15" t="s">
         <v>33</v>
@@ -2547,7 +2555,7 @@
         <v>73</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G33" s="15" t="s">
         <v>33</v>
@@ -2561,10 +2569,10 @@
         <v>24</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G34" s="15" t="s">
         <v>33</v>
@@ -2581,7 +2589,7 @@
         <v>125</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G35" s="15" t="s">
         <v>33</v>
@@ -2603,9 +2611,6 @@
       <c r="G36" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H36" s="15" t="s">
-        <v>158</v>
-      </c>
     </row>
     <row r="37" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="s">
@@ -2660,20 +2665,22 @@
     </row>
     <row r="40" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
+      <c r="G40" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="H40" s="15"/>
     </row>
     <row r="41" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -2826,7 +2833,7 @@
     </row>
     <row r="49" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>24</v>
@@ -2835,15 +2842,18 @@
         <v>25</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>432</v>
+        <v>430</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="14" t="s">
-        <v>24</v>
+      <c r="B50" s="23" t="s">
+        <v>28</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>116</v>
@@ -2860,8 +2870,8 @@
       <c r="A51" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B51" s="14" t="s">
-        <v>24</v>
+      <c r="B51" s="23" t="s">
+        <v>28</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>119</v>
@@ -2878,8 +2888,8 @@
       <c r="A52" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B52" s="14" t="s">
-        <v>24</v>
+      <c r="B52" s="23" t="s">
+        <v>28</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>122</v>
@@ -2890,13 +2900,13 @@
     </row>
     <row r="53" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="20" t="s">
-        <v>433</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>24</v>
+        <v>431</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>28</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>29</v>
@@ -2908,10 +2918,10 @@
     </row>
     <row r="54" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>24</v>
+        <v>433</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>28</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>46</v>
@@ -2928,7 +2938,7 @@
     </row>
     <row r="55" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>159</v>
@@ -2948,7 +2958,7 @@
     </row>
     <row r="56" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>159</v>
@@ -2963,7 +2973,7 @@
     </row>
     <row r="57" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="19" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>28</v>
@@ -2981,7 +2991,7 @@
     </row>
     <row r="58" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="19" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>28</v>
@@ -2999,7 +3009,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="19" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>28</v>
@@ -3017,7 +3027,7 @@
     </row>
     <row r="60" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>159</v>
@@ -3035,13 +3045,13 @@
     </row>
     <row r="61" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>172</v>
@@ -3053,13 +3063,13 @@
     </row>
     <row r="62" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>160</v>
@@ -3070,13 +3080,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>157</v>
@@ -3090,7 +3100,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>159</v>
@@ -3107,13 +3117,13 @@
     </row>
     <row r="65" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="19" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>31</v>
@@ -3141,7 +3151,7 @@
   </sheetPr>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E5" sqref="E5"/>
     </sheetView>
@@ -3227,7 +3237,7 @@
         <v>228</v>
       </c>
       <c r="J2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="K2" t="s">
         <v>216</v>
@@ -3294,7 +3304,7 @@
         <v>217</v>
       </c>
       <c r="E5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F5" t="s">
         <v>219</v>
@@ -3309,7 +3319,7 @@
         <v>230</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>222</v>
@@ -3338,13 +3348,13 @@
         <v>220</v>
       </c>
       <c r="H6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="I6" t="s">
         <v>216</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>222</v>
@@ -3373,13 +3383,13 @@
         <v>220</v>
       </c>
       <c r="H7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="I7" t="s">
         <v>216</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>222</v>
@@ -3408,10 +3418,10 @@
         <v>215</v>
       </c>
       <c r="H8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>222</v>
@@ -3428,7 +3438,7 @@
         <v>231</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
@@ -3451,7 +3461,7 @@
         <v>225</v>
       </c>
       <c r="G10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H10" t="s">
         <v>218</v>
@@ -3463,7 +3473,7 @@
         <v>228</v>
       </c>
       <c r="K10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L10" t="s">
         <v>216</v>
@@ -3495,7 +3505,7 @@
         <v>225</v>
       </c>
       <c r="G11" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H11" t="s">
         <v>218</v>
@@ -3507,7 +3517,7 @@
         <v>228</v>
       </c>
       <c r="K11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="L11" t="s">
         <v>216</v>
@@ -3521,7 +3531,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B12" t="s">
         <v>180</v>
@@ -3532,7 +3542,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>182</v>
@@ -3564,7 +3574,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B14" t="s">
         <v>182</v>
@@ -3587,7 +3597,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B15" t="s">
         <v>182</v>
@@ -3601,7 +3611,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B16" t="s">
         <v>180</v>
@@ -3610,18 +3620,18 @@
         <v>190</v>
       </c>
       <c r="D16" t="s">
+        <v>462</v>
+      </c>
+      <c r="E16" t="s">
+        <v>463</v>
+      </c>
+      <c r="F16" t="s">
         <v>464</v>
-      </c>
-      <c r="E16" t="s">
-        <v>465</v>
-      </c>
-      <c r="F16" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B17" t="s">
         <v>191</v>
@@ -3641,7 +3651,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B18" t="s">
         <v>191</v>
@@ -3655,7 +3665,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B19" t="s">
         <v>198</v>
@@ -3678,7 +3688,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B20" t="s">
         <v>204</v>
@@ -3713,7 +3723,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B21" t="s">
         <v>238</v>
@@ -3757,7 +3767,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B22" t="s">
         <v>248</v>
@@ -3774,7 +3784,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B23" t="s">
         <v>249</v>
@@ -3785,7 +3795,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B24" t="s">
         <v>250</v>
@@ -3799,7 +3809,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B25" t="s">
         <v>213</v>
@@ -3816,7 +3826,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B26" t="s">
         <v>249</v>
@@ -4201,7 +4211,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>259</v>
@@ -4230,7 +4240,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B12" t="s">
         <v>259</v>
@@ -4253,7 +4263,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B13" t="s">
         <v>259</v>
@@ -4276,7 +4286,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B14" t="s">
         <v>259</v>
@@ -4290,7 +4300,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B15" t="s">
         <v>259</v>
@@ -4310,7 +4320,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B16" t="s">
         <v>259</v>
@@ -4330,7 +4340,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B17" t="s">
         <v>259</v>
@@ -4344,7 +4354,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B18" t="s">
         <v>259</v>
@@ -4367,7 +4377,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B19" t="s">
         <v>260</v>
@@ -4546,7 +4556,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>259</v>
@@ -4618,7 +4628,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B47" t="s">
         <v>259</v>
@@ -4650,7 +4660,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B51" t="s">
         <v>259</v>
@@ -4658,7 +4668,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B52" t="s">
         <v>259</v>
@@ -4666,7 +4676,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B53" t="s">
         <v>260</v>
@@ -4710,7 +4720,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B54" t="s">
         <v>259</v>
@@ -4727,7 +4737,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B55" t="s">
         <v>259</v>
@@ -4735,7 +4745,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B56" t="s">
         <v>259</v>
@@ -4743,7 +4753,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B57" t="s">
         <v>259</v>
@@ -4751,7 +4761,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B58" t="s">
         <v>260</v>
@@ -4762,7 +4772,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B59" t="s">
         <v>260</v>
@@ -4776,7 +4786,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B60" t="s">
         <v>260</v>
@@ -4793,7 +4803,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B61" t="s">
         <v>260</v>
@@ -4810,7 +4820,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B62" t="s">
         <v>260</v>
@@ -4896,7 +4906,7 @@
         <v>280</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M2" s="13" t="s">
         <v>262</v>
@@ -4932,7 +4942,7 @@
         <v>270</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>262</v>
@@ -4967,7 +4977,7 @@
         <v>280</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>262</v>
@@ -5002,7 +5012,7 @@
         <v>280</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>262</v>
@@ -5034,7 +5044,7 @@
         <v>279</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>262</v>
@@ -5089,7 +5099,7 @@
         <v>280</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="N8" s="13" t="s">
         <v>262</v>
@@ -5133,7 +5143,7 @@
         <v>280</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="N9" s="13" t="s">
         <v>262</v>
@@ -5141,7 +5151,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B10" t="s">
         <v>269</v>
@@ -5152,7 +5162,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B11" t="s">
         <v>269</v>
@@ -5172,7 +5182,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B12" t="s">
         <v>262</v>
@@ -5384,7 +5394,7 @@
         <v>115</v>
       </c>
       <c r="B34" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
@@ -5392,7 +5402,7 @@
         <v>118</v>
       </c>
       <c r="B35" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
@@ -5400,20 +5410,20 @@
         <v>121</v>
       </c>
       <c r="B36" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B37" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B38" t="s">
         <v>262</v>
@@ -5457,7 +5467,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B39" t="s">
         <v>262</v>
@@ -5474,7 +5484,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B40" t="s">
         <v>262</v>
@@ -5485,7 +5495,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B41" t="s">
         <v>262</v>
@@ -5499,13 +5509,13 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B42" t="s">
         <v>262</v>
       </c>
       <c r="C42" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D42" t="s">
         <v>262</v>
@@ -5516,7 +5526,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B43" t="s">
         <v>262</v>
@@ -5549,10 +5559,10 @@
   </sheetPr>
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="A34" sqref="A34"/>
-      <selection pane="topRight" activeCell="F5" sqref="F5"/>
+      <selection pane="topRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5618,7 +5628,7 @@
         <v>129</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>342</v>
@@ -5639,10 +5649,10 @@
         <v>354</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>355</v>
+        <v>472</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>356</v>
+        <v>473</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>345</v>
@@ -5651,7 +5661,7 @@
         <v>346</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>350</v>
@@ -5665,22 +5675,22 @@
         <v>150</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>342</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>365</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -5688,22 +5698,22 @@
         <v>153</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>342</v>
       </c>
       <c r="D4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>369</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
@@ -5711,7 +5721,7 @@
         <v>135</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>342</v>
@@ -5723,22 +5733,22 @@
         <v>347</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>349</v>
       </c>
       <c r="H5" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="K5" s="13" t="s">
         <v>457</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>459</v>
       </c>
       <c r="L5" s="13" t="s">
         <v>350</v>
@@ -5749,7 +5759,7 @@
         <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C6" t="s">
         <v>342</v>
@@ -5767,7 +5777,7 @@
         <v>349</v>
       </c>
       <c r="H6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I6" t="s">
         <v>345</v>
@@ -5776,7 +5786,7 @@
         <v>346</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L6" s="13" t="s">
         <v>350</v>
@@ -5787,7 +5797,7 @@
         <v>132</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>342</v>
@@ -5805,7 +5815,7 @@
         <v>349</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>345</v>
@@ -5814,7 +5824,7 @@
         <v>346</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L7" s="13" t="s">
         <v>350</v>
@@ -5827,7 +5837,7 @@
         <v>138</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>342</v>
@@ -5842,7 +5852,7 @@
         <v>349</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>344</v>
@@ -5851,7 +5861,7 @@
         <v>345</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>350</v>
@@ -5862,13 +5872,13 @@
         <v>147</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>342</v>
       </c>
       <c r="D9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
@@ -5876,7 +5886,7 @@
         <v>141</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>342</v>
@@ -5894,16 +5904,16 @@
         <v>353</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>348</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>355</v>
+        <v>472</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>356</v>
+        <v>473</v>
       </c>
       <c r="L10" s="13" t="s">
         <v>345</v>
@@ -5912,7 +5922,7 @@
         <v>346</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O10" s="13" t="s">
         <v>350</v>
@@ -5923,7 +5933,7 @@
         <v>144</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>342</v>
@@ -5941,16 +5951,16 @@
         <v>353</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>348</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>355</v>
+        <v>472</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>356</v>
+        <v>473</v>
       </c>
       <c r="L11" s="13" t="s">
         <v>345</v>
@@ -5959,7 +5969,7 @@
         <v>346</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O11" s="13" t="s">
         <v>350</v>
@@ -5967,10 +5977,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>307</v>
@@ -5981,10 +5991,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>309</v>
@@ -6007,10 +6017,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>309</v>
@@ -6033,10 +6043,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>309</v>
@@ -6050,10 +6060,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C16" t="s">
         <v>307</v>
@@ -6073,10 +6083,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C17" t="s">
         <v>320</v>
@@ -6096,10 +6106,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C18" t="s">
         <v>320</v>
@@ -6113,10 +6123,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C19" t="s">
         <v>327</v>
@@ -6139,10 +6149,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>333</v>
@@ -6180,7 +6190,7 @@
         <v>32</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C21" t="s">
         <v>291</v>
@@ -6191,7 +6201,7 @@
         <v>36</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C22" t="s">
         <v>292</v>
@@ -6202,7 +6212,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C23" t="s">
         <v>293</v>
@@ -6213,10 +6223,10 @@
         <v>42</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C24" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -6224,7 +6234,7 @@
         <v>48</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C25" t="s">
         <v>296</v>
@@ -6235,10 +6245,10 @@
         <v>51</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C26" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -6246,7 +6256,7 @@
         <v>55</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C27" t="s">
         <v>297</v>
@@ -6257,10 +6267,10 @@
         <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C28" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -6268,10 +6278,10 @@
         <v>61</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C29" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -6279,7 +6289,7 @@
         <v>64</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C30" t="s">
         <v>353</v>
@@ -6290,10 +6300,10 @@
         <v>66</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C31" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -6301,10 +6311,10 @@
         <v>68</v>
       </c>
       <c r="B32" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="C32" t="s">
         <v>447</v>
-      </c>
-      <c r="C32" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -6312,10 +6322,10 @@
         <v>71</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C33" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -6323,10 +6333,10 @@
         <v>74</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C34" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -6334,7 +6344,7 @@
         <v>124</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C35" t="s">
         <v>351</v>
@@ -6345,10 +6355,10 @@
         <v>165</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C36" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -6356,7 +6366,7 @@
         <v>75</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C37" t="s">
         <v>294</v>
@@ -6367,7 +6377,7 @@
         <v>78</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C38" t="s">
         <v>295</v>
@@ -6378,21 +6388,21 @@
         <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C39" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B40" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C40" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
@@ -6414,7 +6424,7 @@
         <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C41" t="s">
         <v>299</v>
@@ -6425,7 +6435,7 @@
         <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C42" t="s">
         <v>300</v>
@@ -6436,7 +6446,7 @@
         <v>93</v>
       </c>
       <c r="B43" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C43" t="s">
         <v>303</v>
@@ -6447,7 +6457,7 @@
         <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C44" t="s">
         <v>304</v>
@@ -6458,7 +6468,7 @@
         <v>99</v>
       </c>
       <c r="B45" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C45" t="s">
         <v>305</v>
@@ -6469,7 +6479,7 @@
         <v>102</v>
       </c>
       <c r="B46" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C46" t="s">
         <v>301</v>
@@ -6480,7 +6490,7 @@
         <v>105</v>
       </c>
       <c r="B47" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C47" t="s">
         <v>302</v>
@@ -6491,7 +6501,7 @@
         <v>108</v>
       </c>
       <c r="B48" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C48" t="s">
         <v>306</v>
@@ -6499,10 +6509,10 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B49" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C49" t="s">
         <v>298</v>
@@ -6603,22 +6613,22 @@
         <v>173</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>375</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -6626,10 +6636,10 @@
         <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -6637,10 +6647,10 @@
         <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -6648,10 +6658,10 @@
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -6659,22 +6669,22 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D5" t="s">
         <v>384</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>385</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>386</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>387</v>
-      </c>
-      <c r="F5" t="s">
-        <v>388</v>
-      </c>
-      <c r="G5" t="s">
-        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/dds/moorings.xlsx
+++ b/dds/moorings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="530" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="530"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="475">
   <si>
     <t>Identifier</t>
   </si>
@@ -1458,19 +1458,29 @@
   </si>
   <si>
     <t>wet_mass</t>
+  </si>
+  <si>
+    <t>Soil Properties Table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1619,28 +1629,28 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1650,16 +1660,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
@@ -2016,9 +2027,9 @@
   </sheetPr>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2327,8 +2338,8 @@
       <c r="B20" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>27</v>
+      <c r="C20" s="24" t="s">
+        <v>474</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>27</v>
@@ -5559,7 +5570,7 @@
   </sheetPr>
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="A34" sqref="A34"/>
       <selection pane="topRight" activeCell="I2" sqref="I2"/>

--- a/dds/moorings.xlsx
+++ b/dds/moorings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,10 +22,15 @@
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Types!$A$1:$U$62</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Units!$A$1:$U$43</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ROOT!$A$1:$H$64</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">ROOT!$A$1:$H$64</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Labels!$A$1:$P$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Labels!$A$1:$P$25</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Types!$A$1:$U$62</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Types!$A$1:$U$62</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Units!$A$1:$U$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Units!$A$1:$U$43</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Tables!$A$1:$Q$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">Tables!$A$1:$Q$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="481">
   <si>
     <t xml:space="preserve">Identifier</t>
   </si>
@@ -294,10 +299,10 @@
     <t xml:space="preserve">device.foundation_type</t>
   </si>
   <si>
-    <t xml:space="preserve">Foundation Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Predefined foundation type</t>
+    <t xml:space="preserve">Preferred Foundation Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred foundation type</t>
   </si>
   <si>
     <t xml:space="preserve">device.maximum_displacement</t>
@@ -691,6 +696,15 @@
   </si>
   <si>
     <t xml:space="preserve">Ignore single device forces calculated by the hydrodynamics module and use internal estimation instead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">options.repeat_foundations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Repeated Foundations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use a single foundation design per device for all foundation locations. This does not apply where a device has mixed foundation types.</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -1517,18 +1531,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC5E0B4"/>
-        <bgColor rgb="FFDBDBDB"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1568,7 +1576,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1595,9 +1603,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1612,19 +1617,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1665,15 +1670,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in 40% - Accent6" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in 40% - Accent3" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1691,7 +1695,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC5E0B4"/>
+      <rgbColor rgb="FFDBDBDB"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -1711,7 +1715,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -1764,22 +1768,22 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B40" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
-      <selection pane="topRight" activeCell="A66" activeCellId="0" sqref="A66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B19" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topRight" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="100.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="9" style="0" width="17.36"/>
@@ -2895,6 +2899,20 @@
       </c>
       <c r="D66" s="0" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2928,20 +2946,20 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="35.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="27.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="20.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="18.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="20.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="19.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="8.09"/>
@@ -2949,31 +2967,31 @@
   <sheetData>
     <row r="1" s="8" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2981,40 +2999,40 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q2" s="10"/>
     </row>
@@ -3023,19 +3041,19 @@
         <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3043,19 +3061,19 @@
         <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3063,34 +3081,34 @@
         <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3098,34 +3116,34 @@
         <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3133,34 +3151,34 @@
         <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3168,31 +3186,31 @@
         <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3200,13 +3218,13 @@
         <v>30</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3214,43 +3232,43 @@
         <v>34</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3258,43 +3276,43 @@
         <v>37</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3302,10 +3320,10 @@
         <v>40</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3313,22 +3331,22 @@
         <v>44</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -3345,22 +3363,22 @@
         <v>48</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3368,13 +3386,13 @@
         <v>51</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3382,19 +3400,19 @@
         <v>54</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3402,19 +3420,19 @@
         <v>57</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3422,13 +3440,13 @@
         <v>60</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3436,22 +3454,22 @@
         <v>63</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3459,34 +3477,34 @@
         <v>66</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>160</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3494,43 +3512,43 @@
         <v>178</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3538,16 +3556,16 @@
         <v>183</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3555,10 +3573,10 @@
         <v>195</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3566,13 +3584,13 @@
         <v>198</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3580,16 +3598,16 @@
         <v>201</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3597,16 +3615,16 @@
         <v>208</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -3628,10 +3646,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U63"/>
+  <dimension ref="A1:U64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3642,25 +3660,25 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3668,40 +3686,40 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -3712,19 +3730,19 @@
         <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3732,19 +3750,19 @@
         <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3752,34 +3770,34 @@
         <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
@@ -3789,34 +3807,34 @@
         <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
@@ -3826,34 +3844,34 @@
         <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -3863,31 +3881,31 @@
         <v>27</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -3897,43 +3915,43 @@
         <v>34</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3941,43 +3959,43 @@
         <v>37</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3985,10 +4003,10 @@
         <v>40</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -4014,22 +4032,22 @@
         <v>44</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4037,22 +4055,22 @@
         <v>48</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4060,13 +4078,13 @@
         <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4074,19 +4092,19 @@
         <v>54</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4094,19 +4112,19 @@
         <v>57</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4114,13 +4132,13 @@
         <v>60</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4128,22 +4146,22 @@
         <v>63</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4151,34 +4169,34 @@
         <v>66</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4186,7 +4204,7 @@
         <v>69</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4194,7 +4212,7 @@
         <v>74</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4202,7 +4220,7 @@
         <v>77</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4210,7 +4228,7 @@
         <v>84</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4218,7 +4236,7 @@
         <v>87</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4226,7 +4244,7 @@
         <v>91</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4234,7 +4252,7 @@
         <v>94</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4242,7 +4260,7 @@
         <v>97</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4250,7 +4268,7 @@
         <v>100</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4258,7 +4276,7 @@
         <v>103</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4266,7 +4284,7 @@
         <v>106</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4274,7 +4292,7 @@
         <v>109</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4282,7 +4300,7 @@
         <v>113</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4290,7 +4308,7 @@
         <v>116</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4298,7 +4316,7 @@
         <v>119</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4306,7 +4324,7 @@
         <v>122</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4314,7 +4332,7 @@
         <v>125</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4322,7 +4340,7 @@
         <v>128</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4330,7 +4348,7 @@
         <v>132</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4338,7 +4356,7 @@
         <v>135</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4346,7 +4364,7 @@
         <v>138</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4354,7 +4372,7 @@
         <v>141</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4362,7 +4380,7 @@
         <v>144</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4370,7 +4388,7 @@
         <v>147</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4378,7 +4396,7 @@
         <v>150</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4386,7 +4404,7 @@
         <v>153</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4394,7 +4412,7 @@
         <v>156</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4402,7 +4420,7 @@
         <v>159</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4410,7 +4428,7 @@
         <v>162</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4418,7 +4436,7 @@
         <v>166</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4426,7 +4444,7 @@
         <v>169</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4434,7 +4452,7 @@
         <v>172</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4442,7 +4460,7 @@
         <v>175</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4450,43 +4468,43 @@
         <v>178</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4494,16 +4512,16 @@
         <v>183</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4511,7 +4529,7 @@
         <v>186</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4519,7 +4537,7 @@
         <v>189</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4527,7 +4545,7 @@
         <v>192</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4535,10 +4553,10 @@
         <v>195</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4546,13 +4564,13 @@
         <v>198</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4560,16 +4578,16 @@
         <v>201</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4577,16 +4595,16 @@
         <v>208</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4594,7 +4612,7 @@
         <v>211</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4602,7 +4620,15 @@
         <v>215</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -4632,25 +4658,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="17.36"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4658,40 +4684,40 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J2" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>320</v>
       </c>
       <c r="N2" s="9"/>
     </row>
@@ -4700,34 +4726,34 @@
         <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4735,34 +4761,34 @@
         <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="H4" s="0" t="s">
+      <c r="I4" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4770,34 +4796,34 @@
         <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="H5" s="0" t="s">
+      <c r="I5" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4805,31 +4831,31 @@
         <v>27</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="H6" s="0" t="s">
+      <c r="I6" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4837,10 +4863,10 @@
         <v>30</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4848,43 +4874,43 @@
         <v>34</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K8" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="N8" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4892,43 +4918,43 @@
         <v>37</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K9" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="N9" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4936,10 +4962,10 @@
         <v>40</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4947,19 +4973,19 @@
         <v>54</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4967,34 +4993,34 @@
         <v>66</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5002,7 +5028,7 @@
         <v>74</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5010,7 +5036,7 @@
         <v>77</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5018,13 +5044,13 @@
         <v>80</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5032,7 +5058,7 @@
         <v>87</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5040,7 +5066,7 @@
         <v>94</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5048,7 +5074,7 @@
         <v>97</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5056,7 +5082,7 @@
         <v>100</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5064,7 +5090,7 @@
         <v>103</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5072,7 +5098,7 @@
         <v>106</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5080,7 +5106,7 @@
         <v>113</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5088,7 +5114,7 @@
         <v>116</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5096,7 +5122,7 @@
         <v>122</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5104,7 +5130,7 @@
         <v>125</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5112,7 +5138,7 @@
         <v>135</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5120,7 +5146,7 @@
         <v>138</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5128,7 +5154,7 @@
         <v>141</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5136,7 +5162,7 @@
         <v>144</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5144,7 +5170,7 @@
         <v>147</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5152,7 +5178,7 @@
         <v>150</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5160,7 +5186,7 @@
         <v>153</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5168,7 +5194,7 @@
         <v>156</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5176,7 +5202,7 @@
         <v>162</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5184,7 +5210,7 @@
         <v>166</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5192,7 +5218,7 @@
         <v>169</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5200,7 +5226,7 @@
         <v>172</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5208,43 +5234,43 @@
         <v>178</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5252,16 +5278,16 @@
         <v>183</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5269,10 +5295,10 @@
         <v>195</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5280,13 +5306,13 @@
         <v>198</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5294,16 +5320,16 @@
         <v>201</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5311,16 +5337,16 @@
         <v>208</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -5357,55 +5383,55 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="35.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="40.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="48.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="40.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="48.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="24.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="20.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="21.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="10.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="20.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="18.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="19.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="19.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="17.36"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5413,43 +5439,43 @@
         <v>8</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
@@ -5460,22 +5486,22 @@
         <v>12</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5483,22 +5509,22 @@
         <v>15</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5506,37 +5532,37 @@
         <v>18</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5544,37 +5570,37 @@
         <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5582,37 +5608,37 @@
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>376</v>
-      </c>
       <c r="L7" s="9" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -5622,34 +5648,34 @@
         <v>27</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5657,13 +5683,13 @@
         <v>30</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5671,46 +5697,46 @@
         <v>34</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5718,46 +5744,46 @@
         <v>37</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5765,13 +5791,13 @@
         <v>40</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5779,25 +5805,25 @@
         <v>44</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5805,25 +5831,25 @@
         <v>48</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>393</v>
-      </c>
       <c r="G14" s="10" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5831,16 +5857,16 @@
         <v>51</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5848,22 +5874,22 @@
         <v>54</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5871,22 +5897,22 @@
         <v>57</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5894,16 +5920,16 @@
         <v>60</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5911,25 +5937,25 @@
         <v>63</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5937,37 +5963,37 @@
         <v>66</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5975,10 +6001,10 @@
         <v>69</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5986,10 +6012,10 @@
         <v>74</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5997,10 +6023,10 @@
         <v>77</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6008,10 +6034,10 @@
         <v>80</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6019,10 +6045,10 @@
         <v>84</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6030,10 +6056,10 @@
         <v>87</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6041,10 +6067,10 @@
         <v>91</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6052,10 +6078,10 @@
         <v>94</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6063,10 +6089,10 @@
         <v>97</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6074,10 +6100,10 @@
         <v>100</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6085,10 +6111,10 @@
         <v>103</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6096,10 +6122,10 @@
         <v>106</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6107,10 +6133,10 @@
         <v>109</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6118,10 +6144,10 @@
         <v>113</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6129,10 +6155,10 @@
         <v>116</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6140,10 +6166,10 @@
         <v>119</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6151,10 +6177,10 @@
         <v>122</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6162,10 +6188,10 @@
         <v>125</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6173,10 +6199,10 @@
         <v>128</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40" s="9" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6184,10 +6210,10 @@
         <v>132</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6195,10 +6221,10 @@
         <v>135</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6206,10 +6232,10 @@
         <v>138</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6217,10 +6243,10 @@
         <v>141</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6228,10 +6254,10 @@
         <v>144</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6239,10 +6265,10 @@
         <v>147</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6250,10 +6276,10 @@
         <v>150</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6261,10 +6287,10 @@
         <v>153</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6272,10 +6298,10 @@
         <v>156</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6283,10 +6309,10 @@
         <v>159</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="U49" s="9"/>
       <c r="V49" s="9"/>
@@ -6319,31 +6345,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="17.36"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6351,10 +6377,10 @@
         <v>128</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6362,10 +6388,10 @@
         <v>109</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6373,10 +6399,10 @@
         <v>91</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6384,22 +6410,22 @@
         <v>84</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/dds/moorings.xlsx
+++ b/dds/moorings.xlsx
@@ -23,14 +23,19 @@
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Units!$A$1:$U$43</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ROOT!$A$1:$H$64</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">ROOT!$A$1:$H$64</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">ROOT!$A$1:$H$64</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Labels!$A$1:$P$25</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Labels!$A$1:$P$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Labels!$A$1:$P$25</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Types!$A$1:$U$62</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Types!$A$1:$U$62</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Types!$A$1:$U$62</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Units!$A$1:$U$43</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Units!$A$1:$U$43</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Units!$A$1:$U$43</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Tables!$A$1:$Q$48</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">Tables!$A$1:$Q$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Tables!$A$1:$Q$48</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -404,10 +409,10 @@
     <t xml:space="preserve">device.umbilical_type</t>
   </si>
   <si>
-    <t xml:space="preserve">Umbilical Cable Identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of umbilical cable required for floating devices</t>
+    <t xml:space="preserve">Predefined Umbilical Cable Identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predefined umbilical cable identifier</t>
   </si>
   <si>
     <t xml:space="preserve">device.wet_beam_area</t>
@@ -1770,10 +1775,10 @@
   </sheetPr>
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B19" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
-      <selection pane="topRight" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B25" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="topRight" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2946,7 +2951,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="35.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="24"/>
@@ -5390,7 +5395,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.09"/>
@@ -5398,7 +5403,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="10.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="20.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="18.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="19.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="19.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="17.36"/>
   </cols>
   <sheetData>

--- a/dds/moorings.xlsx
+++ b/dds/moorings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Python\git\dtocean-core\dds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489F5891-E74C-4B83-8216-C29EBA49D002}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBECE4D-C861-46EE-9AB7-84C68DFDF995}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -3158,9 +3158,9 @@
   </sheetPr>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3863,7 +3863,7 @@
   <dimension ref="A1:U64"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4735,7 +4735,7 @@
         <v>313</v>
       </c>
       <c r="E54" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -4859,7 +4859,7 @@
   </sheetPr>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -6630,7 +6630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D3FEB9-F392-4ED5-9FBD-1CEC6E15BEA5}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/dds/moorings.xlsx
+++ b/dds/moorings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Python\git\dtocean-core\dds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBECE4D-C861-46EE-9AB7-84C68DFDF995}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C6FF42-748B-481A-B16B-C10FE816166E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1">Labels!$A$1:$P$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">ROOT!$A$1:$H$64</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4">Tables!$A$1:$Q$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">Types!$A$1:$U$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2">Types!$A$1:$U$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">Units!$A$1:$U$43</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Labels!$A$1:$P$25</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">ROOT!$A$1:$H$64</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">Tables!$A$1:$Q$48</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="2">Types!$A$1:$U$62</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="2">Types!$A$1:$U$63</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="3">Units!$A$1:$U$43</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Labels!$A$1:$P$25</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">ROOT!$A$1:$H$64</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">Tables!$A$1:$Q$48</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="2">Types!$A$1:$U$62</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="2">Types!$A$1:$U$63</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="3">Units!$A$1:$U$43</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="482">
   <si>
     <t>Identifier</t>
   </si>
@@ -1999,10 +1999,10 @@
   </sheetPr>
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A25" sqref="A25"/>
-      <selection pane="topRight" activeCell="A66" sqref="A66"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3158,9 +3158,9 @@
   </sheetPr>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C23" sqref="C23"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3860,10 +3860,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:U64"/>
+  <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4125,52 +4125,20 @@
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>34</v>
+      <c r="A9" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>312</v>
       </c>
-      <c r="C9" t="s">
-        <v>312</v>
-      </c>
-      <c r="D9" t="s">
-        <v>313</v>
-      </c>
-      <c r="E9" t="s">
-        <v>313</v>
-      </c>
-      <c r="F9" t="s">
-        <v>313</v>
-      </c>
-      <c r="G9" t="s">
-        <v>313</v>
-      </c>
-      <c r="H9" t="s">
-        <v>313</v>
-      </c>
-      <c r="I9" t="s">
-        <v>313</v>
-      </c>
-      <c r="J9" t="s">
-        <v>313</v>
-      </c>
-      <c r="K9" t="s">
-        <v>313</v>
-      </c>
-      <c r="L9" t="s">
-        <v>313</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>312</v>
-      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>312</v>
@@ -4213,60 +4181,81 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E11" t="s">
+        <v>313</v>
+      </c>
+      <c r="F11" t="s">
+        <v>313</v>
+      </c>
+      <c r="G11" t="s">
+        <v>313</v>
+      </c>
+      <c r="H11" t="s">
+        <v>313</v>
+      </c>
+      <c r="I11" t="s">
+        <v>313</v>
+      </c>
+      <c r="J11" t="s">
+        <v>313</v>
+      </c>
+      <c r="K11" t="s">
+        <v>313</v>
+      </c>
+      <c r="L11" t="s">
+        <v>313</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>313</v>
-      </c>
-      <c r="C12" t="s">
-        <v>313</v>
-      </c>
-      <c r="D12" t="s">
-        <v>313</v>
-      </c>
-      <c r="E12" t="s">
-        <v>313</v>
-      </c>
-      <c r="F12" t="s">
-        <v>313</v>
-      </c>
-      <c r="G12" t="s">
-        <v>313</v>
-      </c>
+      <c r="B12" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
         <v>313</v>
@@ -4289,7 +4278,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
         <v>313</v>
@@ -4298,12 +4287,21 @@
         <v>313</v>
       </c>
       <c r="D14" t="s">
+        <v>313</v>
+      </c>
+      <c r="E14" t="s">
+        <v>313</v>
+      </c>
+      <c r="F14" t="s">
+        <v>313</v>
+      </c>
+      <c r="G14" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
         <v>313</v>
@@ -4312,18 +4310,12 @@
         <v>313</v>
       </c>
       <c r="D15" t="s">
-        <v>313</v>
-      </c>
-      <c r="E15" t="s">
-        <v>313</v>
-      </c>
-      <c r="F15" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
         <v>313</v>
@@ -4343,7 +4335,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
         <v>313</v>
@@ -4352,86 +4344,98 @@
         <v>313</v>
       </c>
       <c r="D17" t="s">
+        <v>313</v>
+      </c>
+      <c r="E17" t="s">
+        <v>313</v>
+      </c>
+      <c r="F17" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>313</v>
+      </c>
+      <c r="C18" t="s">
+        <v>313</v>
+      </c>
+      <c r="D18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>63</v>
       </c>
-      <c r="B18" t="s">
-        <v>313</v>
-      </c>
-      <c r="C18" t="s">
-        <v>313</v>
-      </c>
-      <c r="D18" t="s">
-        <v>313</v>
-      </c>
-      <c r="E18" t="s">
-        <v>313</v>
-      </c>
-      <c r="F18" t="s">
-        <v>313</v>
-      </c>
-      <c r="G18" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="B19" t="s">
+        <v>313</v>
+      </c>
+      <c r="C19" t="s">
+        <v>313</v>
+      </c>
+      <c r="D19" t="s">
+        <v>313</v>
+      </c>
+      <c r="E19" t="s">
+        <v>313</v>
+      </c>
+      <c r="F19" t="s">
+        <v>313</v>
+      </c>
+      <c r="G19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>312</v>
       </c>
-      <c r="C19" t="s">
-        <v>313</v>
-      </c>
-      <c r="D19" t="s">
-        <v>313</v>
-      </c>
-      <c r="E19" t="s">
-        <v>313</v>
-      </c>
-      <c r="F19" t="s">
-        <v>313</v>
-      </c>
-      <c r="G19" t="s">
-        <v>313</v>
-      </c>
-      <c r="H19" t="s">
-        <v>313</v>
-      </c>
-      <c r="I19" t="s">
-        <v>313</v>
-      </c>
-      <c r="J19" t="s">
-        <v>313</v>
-      </c>
-      <c r="K19" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" t="s">
-        <v>314</v>
+      <c r="C20" t="s">
+        <v>313</v>
+      </c>
+      <c r="D20" t="s">
+        <v>313</v>
+      </c>
+      <c r="E20" t="s">
+        <v>313</v>
+      </c>
+      <c r="F20" t="s">
+        <v>313</v>
+      </c>
+      <c r="G20" t="s">
+        <v>313</v>
+      </c>
+      <c r="H20" t="s">
+        <v>313</v>
+      </c>
+      <c r="I20" t="s">
+        <v>313</v>
+      </c>
+      <c r="J20" t="s">
+        <v>313</v>
+      </c>
+      <c r="K20" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
         <v>313</v>
@@ -4439,39 +4443,39 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
         <v>313</v>
@@ -4479,7 +4483,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
         <v>313</v>
@@ -4487,7 +4491,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
         <v>313</v>
@@ -4495,7 +4499,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
         <v>313</v>
@@ -4503,23 +4507,23 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B33" t="s">
         <v>313</v>
@@ -4527,23 +4531,23 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B34" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B36" t="s">
         <v>313</v>
@@ -4551,31 +4555,31 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>132</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>313</v>
+        <v>128</v>
+      </c>
+      <c r="B38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>135</v>
-      </c>
-      <c r="B39" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="14" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B40" t="s">
         <v>313</v>
@@ -4583,15 +4587,15 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>141</v>
-      </c>
-      <c r="B41" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>313</v>
@@ -4599,15 +4603,15 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>147</v>
-      </c>
-      <c r="B43" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="14" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B44" t="s">
         <v>313</v>
@@ -4615,7 +4619,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B45" t="s">
         <v>313</v>
@@ -4623,7 +4627,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s">
         <v>313</v>
@@ -4631,7 +4635,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B47" t="s">
         <v>313</v>
@@ -4639,7 +4643,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B48" t="s">
         <v>313</v>
@@ -4647,7 +4651,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B49" t="s">
         <v>313</v>
@@ -4655,23 +4659,23 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>169</v>
       </c>
-      <c r="B50" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="B51" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
         <v>172</v>
-      </c>
-      <c r="B51" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>175</v>
       </c>
       <c r="B52" t="s">
         <v>313</v>
@@ -4679,54 +4683,18 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B53" t="s">
-        <v>312</v>
-      </c>
-      <c r="C53" t="s">
-        <v>312</v>
-      </c>
-      <c r="D53" t="s">
-        <v>313</v>
-      </c>
-      <c r="E53" t="s">
-        <v>313</v>
-      </c>
-      <c r="F53" t="s">
-        <v>313</v>
-      </c>
-      <c r="G53" t="s">
-        <v>313</v>
-      </c>
-      <c r="H53" t="s">
-        <v>313</v>
-      </c>
-      <c r="I53" t="s">
-        <v>313</v>
-      </c>
-      <c r="J53" t="s">
-        <v>313</v>
-      </c>
-      <c r="K53" t="s">
-        <v>313</v>
-      </c>
-      <c r="L53" t="s">
-        <v>312</v>
-      </c>
-      <c r="M53" t="s">
-        <v>313</v>
-      </c>
-      <c r="N53" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C54" t="s">
         <v>312</v>
@@ -4735,20 +4703,56 @@
         <v>313</v>
       </c>
       <c r="E54" t="s">
+        <v>313</v>
+      </c>
+      <c r="F54" t="s">
+        <v>313</v>
+      </c>
+      <c r="G54" t="s">
+        <v>313</v>
+      </c>
+      <c r="H54" t="s">
+        <v>313</v>
+      </c>
+      <c r="I54" t="s">
+        <v>313</v>
+      </c>
+      <c r="J54" t="s">
+        <v>313</v>
+      </c>
+      <c r="K54" t="s">
+        <v>313</v>
+      </c>
+      <c r="L54" t="s">
+        <v>312</v>
+      </c>
+      <c r="M54" t="s">
+        <v>313</v>
+      </c>
+      <c r="N54" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B55" t="s">
         <v>313</v>
+      </c>
+      <c r="C55" t="s">
+        <v>312</v>
+      </c>
+      <c r="D55" t="s">
+        <v>313</v>
+      </c>
+      <c r="E55" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B56" t="s">
         <v>313</v>
@@ -4756,40 +4760,34 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>189</v>
+      </c>
+      <c r="B57" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>192</v>
       </c>
-      <c r="B57" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="B58" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
         <v>195</v>
-      </c>
-      <c r="B58" t="s">
-        <v>312</v>
-      </c>
-      <c r="C58" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>198</v>
       </c>
       <c r="B59" t="s">
         <v>312</v>
       </c>
       <c r="C59" t="s">
-        <v>313</v>
-      </c>
-      <c r="D59" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B60" t="s">
         <v>312</v>
@@ -4800,53 +4798,67 @@
       <c r="D60" t="s">
         <v>313</v>
       </c>
-      <c r="E60" t="s">
-        <v>315</v>
-      </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B61" t="s">
         <v>312</v>
       </c>
       <c r="C61" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D61" t="s">
         <v>313</v>
       </c>
       <c r="E61" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
-        <v>211</v>
+      <c r="A62" t="s">
+        <v>208</v>
       </c>
       <c r="B62" t="s">
         <v>312</v>
       </c>
+      <c r="C62" t="s">
+        <v>312</v>
+      </c>
+      <c r="D62" t="s">
+        <v>313</v>
+      </c>
+      <c r="E62" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B63" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
         <v>478</v>
-      </c>
-      <c r="B63" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>215</v>
       </c>
       <c r="B64" t="s">
         <v>314</v>
       </c>
     </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>215</v>
+      </c>
+      <c r="B65" t="s">
+        <v>314</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:U62" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:U63" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/dds/moorings.xlsx
+++ b/dds/moorings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Python\git\dtocean-core\dds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C6FF42-748B-481A-B16B-C10FE816166E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45EB6F8-09BE-4416-87D0-918E532E93B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="485">
   <si>
     <t>Identifier</t>
   </si>
@@ -1494,6 +1494,15 @@
   </si>
   <si>
     <t>4…</t>
+  </si>
+  <si>
+    <t>options.use_max_thrust</t>
+  </si>
+  <si>
+    <t>Use Maximum Turbine Thrust</t>
+  </si>
+  <si>
+    <t>Use the maximum turbine thrust coefficient for extreme rotor loads calculations. Defaults to False.</t>
   </si>
 </sst>
 </file>
@@ -1997,12 +2006,12 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A25" sqref="A25"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9"/>
+      <selection pane="topRight" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3142,6 +3151,20 @@
       </c>
       <c r="D67" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>482</v>
+      </c>
+      <c r="B68" t="s">
+        <v>163</v>
+      </c>
+      <c r="C68" t="s">
+        <v>483</v>
+      </c>
+      <c r="D68" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -3860,10 +3883,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:U65"/>
+  <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4854,6 +4877,14 @@
         <v>215</v>
       </c>
       <c r="B65" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>482</v>
+      </c>
+      <c r="B66" t="s">
         <v>314</v>
       </c>
     </row>

--- a/dds/moorings.xlsx
+++ b/dds/moorings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Python\git\dtocean-core\dds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489F5891-E74C-4B83-8216-C29EBA49D002}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45EB6F8-09BE-4416-87D0-918E532E93B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ROOT" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1">Labels!$A$1:$P$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">ROOT!$A$1:$H$64</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4">Tables!$A$1:$Q$48</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">Types!$A$1:$U$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2">Types!$A$1:$U$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">Units!$A$1:$U$43</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Labels!$A$1:$P$25</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">ROOT!$A$1:$H$64</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">Tables!$A$1:$Q$48</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="2">Types!$A$1:$U$62</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="2">Types!$A$1:$U$63</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="3">Units!$A$1:$U$43</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Labels!$A$1:$P$25</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">ROOT!$A$1:$H$64</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">Tables!$A$1:$Q$48</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="2">Types!$A$1:$U$62</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="2">Types!$A$1:$U$63</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="3">Units!$A$1:$U$43</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="485">
   <si>
     <t>Identifier</t>
   </si>
@@ -1494,6 +1494,15 @@
   </si>
   <si>
     <t>4…</t>
+  </si>
+  <si>
+    <t>options.use_max_thrust</t>
+  </si>
+  <si>
+    <t>Use Maximum Turbine Thrust</t>
+  </si>
+  <si>
+    <t>Use the maximum turbine thrust coefficient for extreme rotor loads calculations. Defaults to False.</t>
   </si>
 </sst>
 </file>
@@ -1997,12 +2006,12 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A25" sqref="A25"/>
-      <selection pane="topRight" activeCell="A66" sqref="A66"/>
+      <selection pane="topRight" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3144,6 +3153,20 @@
         <v>217</v>
       </c>
     </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>482</v>
+      </c>
+      <c r="B68" t="s">
+        <v>163</v>
+      </c>
+      <c r="C68" t="s">
+        <v>483</v>
+      </c>
+      <c r="D68" t="s">
+        <v>484</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H64" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3159,8 +3182,8 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E5" sqref="E5"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3860,10 +3883,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:U64"/>
+  <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4125,52 +4148,20 @@
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>34</v>
+      <c r="A9" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>312</v>
       </c>
-      <c r="C9" t="s">
-        <v>312</v>
-      </c>
-      <c r="D9" t="s">
-        <v>313</v>
-      </c>
-      <c r="E9" t="s">
-        <v>313</v>
-      </c>
-      <c r="F9" t="s">
-        <v>313</v>
-      </c>
-      <c r="G9" t="s">
-        <v>313</v>
-      </c>
-      <c r="H9" t="s">
-        <v>313</v>
-      </c>
-      <c r="I9" t="s">
-        <v>313</v>
-      </c>
-      <c r="J9" t="s">
-        <v>313</v>
-      </c>
-      <c r="K9" t="s">
-        <v>313</v>
-      </c>
-      <c r="L9" t="s">
-        <v>313</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>312</v>
-      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>312</v>
@@ -4213,60 +4204,81 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E11" t="s">
+        <v>313</v>
+      </c>
+      <c r="F11" t="s">
+        <v>313</v>
+      </c>
+      <c r="G11" t="s">
+        <v>313</v>
+      </c>
+      <c r="H11" t="s">
+        <v>313</v>
+      </c>
+      <c r="I11" t="s">
+        <v>313</v>
+      </c>
+      <c r="J11" t="s">
+        <v>313</v>
+      </c>
+      <c r="K11" t="s">
+        <v>313</v>
+      </c>
+      <c r="L11" t="s">
+        <v>313</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>313</v>
-      </c>
-      <c r="C12" t="s">
-        <v>313</v>
-      </c>
-      <c r="D12" t="s">
-        <v>313</v>
-      </c>
-      <c r="E12" t="s">
-        <v>313</v>
-      </c>
-      <c r="F12" t="s">
-        <v>313</v>
-      </c>
-      <c r="G12" t="s">
-        <v>313</v>
-      </c>
+      <c r="B12" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
         <v>313</v>
@@ -4289,7 +4301,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
         <v>313</v>
@@ -4298,12 +4310,21 @@
         <v>313</v>
       </c>
       <c r="D14" t="s">
+        <v>313</v>
+      </c>
+      <c r="E14" t="s">
+        <v>313</v>
+      </c>
+      <c r="F14" t="s">
+        <v>313</v>
+      </c>
+      <c r="G14" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
         <v>313</v>
@@ -4312,18 +4333,12 @@
         <v>313</v>
       </c>
       <c r="D15" t="s">
-        <v>313</v>
-      </c>
-      <c r="E15" t="s">
-        <v>313</v>
-      </c>
-      <c r="F15" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
         <v>313</v>
@@ -4343,7 +4358,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
         <v>313</v>
@@ -4352,86 +4367,98 @@
         <v>313</v>
       </c>
       <c r="D17" t="s">
+        <v>313</v>
+      </c>
+      <c r="E17" t="s">
+        <v>313</v>
+      </c>
+      <c r="F17" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>313</v>
+      </c>
+      <c r="C18" t="s">
+        <v>313</v>
+      </c>
+      <c r="D18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>63</v>
       </c>
-      <c r="B18" t="s">
-        <v>313</v>
-      </c>
-      <c r="C18" t="s">
-        <v>313</v>
-      </c>
-      <c r="D18" t="s">
-        <v>313</v>
-      </c>
-      <c r="E18" t="s">
-        <v>313</v>
-      </c>
-      <c r="F18" t="s">
-        <v>313</v>
-      </c>
-      <c r="G18" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="B19" t="s">
+        <v>313</v>
+      </c>
+      <c r="C19" t="s">
+        <v>313</v>
+      </c>
+      <c r="D19" t="s">
+        <v>313</v>
+      </c>
+      <c r="E19" t="s">
+        <v>313</v>
+      </c>
+      <c r="F19" t="s">
+        <v>313</v>
+      </c>
+      <c r="G19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>312</v>
       </c>
-      <c r="C19" t="s">
-        <v>313</v>
-      </c>
-      <c r="D19" t="s">
-        <v>313</v>
-      </c>
-      <c r="E19" t="s">
-        <v>313</v>
-      </c>
-      <c r="F19" t="s">
-        <v>313</v>
-      </c>
-      <c r="G19" t="s">
-        <v>313</v>
-      </c>
-      <c r="H19" t="s">
-        <v>313</v>
-      </c>
-      <c r="I19" t="s">
-        <v>313</v>
-      </c>
-      <c r="J19" t="s">
-        <v>313</v>
-      </c>
-      <c r="K19" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" t="s">
-        <v>314</v>
+      <c r="C20" t="s">
+        <v>313</v>
+      </c>
+      <c r="D20" t="s">
+        <v>313</v>
+      </c>
+      <c r="E20" t="s">
+        <v>313</v>
+      </c>
+      <c r="F20" t="s">
+        <v>313</v>
+      </c>
+      <c r="G20" t="s">
+        <v>313</v>
+      </c>
+      <c r="H20" t="s">
+        <v>313</v>
+      </c>
+      <c r="I20" t="s">
+        <v>313</v>
+      </c>
+      <c r="J20" t="s">
+        <v>313</v>
+      </c>
+      <c r="K20" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
         <v>313</v>
@@ -4439,39 +4466,39 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
         <v>313</v>
@@ -4479,7 +4506,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
         <v>313</v>
@@ -4487,7 +4514,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
         <v>313</v>
@@ -4495,7 +4522,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
         <v>313</v>
@@ -4503,23 +4530,23 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B33" t="s">
         <v>313</v>
@@ -4527,23 +4554,23 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B34" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B36" t="s">
         <v>313</v>
@@ -4551,31 +4578,31 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>132</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>313</v>
+        <v>128</v>
+      </c>
+      <c r="B38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>135</v>
-      </c>
-      <c r="B39" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="14" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B40" t="s">
         <v>313</v>
@@ -4583,15 +4610,15 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>141</v>
-      </c>
-      <c r="B41" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>313</v>
@@ -4599,15 +4626,15 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>147</v>
-      </c>
-      <c r="B43" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="14" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B44" t="s">
         <v>313</v>
@@ -4615,7 +4642,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B45" t="s">
         <v>313</v>
@@ -4623,7 +4650,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s">
         <v>313</v>
@@ -4631,7 +4658,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B47" t="s">
         <v>313</v>
@@ -4639,7 +4666,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B48" t="s">
         <v>313</v>
@@ -4647,7 +4674,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B49" t="s">
         <v>313</v>
@@ -4655,23 +4682,23 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>169</v>
       </c>
-      <c r="B50" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="B51" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
         <v>172</v>
-      </c>
-      <c r="B51" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>175</v>
       </c>
       <c r="B52" t="s">
         <v>313</v>
@@ -4679,54 +4706,18 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B53" t="s">
-        <v>312</v>
-      </c>
-      <c r="C53" t="s">
-        <v>312</v>
-      </c>
-      <c r="D53" t="s">
-        <v>313</v>
-      </c>
-      <c r="E53" t="s">
-        <v>313</v>
-      </c>
-      <c r="F53" t="s">
-        <v>313</v>
-      </c>
-      <c r="G53" t="s">
-        <v>313</v>
-      </c>
-      <c r="H53" t="s">
-        <v>313</v>
-      </c>
-      <c r="I53" t="s">
-        <v>313</v>
-      </c>
-      <c r="J53" t="s">
-        <v>313</v>
-      </c>
-      <c r="K53" t="s">
-        <v>313</v>
-      </c>
-      <c r="L53" t="s">
-        <v>312</v>
-      </c>
-      <c r="M53" t="s">
-        <v>313</v>
-      </c>
-      <c r="N53" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C54" t="s">
         <v>312</v>
@@ -4735,20 +4726,56 @@
         <v>313</v>
       </c>
       <c r="E54" t="s">
+        <v>313</v>
+      </c>
+      <c r="F54" t="s">
+        <v>313</v>
+      </c>
+      <c r="G54" t="s">
+        <v>313</v>
+      </c>
+      <c r="H54" t="s">
+        <v>313</v>
+      </c>
+      <c r="I54" t="s">
+        <v>313</v>
+      </c>
+      <c r="J54" t="s">
+        <v>313</v>
+      </c>
+      <c r="K54" t="s">
+        <v>313</v>
+      </c>
+      <c r="L54" t="s">
         <v>312</v>
+      </c>
+      <c r="M54" t="s">
+        <v>313</v>
+      </c>
+      <c r="N54" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B55" t="s">
         <v>313</v>
+      </c>
+      <c r="C55" t="s">
+        <v>312</v>
+      </c>
+      <c r="D55" t="s">
+        <v>313</v>
+      </c>
+      <c r="E55" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B56" t="s">
         <v>313</v>
@@ -4756,40 +4783,34 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>189</v>
+      </c>
+      <c r="B57" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>192</v>
       </c>
-      <c r="B57" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="B58" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
         <v>195</v>
-      </c>
-      <c r="B58" t="s">
-        <v>312</v>
-      </c>
-      <c r="C58" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>198</v>
       </c>
       <c r="B59" t="s">
         <v>312</v>
       </c>
       <c r="C59" t="s">
-        <v>313</v>
-      </c>
-      <c r="D59" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B60" t="s">
         <v>312</v>
@@ -4800,53 +4821,75 @@
       <c r="D60" t="s">
         <v>313</v>
       </c>
-      <c r="E60" t="s">
-        <v>315</v>
-      </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B61" t="s">
         <v>312</v>
       </c>
       <c r="C61" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D61" t="s">
         <v>313</v>
       </c>
       <c r="E61" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
-        <v>211</v>
+      <c r="A62" t="s">
+        <v>208</v>
       </c>
       <c r="B62" t="s">
         <v>312</v>
       </c>
+      <c r="C62" t="s">
+        <v>312</v>
+      </c>
+      <c r="D62" t="s">
+        <v>313</v>
+      </c>
+      <c r="E62" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B63" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
         <v>478</v>
-      </c>
-      <c r="B63" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>215</v>
       </c>
       <c r="B64" t="s">
         <v>314</v>
       </c>
     </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>215</v>
+      </c>
+      <c r="B65" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>482</v>
+      </c>
+      <c r="B66" t="s">
+        <v>314</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:U62" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:U63" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -4859,7 +4902,7 @@
   </sheetPr>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -6630,7 +6673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D3FEB9-F392-4ED5-9FBD-1CEC6E15BEA5}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
